--- a/data/2023년 2학기 정규 시간표.xlsx
+++ b/data/2023년 2학기 정규 시간표.xlsx
@@ -873,7 +873,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>697</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>화7~8</t>
+          <t>화5~6</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -937,7 +937,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>월8~9</t>
+          <t>화7~8</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>751</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>수5~6</t>
+          <t>수3~4</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>760</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>수3~4</t>
+          <t>수5~6</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1129,7 +1129,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>769</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>화5~6</t>
+          <t>월8~9</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1193,7 +1193,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>701</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>강경아</t>
+          <t>김일옥</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1253,7 +1253,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>신성례</t>
+          <t>강경아</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1313,7 +1313,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>752</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>이은혜</t>
+          <t>유혜진</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1373,7 +1373,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>761</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>유혜진</t>
+          <t>신선화</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1433,7 +1433,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>오복자</t>
+          <t>신성례</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1493,7 +1493,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>778</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>김일옥</t>
+          <t>오복자</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1553,7 +1553,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>782</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>김지현</t>
+          <t>이은혜</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1613,7 +1613,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>783</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>김현영</t>
+          <t>김지현</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1673,7 +1673,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>784</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>신선화</t>
+          <t>김현영</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1973,7 +1973,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>705</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>월5~6</t>
+          <t>월1~2</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>741</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>월1~2</t>
+          <t>월5~6</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2585,7 +2585,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2632,12 +2632,16 @@
         </is>
       </c>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>(팀티칭)</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>739</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2684,16 +2688,12 @@
         </is>
       </c>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>(팀티칭)</t>
-        </is>
-      </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>753</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2740,16 +2740,12 @@
         </is>
       </c>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>(팀티칭)</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>762</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2805,7 +2801,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>771</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2852,12 +2848,16 @@
         </is>
       </c>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>(팀티칭)</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>779</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3021,7 +3021,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>755</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3068,7 +3068,11 @@
         </is>
       </c>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>(팀티칭)</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3129,7 +3133,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>773</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3176,11 +3180,7 @@
         </is>
       </c>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>(팀티칭)</t>
-        </is>
-      </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3297,7 +3297,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>688</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3344,16 +3344,12 @@
         </is>
       </c>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>(팀티칭)</t>
-        </is>
-      </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>733</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3400,12 +3396,16 @@
         </is>
       </c>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>(팀티칭)</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>748</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3513,7 +3513,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>766</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3569,7 +3569,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3621,7 +3621,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>706</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>월1~2,화1~2</t>
+          <t>월6~7,화5~6</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3681,7 +3681,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>742</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>월6~7,화5~6</t>
+          <t>월1~2,화1~2</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3921,7 +3921,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>708</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3968,16 +3968,12 @@
         </is>
       </c>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>(팀티칭)</t>
-        </is>
-      </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>754</t>
+          <t>744</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4024,12 +4020,16 @@
         </is>
       </c>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>(팀티칭)</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>754</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4081,7 +4081,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>763</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4137,7 +4137,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4481,7 +4481,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>687</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4528,16 +4528,12 @@
         </is>
       </c>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>(팀티칭)</t>
-        </is>
-      </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>732</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4584,11 +4580,7 @@
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>(팀티칭)</t>
-        </is>
-      </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4645,7 +4637,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>756</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4692,12 +4684,16 @@
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>(팀티칭)</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>756</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4744,12 +4740,16 @@
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>(팀티칭)</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>765</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5029,7 +5029,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>692</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5076,16 +5076,12 @@
         </is>
       </c>
       <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>(팀티칭)</t>
-        </is>
-      </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>735</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5137,7 +5133,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5184,12 +5180,16 @@
         </is>
       </c>
       <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>(팀티칭)</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>759</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5245,7 +5245,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>768</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5301,7 +5301,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>777</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5357,7 +5357,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>730</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>월5~6,수3~4</t>
+          <t>월7~8,수6~7</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5421,7 +5421,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>746</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>월7~8,수6~7</t>
+          <t>월5~6,수3~4</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5545,7 +5545,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>686</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>월7~8,수6~7</t>
+          <t>월5~6,수3~4</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5609,7 +5609,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>731</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5650,7 +5650,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>월5~6,수3~4</t>
+          <t>월7~8,수6~7</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5673,7 +5673,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5729,7 +5729,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>734</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5776,7 +5776,11 @@
         </is>
       </c>
       <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>(팀티칭)</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5833,7 +5837,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5880,16 +5884,12 @@
         </is>
       </c>
       <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>(팀티칭)</t>
-        </is>
-      </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>767</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -8601,7 +8601,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1348</t>
+          <t>1347</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -8637,7 +8637,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>전세진</t>
+          <t>강태진</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -8661,7 +8661,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>1348</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -8697,7 +8697,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>정태환</t>
+          <t>전세진</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -8721,7 +8721,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>허상민</t>
+          <t>정태환</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8781,7 +8781,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>1350</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -8817,7 +8817,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>강태진</t>
+          <t>허상민</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9369,7 +9369,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>821</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -9410,7 +9410,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>목7~8</t>
+          <t>목5~6</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -9429,7 +9429,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>862</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -9470,7 +9470,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>목5~6</t>
+          <t>목7~8</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -9489,7 +9489,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>829</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -9530,7 +9530,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>월8~9</t>
+          <t>월5~6</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -9549,7 +9549,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>863</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -9590,7 +9590,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>월5~6</t>
+          <t>월8~9</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -10089,7 +10089,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>830</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -10125,7 +10125,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>강병용</t>
+          <t>최종완</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -10149,7 +10149,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>831</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -10185,7 +10185,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>최종완</t>
+          <t>황윤정</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -10209,7 +10209,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>832</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>고원배</t>
+          <t>김기범</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -10269,7 +10269,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>833</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -10305,7 +10305,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>황윤정</t>
+          <t>강병용</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -10329,7 +10329,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>834</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -10365,7 +10365,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>김미경</t>
+          <t>고원배</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -10389,7 +10389,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>835</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -10425,7 +10425,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>김기범</t>
+          <t>김미경</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -11825,7 +11825,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>812</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -11861,12 +11861,12 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>황윤정</t>
+          <t>홍동현</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>일2~4</t>
+          <t>목2~4</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -11945,7 +11945,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>858</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -11981,12 +11981,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>홍동현</t>
+          <t>황윤정</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>목2~4</t>
+          <t>일2~4</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -12473,7 +12473,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>1537</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -12509,12 +12509,12 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>최종완</t>
+          <t>박명환</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>일5~7</t>
+          <t>일2~4</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -12533,7 +12533,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>859</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -12569,12 +12569,12 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>박명환</t>
+          <t>최종완</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>일2~4</t>
+          <t>일5~7</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -13233,7 +13233,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>1545</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -13269,7 +13269,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>류병열</t>
+          <t>남상용</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -13293,7 +13293,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>1545</t>
+          <t>1547</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -13329,7 +13329,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>남상용</t>
+          <t>김유선</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -13353,7 +13353,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>1547</t>
+          <t>1548</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -13389,7 +13389,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>김유선</t>
+          <t>류병열</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -15961,7 +15961,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -16002,7 +16002,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>수6~7</t>
+          <t>수8~9</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -16021,7 +16021,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>602</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -16062,7 +16062,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>수8~9</t>
+          <t>수6~7</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -16201,7 +16201,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>588</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -16242,7 +16242,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>화1~3</t>
+          <t>화5~7</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -16261,7 +16261,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>601</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -16302,7 +16302,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>화5~7</t>
+          <t>화1~3</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -16741,7 +16741,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>곽재환</t>
+          <t>조한준</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -16797,7 +16797,7 @@
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>"나"</t>
+          <t>"라"반</t>
         </is>
       </c>
       <c r="N278" t="inlineStr"/>
@@ -16805,7 +16805,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>610</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -16841,7 +16841,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>조한준</t>
+          <t>곽재환</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -16861,7 +16861,7 @@
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>"라"반</t>
+          <t>"나"</t>
         </is>
       </c>
       <c r="N279" t="inlineStr"/>
@@ -16869,7 +16869,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -16903,14 +16903,10 @@
           <t>3</t>
         </is>
       </c>
-      <c r="I280" t="inlineStr">
-        <is>
-          <t>이윤하</t>
-        </is>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>금2~6</t>
+          <t>금1~5</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -16925,7 +16921,7 @@
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>"가"반</t>
+          <t>"다"반</t>
         </is>
       </c>
       <c r="N280" t="inlineStr"/>
@@ -16997,7 +16993,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>605</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -17031,10 +17027,14 @@
           <t>3</t>
         </is>
       </c>
-      <c r="I282" t="inlineStr"/>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>이윤하</t>
+        </is>
+      </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>금1~5</t>
+          <t>금2~6</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -17049,7 +17049,7 @@
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>"다"반</t>
+          <t>"가"반</t>
         </is>
       </c>
       <c r="N282" t="inlineStr"/>
@@ -17893,7 +17893,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>안경섭</t>
+          <t>박창권</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -17953,7 +17953,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -17989,12 +17989,12 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>박창권</t>
+          <t>사광균</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>목1~5</t>
+          <t>금1~5</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -18013,7 +18013,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -18049,7 +18049,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>사광균</t>
+          <t>민영기</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -18073,7 +18073,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -18109,12 +18109,12 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>민영기</t>
+          <t>안경섭</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>금1~5</t>
+          <t>목1~5</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -18133,7 +18133,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>538</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -18174,7 +18174,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>화1~3</t>
+          <t>화5~7</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -18193,7 +18193,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -18234,7 +18234,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>화5~7</t>
+          <t>화1~3</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -18425,7 +18425,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>532</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -18461,7 +18461,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Seungwook Thomas Chung</t>
+          <t>이태은</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -18485,7 +18485,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -18521,7 +18521,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>이규일</t>
+          <t>권혜주</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -18545,7 +18545,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -18581,7 +18581,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>사광균</t>
+          <t>Seungwook Thomas Chung</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -18605,7 +18605,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>575</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -18641,7 +18641,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>이태은</t>
+          <t>사광균</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -18665,7 +18665,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -18701,7 +18701,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>권혜주</t>
+          <t>이규일</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -18785,7 +18785,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -18821,12 +18821,12 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>조한준</t>
+          <t>김유진</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>화4~8</t>
+          <t>화1~5</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -18841,7 +18841,7 @@
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>"라"반</t>
+          <t>"다"반</t>
         </is>
       </c>
       <c r="N312" t="inlineStr"/>
@@ -18849,7 +18849,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>551</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -18885,12 +18885,12 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>김유진</t>
+          <t>조한준</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>화1~5</t>
+          <t>화4~8</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -18905,7 +18905,7 @@
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>"다"반</t>
+          <t>"라"반</t>
         </is>
       </c>
       <c r="N313" t="inlineStr"/>
@@ -19041,7 +19041,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>541</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -19077,7 +19077,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>곽재환</t>
+          <t>이윤하</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -19097,7 +19097,7 @@
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>"나"반</t>
+          <t>"가"반</t>
         </is>
       </c>
       <c r="N316" t="inlineStr"/>
@@ -19105,7 +19105,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -19141,12 +19141,12 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>이윤하</t>
+          <t>미지정</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>금2~6</t>
+          <t>금1~5</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -19161,7 +19161,7 @@
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>"가"반</t>
+          <t>"다"반</t>
         </is>
       </c>
       <c r="N317" t="inlineStr"/>
@@ -19169,7 +19169,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>568</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -19205,12 +19205,12 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>정재선</t>
+          <t>곽재환</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>금1~5</t>
+          <t>금2~6</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -19225,7 +19225,7 @@
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>"라"반</t>
+          <t>"나"반</t>
         </is>
       </c>
       <c r="N318" t="inlineStr"/>
@@ -19233,7 +19233,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>577</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -19269,7 +19269,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>정재선</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -19289,7 +19289,7 @@
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>"다"반</t>
+          <t>"라"반</t>
         </is>
       </c>
       <c r="N319" t="inlineStr"/>
@@ -19653,7 +19653,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -19689,7 +19689,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>김지훈</t>
+          <t>사광균</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -19709,7 +19709,7 @@
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>"라"반</t>
+          <t>"나"반</t>
         </is>
       </c>
       <c r="N326" t="inlineStr"/>
@@ -19781,7 +19781,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -19817,7 +19817,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>사광균</t>
+          <t>김지훈</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -19837,7 +19837,7 @@
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>"나"반</t>
+          <t>"라"반</t>
         </is>
       </c>
       <c r="N328" t="inlineStr"/>
@@ -19909,7 +19909,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -19945,7 +19945,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Seungwook Thomas Chung</t>
+          <t>김형일</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -19965,7 +19965,7 @@
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>"라"반</t>
+          <t>"다"반</t>
         </is>
       </c>
       <c r="N330" t="inlineStr"/>
@@ -20037,7 +20037,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -20073,7 +20073,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>김형일</t>
+          <t>강혁진</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -20093,7 +20093,7 @@
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>"다"반</t>
+          <t>"가"반</t>
         </is>
       </c>
       <c r="N332" t="inlineStr"/>
@@ -20101,7 +20101,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -20137,7 +20137,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>강혁진</t>
+          <t>Seungwook Thomas Chung</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -20157,7 +20157,7 @@
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>"가"반</t>
+          <t>"라"반</t>
         </is>
       </c>
       <c r="N333" t="inlineStr"/>
@@ -20405,7 +20405,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -20446,7 +20446,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>수6~9</t>
+          <t>수2~5</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -20465,7 +20465,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -20506,7 +20506,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>수2~5</t>
+          <t>수6~9</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -20585,7 +20585,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -20621,7 +20621,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>이승우</t>
+          <t>최재평</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -20641,7 +20641,7 @@
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>"라"반</t>
+          <t>"나"반</t>
         </is>
       </c>
       <c r="N341" t="inlineStr"/>
@@ -20649,7 +20649,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -20685,7 +20685,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>최재평</t>
+          <t>강병국</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -20705,7 +20705,7 @@
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>"나"반</t>
+          <t>"다"반</t>
         </is>
       </c>
       <c r="N342" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -20749,7 +20749,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>김경호</t>
+          <t>이승우</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -20769,7 +20769,7 @@
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>"가"반</t>
+          <t>"라"반</t>
         </is>
       </c>
       <c r="N343" t="inlineStr"/>
@@ -20777,7 +20777,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>580</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -20813,7 +20813,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>강병국</t>
+          <t>김경호</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -20833,7 +20833,7 @@
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>"다"반</t>
+          <t>"가"반</t>
         </is>
       </c>
       <c r="N344" t="inlineStr"/>
@@ -20841,7 +20841,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -20877,7 +20877,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>임상우</t>
+          <t>강병국</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -20897,7 +20897,7 @@
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>"라"반</t>
+          <t>"다"반</t>
         </is>
       </c>
       <c r="N345" t="inlineStr"/>
@@ -20905,7 +20905,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -20941,7 +20941,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>오영재</t>
+          <t>권혜주</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -20961,7 +20961,7 @@
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>"나"반</t>
+          <t>"가"반</t>
         </is>
       </c>
       <c r="N346" t="inlineStr"/>
@@ -20969,7 +20969,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>564</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -21005,7 +21005,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>강병국</t>
+          <t>오영재</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -21025,7 +21025,7 @@
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>"다"반</t>
+          <t>"나"반</t>
         </is>
       </c>
       <c r="N347" t="inlineStr"/>
@@ -21033,7 +21033,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>573</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -21069,7 +21069,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>권혜주</t>
+          <t>임상우</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -21089,7 +21089,7 @@
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>"가"반</t>
+          <t>"라"반</t>
         </is>
       </c>
       <c r="N348" t="inlineStr"/>
@@ -21277,7 +21277,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -21313,12 +21313,12 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>이규일</t>
+          <t>권혜주</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>월1~5</t>
+          <t>목1~5</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -21337,7 +21337,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -21373,12 +21373,12 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>사광균</t>
+          <t>이규일</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>목1~5</t>
+          <t>월1~5</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -21457,7 +21457,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -21493,7 +21493,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>권혜주</t>
+          <t>사광균</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -21761,7 +21761,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>989</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -21802,7 +21802,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>수1~2</t>
+          <t>수6~7</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -21821,7 +21821,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>999</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -21862,7 +21862,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>수6~7</t>
+          <t>수1~2</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -21881,7 +21881,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -21922,7 +21922,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>목5~7</t>
+          <t>금1~3</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -21941,7 +21941,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>995</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -21982,7 +21982,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>금1~3</t>
+          <t>목5~7</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -22061,7 +22061,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -22097,12 +22097,12 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>이현미</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>목5~7</t>
+          <t>목1~3</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -22121,7 +22121,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>994</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -22157,12 +22157,12 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>전성아</t>
+          <t>미지정</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>화5~7</t>
+          <t>목5~7</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -22181,7 +22181,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>994</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -22217,12 +22217,12 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>이현미</t>
+          <t>전성아</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>목1~3</t>
+          <t>화5~7</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -22241,7 +22241,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -22282,7 +22282,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>월1~3</t>
+          <t>수1~3</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -22301,7 +22301,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -22337,12 +22337,12 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>노주희</t>
+          <t>하임성</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>수1~3</t>
+          <t>화1~3</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -22361,7 +22361,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -22397,12 +22397,12 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>하임성</t>
+          <t>노주희</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>화1~3</t>
+          <t>월1~3</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -22481,7 +22481,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>993</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -22517,12 +22517,12 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>이은미</t>
+          <t>미지정</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>수6~8</t>
+          <t>월1~3</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -22541,7 +22541,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>993</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -22577,12 +22577,12 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>이은미</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>월1~3</t>
+          <t>수6~8</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -22657,7 +22657,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -22693,7 +22693,7 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>이은미</t>
+          <t>김용선</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -22717,7 +22717,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>1204</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -22753,7 +22753,7 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>김용선</t>
+          <t>이은미</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -22957,7 +22957,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>1186</t>
+          <t>1173</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -22993,12 +22993,12 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>오일성</t>
+          <t>정금순</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>목1~3</t>
+          <t>금6~8</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -23017,7 +23017,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>1186</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -23053,12 +23053,12 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>정금순</t>
+          <t>오일성</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>금6~8</t>
+          <t>목1~3</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -23197,7 +23197,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>1193</t>
+          <t>1182</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -23233,12 +23233,12 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>서정미</t>
+          <t>권도연</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>화5~7</t>
+          <t>금5~7</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -23257,7 +23257,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>1193</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -23293,12 +23293,12 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>권도연</t>
+          <t>서정미</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>금5~7</t>
+          <t>화5~7</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -23317,7 +23317,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>1190</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -23353,12 +23353,12 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>노주희</t>
+          <t>하임성</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>화1~3</t>
+          <t>수1~3</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -23437,7 +23437,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>1190</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -23473,12 +23473,12 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>하임성</t>
+          <t>노주희</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>수1~3</t>
+          <t>화1~3</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -23497,7 +23497,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>1189</t>
+          <t>1160</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -23533,12 +23533,12 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>김춘옥</t>
+          <t>김용선</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>금1~3</t>
+          <t>수6~8</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -23557,7 +23557,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>1176</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -23598,7 +23598,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>수6~8</t>
+          <t>화5~7</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -23617,7 +23617,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>1176</t>
+          <t>1189</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -23653,12 +23653,12 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>김용선</t>
+          <t>김춘옥</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>화5~7</t>
+          <t>금1~3</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -23677,7 +23677,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>1172</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -23713,12 +23713,12 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>전종범</t>
+          <t>이라건</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>수6~8</t>
+          <t>금5~7</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -23737,7 +23737,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>1172</t>
+          <t>1185</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -23773,12 +23773,12 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>이라건</t>
+          <t>전종범</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>금5~7</t>
+          <t>수1~3</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -23797,7 +23797,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>1185</t>
+          <t>1195</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -23838,7 +23838,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>수1~3</t>
+          <t>수6~8</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -24153,7 +24153,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>1187</t>
+          <t>1174</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -24194,7 +24194,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>목5~7</t>
+          <t>목1~3</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -24213,7 +24213,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>1174</t>
+          <t>1187</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -24254,7 +24254,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>목1~3</t>
+          <t>목5~7</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -24333,7 +24333,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -24369,12 +24369,12 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>이라건</t>
+          <t>윤진영</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>금1~3</t>
+          <t>목1~3</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -24393,7 +24393,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>1188</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -24429,12 +24429,12 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>윤진영</t>
+          <t>이라건</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>목1~3</t>
+          <t>금1~3</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -24453,7 +24453,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>1180</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -24494,7 +24494,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>월1~3</t>
+          <t>월6~8</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -24513,7 +24513,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>1180</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -24554,7 +24554,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>월6~8</t>
+          <t>월1~3</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -24873,7 +24873,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>1184</t>
+          <t>1171</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -24914,7 +24914,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>화1~3</t>
+          <t>화5~7</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -24933,7 +24933,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>1171</t>
+          <t>1184</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -24974,7 +24974,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>화5~7</t>
+          <t>화1~3</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -24993,7 +24993,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>1183</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -25029,12 +25029,12 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>이라건</t>
+          <t>하임성</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>월1~3</t>
+          <t>목1~3</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -25053,7 +25053,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>1194</t>
+          <t>1183</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -25089,12 +25089,12 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>조혜령</t>
+          <t>이라건</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>목5~7</t>
+          <t>월1~3</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -25113,7 +25113,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>1194</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -25149,12 +25149,12 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>하임성</t>
+          <t>조혜령</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>목1~3</t>
+          <t>목5~7</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -25173,7 +25173,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -25209,12 +25209,12 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>조대명</t>
+          <t>오혜전</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>월9~10</t>
+          <t>월5~6</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -25353,7 +25353,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -25389,12 +25389,12 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>오혜전</t>
+          <t>조대명</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>월5~6</t>
+          <t>월9~10</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -26461,7 +26461,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -26497,17 +26497,17 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>임봉순</t>
+          <t>오혜전</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>목7~8</t>
+          <t>월5~6</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>대강당(메인)</t>
+          <t>음악관102호(콘서트홀)</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -26517,7 +26517,7 @@
       </c>
       <c r="M438" t="inlineStr">
         <is>
-          <t>관현악 전공</t>
+          <t>피아노 전공</t>
         </is>
       </c>
       <c r="N438" t="inlineStr"/>
@@ -26525,7 +26525,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -26561,12 +26561,12 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>오혜전</t>
+          <t>김철호</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>월5~6</t>
+          <t>수7~8</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -26581,7 +26581,7 @@
       </c>
       <c r="M439" t="inlineStr">
         <is>
-          <t>피아노 전공</t>
+          <t>성악 전공</t>
         </is>
       </c>
       <c r="N439" t="inlineStr"/>
@@ -26589,7 +26589,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -26625,17 +26625,17 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>김철호</t>
+          <t>임봉순</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>수7~8</t>
+          <t>목7~8</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>음악관102호(콘서트홀)</t>
+          <t>대강당(메인)</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -26645,7 +26645,7 @@
       </c>
       <c r="M440" t="inlineStr">
         <is>
-          <t>성악 전공</t>
+          <t>관현악 전공</t>
         </is>
       </c>
       <c r="N440" t="inlineStr"/>
@@ -26717,7 +26717,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -26753,7 +26753,7 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>임봉순</t>
+          <t>오혜전</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -26777,7 +26777,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -26813,7 +26813,7 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>설대환</t>
+          <t>임봉순</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -26897,7 +26897,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -26933,7 +26933,7 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>오혜전</t>
+          <t>조대명</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -26957,7 +26957,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -26993,7 +26993,7 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>조대명</t>
+          <t>설대환</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -27321,7 +27321,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -27357,12 +27357,12 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>성주진</t>
+          <t>Alexander Park</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>목7~8</t>
+          <t>금5~6</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -27377,7 +27377,7 @@
       </c>
       <c r="M452" t="inlineStr">
         <is>
-          <t>관악 실내악</t>
+          <t>현악 실내악</t>
         </is>
       </c>
       <c r="N452" t="inlineStr"/>
@@ -27385,7 +27385,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -27421,12 +27421,12 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Alexander Park</t>
+          <t>성주진</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>금5~6</t>
+          <t>목7~8</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -27441,7 +27441,7 @@
       </c>
       <c r="M453" t="inlineStr">
         <is>
-          <t>현악 실내악</t>
+          <t>관악 실내악</t>
         </is>
       </c>
       <c r="N453" t="inlineStr"/>
@@ -28301,7 +28301,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -28337,12 +28337,12 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>김철호</t>
+          <t>오혜전</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>수7~8</t>
+          <t>월5~6</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -28357,7 +28357,7 @@
       </c>
       <c r="M468" t="inlineStr">
         <is>
-          <t>성악전공</t>
+          <t>피아노전공</t>
         </is>
       </c>
       <c r="N468" t="inlineStr"/>
@@ -28365,7 +28365,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -28401,17 +28401,17 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>임봉순</t>
+          <t>김철호</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>목7~8</t>
+          <t>수7~8</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>대강당(메인)</t>
+          <t>음악관102호(콘서트홀)</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -28421,7 +28421,7 @@
       </c>
       <c r="M469" t="inlineStr">
         <is>
-          <t>관현악전공</t>
+          <t>성악전공</t>
         </is>
       </c>
       <c r="N469" t="inlineStr"/>
@@ -28429,7 +28429,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -28465,17 +28465,17 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>오혜전</t>
+          <t>임봉순</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>월5~6</t>
+          <t>목7~8</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>음악관102호(콘서트홀)</t>
+          <t>대강당(메인)</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
@@ -28485,7 +28485,7 @@
       </c>
       <c r="M470" t="inlineStr">
         <is>
-          <t>피아노전공</t>
+          <t>관현악전공</t>
         </is>
       </c>
       <c r="N470" t="inlineStr"/>
@@ -29421,7 +29421,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -29457,17 +29457,17 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>성주진</t>
+          <t>임봉순</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>목9~10</t>
+          <t>목5~6</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>대강당(메인)</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
@@ -29477,7 +29477,7 @@
       </c>
       <c r="M486" t="inlineStr">
         <is>
-          <t>관악 앙상블</t>
+          <t>현악 앙상블</t>
         </is>
       </c>
       <c r="N486" t="inlineStr"/>
@@ -29485,7 +29485,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>501</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -29521,17 +29521,17 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>임봉순</t>
+          <t>성주진</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>목5~6</t>
+          <t>목9~10</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>대강당(메인)</t>
+          <t>미지정</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
@@ -29541,7 +29541,7 @@
       </c>
       <c r="M487" t="inlineStr">
         <is>
-          <t>현악 앙상블</t>
+          <t>관악 앙상블</t>
         </is>
       </c>
       <c r="N487" t="inlineStr"/>
@@ -30045,7 +30045,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -30081,12 +30081,12 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>조대명</t>
+          <t>오혜전</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>월9~10</t>
+          <t>월5~6</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -30101,7 +30101,7 @@
       </c>
       <c r="M496" t="inlineStr">
         <is>
-          <t>작곡전공</t>
+          <t>피아노전공</t>
         </is>
       </c>
       <c r="N496" t="inlineStr"/>
@@ -30109,7 +30109,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -30145,17 +30145,17 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>오혜전</t>
+          <t>임봉순</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>월5~6</t>
+          <t>목7~8</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>음악관102호(콘서트홀)</t>
+          <t>대강당(메인)</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -30165,7 +30165,7 @@
       </c>
       <c r="M497" t="inlineStr">
         <is>
-          <t>피아노전공</t>
+          <t>관현악전공</t>
         </is>
       </c>
       <c r="N497" t="inlineStr"/>
@@ -30237,7 +30237,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>616</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -30273,17 +30273,17 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>임봉순</t>
+          <t>조대명</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>목7~8</t>
+          <t>월9~10</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>대강당(메인)</t>
+          <t>음악관102호(콘서트홀)</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
@@ -30293,7 +30293,7 @@
       </c>
       <c r="M499" t="inlineStr">
         <is>
-          <t>관현악전공</t>
+          <t>작곡전공</t>
         </is>
       </c>
       <c r="N499" t="inlineStr"/>
@@ -31569,7 +31569,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1087</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -31614,7 +31614,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>목1~2</t>
+          <t>목5~6</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -31633,7 +31633,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>1087</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -31678,7 +31678,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>목5~6</t>
+          <t>목1~2</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -31873,7 +31873,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>1097</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -31914,7 +31914,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>목1~3</t>
+          <t>화1~3</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -31933,7 +31933,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>1097</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -31974,7 +31974,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>화1~3</t>
+          <t>목1~3</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -31993,7 +31993,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>1092</t>
+          <t>1071</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -32034,7 +32034,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>화1~3</t>
+          <t>화5~7</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -32053,7 +32053,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>1071</t>
+          <t>1092</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -32094,7 +32094,7 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>화5~7</t>
+          <t>화1~3</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -32289,7 +32289,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1098</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -32325,7 +32325,7 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>신용재</t>
+          <t>최성욱</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
@@ -32349,7 +32349,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -32385,7 +32385,7 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>고장혁</t>
+          <t>신용재</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
@@ -32409,7 +32409,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -32445,7 +32445,7 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>류한철</t>
+          <t>고장혁</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
@@ -32469,7 +32469,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>1098</t>
+          <t>1104</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -32505,7 +32505,7 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>최성욱</t>
+          <t>최민석</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
@@ -32529,7 +32529,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>1105</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -32565,7 +32565,7 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>최민석</t>
+          <t>양민규</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
@@ -32589,7 +32589,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>1106</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -32625,7 +32625,7 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>양민규</t>
+          <t>류한철</t>
         </is>
       </c>
       <c r="J538" t="inlineStr">
@@ -32777,7 +32777,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>1094</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -32818,7 +32818,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>수5~7</t>
+          <t>수1~3</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -32837,7 +32837,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>1094</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -32878,7 +32878,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>수1~3</t>
+          <t>수5~7</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -33833,7 +33833,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>1534</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -33874,7 +33874,7 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>목1~3</t>
+          <t>목5~7</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
@@ -33893,7 +33893,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>1534</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -33934,7 +33934,7 @@
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>목5~7</t>
+          <t>목1~3</t>
         </is>
       </c>
       <c r="K560" t="inlineStr">
@@ -34369,7 +34369,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>1333</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -34410,7 +34410,7 @@
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>화5~7</t>
+          <t>화1~3</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -34429,7 +34429,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>1332</t>
+          <t>1333</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -34470,7 +34470,7 @@
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>화1~3</t>
+          <t>화5~7</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -34781,7 +34781,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>1678</t>
+          <t>1554</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -34822,12 +34822,12 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>목10~12</t>
+          <t>목2~4</t>
         </is>
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>온라인</t>
+          <t>미지정</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
@@ -34841,7 +34841,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>1554</t>
+          <t>1678</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -34882,12 +34882,12 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>목2~4</t>
+          <t>목10~12</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>온라인</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
@@ -34957,7 +34957,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>1139</t>
+          <t>1108</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -34998,7 +34998,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>수8~9</t>
+          <t>수4~5</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -35013,7 +35013,7 @@
       </c>
       <c r="M578" t="inlineStr">
         <is>
-          <t>짝수반(B반)</t>
+          <t>홀수반(A반)</t>
         </is>
       </c>
       <c r="N578" t="inlineStr"/>
@@ -35021,7 +35021,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>1108</t>
+          <t>1139</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -35062,7 +35062,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>수4~5</t>
+          <t>수8~9</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
@@ -35077,7 +35077,7 @@
       </c>
       <c r="M579" t="inlineStr">
         <is>
-          <t>홀수반(A반)</t>
+          <t>짝수반(B반)</t>
         </is>
       </c>
       <c r="N579" t="inlineStr"/>
@@ -35401,7 +35401,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -35442,7 +35442,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>화1~3</t>
+          <t>화4~6</t>
         </is>
       </c>
       <c r="K585" t="inlineStr">
@@ -35457,7 +35457,7 @@
       </c>
       <c r="M585" t="inlineStr">
         <is>
-          <t>홀수반(A반)</t>
+          <t>짝수반(B반)</t>
         </is>
       </c>
       <c r="N585" t="inlineStr"/>
@@ -35465,7 +35465,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1141</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -35506,7 +35506,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>화4~6</t>
+          <t>화1~3</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -35521,7 +35521,7 @@
       </c>
       <c r="M586" t="inlineStr">
         <is>
-          <t>짝수반(B반)</t>
+          <t>홀수반(A반)</t>
         </is>
       </c>
       <c r="N586" t="inlineStr"/>
@@ -35641,7 +35641,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>1158</t>
+          <t>1119</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -35677,7 +35677,7 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>김정숙</t>
+          <t>김성완</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
@@ -35701,7 +35701,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>1157</t>
+          <t>1144</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -35737,7 +35737,7 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>김현규</t>
+          <t>조충희</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
@@ -35821,7 +35821,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>1157</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -35857,7 +35857,7 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>김성완</t>
+          <t>김현규</t>
         </is>
       </c>
       <c r="J592" t="inlineStr">
@@ -35881,7 +35881,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>1144</t>
+          <t>1158</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -35917,7 +35917,7 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>조충희</t>
+          <t>김정숙</t>
         </is>
       </c>
       <c r="J593" t="inlineStr">
@@ -36197,7 +36197,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>1155</t>
+          <t>1137</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -36238,7 +36238,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>목6~8</t>
+          <t>목2~4</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
@@ -36253,7 +36253,7 @@
       </c>
       <c r="M598" t="inlineStr">
         <is>
-          <t>짝수반(B반)</t>
+          <t>홀수반(A반)</t>
         </is>
       </c>
       <c r="N598" t="inlineStr"/>
@@ -36261,7 +36261,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>1137</t>
+          <t>1155</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -36302,7 +36302,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>목2~4</t>
+          <t>목6~8</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -36317,7 +36317,7 @@
       </c>
       <c r="M599" t="inlineStr">
         <is>
-          <t>홀수반(A반)</t>
+          <t>짝수반(B반)</t>
         </is>
       </c>
       <c r="N599" t="inlineStr"/>
@@ -36389,7 +36389,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>1147</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -36430,7 +36430,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>화5~6,수4</t>
+          <t>화7~8,수9</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -36445,7 +36445,7 @@
       </c>
       <c r="M601" t="inlineStr">
         <is>
-          <t>홀수반(A반)</t>
+          <t>짝수반(B반)</t>
         </is>
       </c>
       <c r="N601" t="inlineStr"/>
@@ -36453,7 +36453,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>1147</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -36494,7 +36494,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>화7~8,수9</t>
+          <t>화5~6,수4</t>
         </is>
       </c>
       <c r="K602" t="inlineStr">
@@ -36509,7 +36509,7 @@
       </c>
       <c r="M602" t="inlineStr">
         <is>
-          <t>짝수반(B반)</t>
+          <t>홀수반(A반)</t>
         </is>
       </c>
       <c r="N602" t="inlineStr"/>
@@ -36517,7 +36517,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>1140</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -36565,7 +36565,7 @@
       </c>
       <c r="M603" t="inlineStr">
         <is>
-          <t>짝수반(B반)</t>
+          <t>홀수반(A반)</t>
         </is>
       </c>
       <c r="N603" t="inlineStr"/>
@@ -36573,7 +36573,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>1140</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -36621,7 +36621,7 @@
       </c>
       <c r="M604" t="inlineStr">
         <is>
-          <t>홀수반(A반)</t>
+          <t>짝수반(B반)</t>
         </is>
       </c>
       <c r="N604" t="inlineStr"/>
@@ -36629,7 +36629,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>1154</t>
+          <t>1135</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -36670,7 +36670,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>월6,화5~6</t>
+          <t>월7,화7~8</t>
         </is>
       </c>
       <c r="K605" t="inlineStr">
@@ -36685,7 +36685,7 @@
       </c>
       <c r="M605" t="inlineStr">
         <is>
-          <t>짝수반(B반)</t>
+          <t>홀수반(A반)</t>
         </is>
       </c>
       <c r="N605" t="inlineStr"/>
@@ -36693,7 +36693,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>1154</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -36734,7 +36734,7 @@
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>월7,화7~8</t>
+          <t>월6,화5~6</t>
         </is>
       </c>
       <c r="K606" t="inlineStr">
@@ -36749,7 +36749,7 @@
       </c>
       <c r="M606" t="inlineStr">
         <is>
-          <t>홀수반(A반)</t>
+          <t>짝수반(B반)</t>
         </is>
       </c>
       <c r="N606" t="inlineStr"/>
@@ -36757,7 +36757,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>1138</t>
+          <t>1107</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -36798,7 +36798,7 @@
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>월4~6</t>
+          <t>월7~9</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
@@ -36813,7 +36813,7 @@
       </c>
       <c r="M607" t="inlineStr">
         <is>
-          <t>홀수반(A반)</t>
+          <t>짝수반(B반)</t>
         </is>
       </c>
       <c r="N607" t="inlineStr"/>
@@ -36821,7 +36821,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>1107</t>
+          <t>1138</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -36862,7 +36862,7 @@
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>월7~9</t>
+          <t>월4~6</t>
         </is>
       </c>
       <c r="K608" t="inlineStr">
@@ -36877,7 +36877,7 @@
       </c>
       <c r="M608" t="inlineStr">
         <is>
-          <t>짝수반(B반)</t>
+          <t>홀수반(A반)</t>
         </is>
       </c>
       <c r="N608" t="inlineStr"/>
@@ -37373,7 +37373,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>1152</t>
+          <t>1132</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -37414,7 +37414,7 @@
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>화4,금2~3</t>
+          <t>화3,금5~6</t>
         </is>
       </c>
       <c r="K617" t="inlineStr">
@@ -37429,7 +37429,7 @@
       </c>
       <c r="M617" t="inlineStr">
         <is>
-          <t>홀수반(A반)</t>
+          <t>짝수반(B반)</t>
         </is>
       </c>
       <c r="N617" t="inlineStr"/>
@@ -37437,7 +37437,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>1132</t>
+          <t>1152</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
@@ -37478,7 +37478,7 @@
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>화3,금5~6</t>
+          <t>화4,금2~3</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
@@ -37493,7 +37493,7 @@
       </c>
       <c r="M618" t="inlineStr">
         <is>
-          <t>짝수반(B반)</t>
+          <t>홀수반(A반)</t>
         </is>
       </c>
       <c r="N618" t="inlineStr"/>
@@ -37629,7 +37629,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1130</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -37670,7 +37670,7 @@
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>월6~7,금5</t>
+          <t>월8~9,금4</t>
         </is>
       </c>
       <c r="K621" t="inlineStr">
@@ -37685,7 +37685,7 @@
       </c>
       <c r="M621" t="inlineStr">
         <is>
-          <t>홀수반(A반)</t>
+          <t>짝수반(B반)</t>
         </is>
       </c>
       <c r="N621" t="inlineStr"/>
@@ -37693,7 +37693,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -37734,7 +37734,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>월8~9,금4</t>
+          <t>월6~7,금5</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
@@ -37749,7 +37749,7 @@
       </c>
       <c r="M622" t="inlineStr">
         <is>
-          <t>짝수반(B반)</t>
+          <t>홀수반(A반)</t>
         </is>
       </c>
       <c r="N622" t="inlineStr"/>
@@ -38161,7 +38161,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1134</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -38202,7 +38202,7 @@
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>화1~3</t>
+          <t>화4~6</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -38217,7 +38217,7 @@
       </c>
       <c r="M630" t="inlineStr">
         <is>
-          <t>홀수반(A반)</t>
+          <t>짝수반(B반)</t>
         </is>
       </c>
       <c r="N630" t="inlineStr"/>
@@ -38225,7 +38225,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>1134</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -38266,7 +38266,7 @@
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>화4~6</t>
+          <t>화1~3</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -38281,7 +38281,7 @@
       </c>
       <c r="M631" t="inlineStr">
         <is>
-          <t>짝수반(B반)</t>
+          <t>홀수반(A반)</t>
         </is>
       </c>
       <c r="N631" t="inlineStr"/>
@@ -40529,7 +40529,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>1263</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -40565,7 +40565,7 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>이승원</t>
+          <t>Cheong Hoon Kim</t>
         </is>
       </c>
       <c r="J670" t="inlineStr">
@@ -40575,7 +40575,7 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>제3과학관111호(교수연구실)</t>
+          <t>미지정</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
@@ -40589,7 +40589,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>1264</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -40625,7 +40625,7 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>이병희</t>
+          <t>Mi Young Lee</t>
         </is>
       </c>
       <c r="J671" t="inlineStr">
@@ -40635,7 +40635,7 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>제3과학관112호(교수연구실)</t>
+          <t>미지정</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
@@ -40649,7 +40649,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>1265</t>
+          <t>1260</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -40685,7 +40685,7 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>송창호</t>
+          <t>이석민</t>
         </is>
       </c>
       <c r="J672" t="inlineStr">
@@ -40695,7 +40695,7 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>제3과학관114호(교수연구실)</t>
+          <t>제3과학관116호(교수연구실)</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
@@ -40709,7 +40709,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>1261</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -40745,7 +40745,7 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>이석민</t>
+          <t>이용우</t>
         </is>
       </c>
       <c r="J673" t="inlineStr">
@@ -40755,7 +40755,7 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>제3과학관116호(교수연구실)</t>
+          <t>제3과학관106호(물리치료실습실)</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
@@ -40769,7 +40769,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -40805,7 +40805,7 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Mi Young Lee</t>
+          <t>임종은</t>
         </is>
       </c>
       <c r="J674" t="inlineStr">
@@ -40815,7 +40815,7 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>제3과학관107호(물리치료실습실)</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
@@ -40829,7 +40829,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>1263</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -40865,7 +40865,7 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>임종은</t>
+          <t>이승원</t>
         </is>
       </c>
       <c r="J675" t="inlineStr">
@@ -40875,7 +40875,7 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>제3과학관107호(물리치료실습실)</t>
+          <t>제3과학관111호(교수연구실)</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
@@ -40889,7 +40889,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -40925,7 +40925,7 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>이완희</t>
+          <t>이병희</t>
         </is>
       </c>
       <c r="J676" t="inlineStr">
@@ -40935,7 +40935,7 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>제3과학관115호(교수연구실)</t>
+          <t>제3과학관112호(교수연구실)</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
@@ -40949,7 +40949,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>1265</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -40985,7 +40985,7 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Cheong Hoon Kim</t>
+          <t>송창호</t>
         </is>
       </c>
       <c r="J677" t="inlineStr">
@@ -40995,7 +40995,7 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>제3과학관114호(교수연구실)</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
@@ -41009,7 +41009,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>1266</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -41045,7 +41045,7 @@
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>이용우</t>
+          <t>이완희</t>
         </is>
       </c>
       <c r="J678" t="inlineStr">
@@ -41055,7 +41055,7 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>제3과학관106호(물리치료실습실)</t>
+          <t>제3과학관115호(교수연구실)</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
@@ -42821,7 +42821,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -42857,7 +42857,7 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>손애리</t>
+          <t>김주영</t>
         </is>
       </c>
       <c r="J709" t="inlineStr">
@@ -42881,7 +42881,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -42917,7 +42917,7 @@
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>김주영</t>
+          <t>장사랑</t>
         </is>
       </c>
       <c r="J710" t="inlineStr">
@@ -42941,7 +42941,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -42977,7 +42977,7 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>장사랑</t>
+          <t>손애리</t>
         </is>
       </c>
       <c r="J711" t="inlineStr">
@@ -44369,7 +44369,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>1619</t>
+          <t>1598</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -44405,7 +44405,7 @@
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>윤재영</t>
+          <t>정종화</t>
         </is>
       </c>
       <c r="J735" t="inlineStr">
@@ -44429,7 +44429,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>1598</t>
+          <t>1617</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -44465,7 +44465,7 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>정종화</t>
+          <t>조미숙</t>
         </is>
       </c>
       <c r="J736" t="inlineStr">
@@ -44489,7 +44489,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>1617</t>
+          <t>1619</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -44525,7 +44525,7 @@
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>조미숙</t>
+          <t>윤재영</t>
         </is>
       </c>
       <c r="J737" t="inlineStr">
@@ -46213,7 +46213,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>1384</t>
+          <t>1382</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -46249,7 +46249,7 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>정성진</t>
+          <t>서경현</t>
         </is>
       </c>
       <c r="J766" t="inlineStr">
@@ -46273,7 +46273,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>1385</t>
+          <t>1384</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -46309,7 +46309,7 @@
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>이건호</t>
+          <t>정성진</t>
         </is>
       </c>
       <c r="J767" t="inlineStr">
@@ -46333,7 +46333,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>1382</t>
+          <t>1385</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -46369,7 +46369,7 @@
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>서경현</t>
+          <t>이건호</t>
         </is>
       </c>
       <c r="J768" t="inlineStr">
@@ -46757,7 +46757,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>1383</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -46793,7 +46793,7 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>정성진</t>
+          <t>박종환</t>
         </is>
       </c>
       <c r="J775" t="inlineStr">
@@ -46817,7 +46817,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>1383</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -46853,7 +46853,7 @@
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>박종환</t>
+          <t>정성진</t>
         </is>
       </c>
       <c r="J776" t="inlineStr">
@@ -47293,7 +47293,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>1380</t>
+          <t>1352</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -47329,7 +47329,7 @@
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>안은주</t>
+          <t>홍현주</t>
         </is>
       </c>
       <c r="J784" t="inlineStr">
@@ -47353,7 +47353,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>1352</t>
+          <t>1380</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -47389,7 +47389,7 @@
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>홍현주</t>
+          <t>안은주</t>
         </is>
       </c>
       <c r="J785" t="inlineStr">
@@ -48365,7 +48365,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>1462</t>
+          <t>1423</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -48401,7 +48401,7 @@
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>김영미</t>
+          <t>유재현</t>
         </is>
       </c>
       <c r="J802" t="inlineStr">
@@ -48425,7 +48425,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>1423</t>
+          <t>1461</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -48461,7 +48461,7 @@
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>유재현</t>
+          <t>이재구</t>
         </is>
       </c>
       <c r="J803" t="inlineStr">
@@ -48485,7 +48485,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>1461</t>
+          <t>1462</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -48521,7 +48521,7 @@
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>이재구</t>
+          <t>김영미</t>
         </is>
       </c>
       <c r="J804" t="inlineStr">
@@ -51365,7 +51365,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>805</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -51401,7 +51401,7 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>신경옥</t>
+          <t>최연정</t>
         </is>
       </c>
       <c r="J853" t="inlineStr">
@@ -51425,7 +51425,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>811</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -51461,7 +51461,7 @@
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>최연정</t>
+          <t>신경옥</t>
         </is>
       </c>
       <c r="J854" t="inlineStr">
@@ -53769,7 +53769,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>475</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -53805,7 +53805,7 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>이국헌</t>
+          <t>허상민</t>
         </is>
       </c>
       <c r="J893" t="inlineStr">
@@ -53829,7 +53829,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>476</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -53865,7 +53865,7 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>최경천</t>
+          <t>봉원영</t>
         </is>
       </c>
       <c r="J894" t="inlineStr">
@@ -53889,7 +53889,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -53925,7 +53925,7 @@
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>허상민</t>
+          <t>최경천</t>
         </is>
       </c>
       <c r="J895" t="inlineStr">
@@ -53949,7 +53949,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -53985,7 +53985,7 @@
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>봉원영</t>
+          <t>이국헌</t>
         </is>
       </c>
       <c r="J896" t="inlineStr">
@@ -58277,7 +58277,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
@@ -58313,7 +58313,7 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>김혜린</t>
+          <t>최성숙</t>
         </is>
       </c>
       <c r="J968" t="inlineStr">
@@ -58337,7 +58337,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>642</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
@@ -58373,7 +58373,7 @@
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>박준범</t>
+          <t>송영천</t>
         </is>
       </c>
       <c r="J969" t="inlineStr">
@@ -58397,7 +58397,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>643</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
@@ -58433,7 +58433,7 @@
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>강태진</t>
+          <t>박준범</t>
         </is>
       </c>
       <c r="J970" t="inlineStr">
@@ -58457,7 +58457,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>644</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
@@ -58493,7 +58493,7 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>김경제</t>
+          <t>박일호</t>
         </is>
       </c>
       <c r="J971" t="inlineStr">
@@ -58517,7 +58517,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -58553,7 +58553,7 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>박일호</t>
+          <t>김혜린</t>
         </is>
       </c>
       <c r="J972" t="inlineStr">
@@ -58577,7 +58577,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>646</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -58613,7 +58613,7 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>송영천</t>
+          <t>김경제</t>
         </is>
       </c>
       <c r="J973" t="inlineStr">
@@ -58637,7 +58637,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>647</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
@@ -58673,7 +58673,7 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>최성숙</t>
+          <t>강태진</t>
         </is>
       </c>
       <c r="J974" t="inlineStr">
@@ -60013,7 +60013,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
@@ -60049,7 +60049,7 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>최승년</t>
+          <t>임태종</t>
         </is>
       </c>
       <c r="J997" t="inlineStr">
@@ -60073,7 +60073,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>1327</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="B998" t="inlineStr">
@@ -60109,7 +60109,7 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>정태석</t>
+          <t>최승년</t>
         </is>
       </c>
       <c r="J998" t="inlineStr">
@@ -60133,7 +60133,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>1327</t>
         </is>
       </c>
       <c r="B999" t="inlineStr">
@@ -60169,7 +60169,7 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>임태종</t>
+          <t>정태석</t>
         </is>
       </c>
       <c r="J999" t="inlineStr">
@@ -60313,7 +60313,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>1325</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr">
@@ -60353,12 +60353,12 @@
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>이원구</t>
+          <t>김기송</t>
         </is>
       </c>
       <c r="J1002" t="inlineStr">
         <is>
-          <t>수6~7</t>
+          <t>수2~3</t>
         </is>
       </c>
       <c r="K1002" t="inlineStr">
@@ -60377,7 +60377,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1325</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr">
@@ -60417,12 +60417,12 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>김기송</t>
+          <t>이원구</t>
         </is>
       </c>
       <c r="J1003" t="inlineStr">
         <is>
-          <t>수2~3</t>
+          <t>수6~7</t>
         </is>
       </c>
       <c r="K1003" t="inlineStr">
@@ -60441,7 +60441,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>1326</t>
+          <t>1311</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr">
@@ -60477,12 +60477,12 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>한동여</t>
+          <t>박철주</t>
         </is>
       </c>
       <c r="J1004" t="inlineStr">
         <is>
-          <t>수2~4</t>
+          <t>월6,화6~7</t>
         </is>
       </c>
       <c r="K1004" t="inlineStr">
@@ -60561,7 +60561,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>1311</t>
+          <t>1326</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr">
@@ -60597,12 +60597,12 @@
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>박철주</t>
+          <t>한동여</t>
         </is>
       </c>
       <c r="J1006" t="inlineStr">
         <is>
-          <t>월6,화6~7</t>
+          <t>수2~4</t>
         </is>
       </c>
       <c r="K1006" t="inlineStr">
@@ -60985,7 +60985,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>1294</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr">
@@ -61026,7 +61026,7 @@
       </c>
       <c r="J1013" t="inlineStr">
         <is>
-          <t>목2~3,금6</t>
+          <t>화2~3,목7</t>
         </is>
       </c>
       <c r="K1013" t="inlineStr">
@@ -61045,7 +61045,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>1294</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr">
@@ -61086,7 +61086,7 @@
       </c>
       <c r="J1014" t="inlineStr">
         <is>
-          <t>화2~3,목7</t>
+          <t>목2~3,금6</t>
         </is>
       </c>
       <c r="K1014" t="inlineStr">
@@ -61881,7 +61881,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>1286</t>
+          <t>1285</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr">
@@ -61922,7 +61922,7 @@
       </c>
       <c r="J1028" t="inlineStr">
         <is>
-          <t>화2,금2~3</t>
+          <t>화3,금5~6</t>
         </is>
       </c>
       <c r="K1028" t="inlineStr">
@@ -61937,7 +61937,7 @@
       </c>
       <c r="M1028" t="inlineStr">
         <is>
-          <t>타학과 수강 불가</t>
+          <t>복수전공, 부전공 대상 강의</t>
         </is>
       </c>
       <c r="N1028" t="inlineStr"/>
@@ -61945,7 +61945,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>1285</t>
+          <t>1286</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr">
@@ -61986,7 +61986,7 @@
       </c>
       <c r="J1029" t="inlineStr">
         <is>
-          <t>화3,금5~6</t>
+          <t>화2,금2~3</t>
         </is>
       </c>
       <c r="K1029" t="inlineStr">
@@ -62001,7 +62001,7 @@
       </c>
       <c r="M1029" t="inlineStr">
         <is>
-          <t>복수전공, 부전공 대상 강의</t>
+          <t>타학과 수강 불가</t>
         </is>
       </c>
       <c r="N1029" t="inlineStr"/>
@@ -63997,7 +63997,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr">
@@ -64042,7 +64042,7 @@
       </c>
       <c r="J1062" t="inlineStr">
         <is>
-          <t>목5~6</t>
+          <t>화5~6</t>
         </is>
       </c>
       <c r="K1062" t="inlineStr">
@@ -64133,7 +64133,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr">
@@ -64178,7 +64178,7 @@
       </c>
       <c r="J1064" t="inlineStr">
         <is>
-          <t>화5~6</t>
+          <t>목5~6</t>
         </is>
       </c>
       <c r="K1064" t="inlineStr">
@@ -64765,7 +64765,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr">
@@ -64810,7 +64810,7 @@
       </c>
       <c r="J1074" t="inlineStr">
         <is>
-          <t>월7~8</t>
+          <t>월5~6</t>
         </is>
       </c>
       <c r="K1074" t="inlineStr">
@@ -64833,7 +64833,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr">
@@ -64878,7 +64878,7 @@
       </c>
       <c r="J1075" t="inlineStr">
         <is>
-          <t>월5~6</t>
+          <t>월7~8</t>
         </is>
       </c>
       <c r="K1075" t="inlineStr">
@@ -65997,7 +65997,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr">
@@ -66037,12 +66037,12 @@
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>William Lagundino</t>
+          <t>Christopher John Wright</t>
         </is>
       </c>
       <c r="J1093" t="inlineStr">
         <is>
-          <t>목7~9</t>
+          <t>월7~9</t>
         </is>
       </c>
       <c r="K1093" t="inlineStr">
@@ -66061,7 +66061,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr">
@@ -66101,12 +66101,12 @@
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>Christopher John Wright</t>
+          <t>William Lagundino</t>
         </is>
       </c>
       <c r="J1094" t="inlineStr">
         <is>
-          <t>월7~9</t>
+          <t>목7~9</t>
         </is>
       </c>
       <c r="K1094" t="inlineStr">
@@ -66125,7 +66125,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr">
@@ -66165,12 +66165,12 @@
       </c>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>Nicole A. Walker</t>
+          <t>Rosemarie E. Shin</t>
         </is>
       </c>
       <c r="J1095" t="inlineStr">
         <is>
-          <t>수7~9</t>
+          <t>월7~9</t>
         </is>
       </c>
       <c r="K1095" t="inlineStr">
@@ -66189,7 +66189,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr">
@@ -66229,12 +66229,12 @@
       </c>
       <c r="I1096" t="inlineStr">
         <is>
-          <t>Rosemarie E. Shin</t>
+          <t>Nicole A. Walker</t>
         </is>
       </c>
       <c r="J1096" t="inlineStr">
         <is>
-          <t>월7~9</t>
+          <t>수7~9</t>
         </is>
       </c>
       <c r="K1096" t="inlineStr">
@@ -66253,7 +66253,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>104</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr">
@@ -66293,12 +66293,12 @@
       </c>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>Andrew Wonho Cho</t>
+          <t>SHIN SEUNG WON</t>
         </is>
       </c>
       <c r="J1097" t="inlineStr">
         <is>
-          <t>수7~9</t>
+          <t>월7~9</t>
         </is>
       </c>
       <c r="K1097" t="inlineStr">
@@ -66317,7 +66317,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr">
@@ -66357,12 +66357,12 @@
       </c>
       <c r="I1098" t="inlineStr">
         <is>
-          <t>SHIN SEUNG WON</t>
+          <t>Andrew Wonho Cho</t>
         </is>
       </c>
       <c r="J1098" t="inlineStr">
         <is>
-          <t>월7~9</t>
+          <t>수7~9</t>
         </is>
       </c>
       <c r="K1098" t="inlineStr">
@@ -67437,7 +67437,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr">
@@ -67477,12 +67477,12 @@
       </c>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>김향일</t>
+          <t>YBM시사</t>
         </is>
       </c>
       <c r="J1115" t="inlineStr">
         <is>
-          <t>화1~2,목3</t>
+          <t>월3,수1~2</t>
         </is>
       </c>
       <c r="K1115" t="inlineStr">
@@ -67501,7 +67501,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr">
@@ -67539,10 +67539,14 @@
           <t>3</t>
         </is>
       </c>
-      <c r="I1116" t="inlineStr"/>
+      <c r="I1116" t="inlineStr">
+        <is>
+          <t>YBM시사</t>
+        </is>
+      </c>
       <c r="J1116" t="inlineStr">
         <is>
-          <t>월1~2,수3</t>
+          <t>화1~2,목3</t>
         </is>
       </c>
       <c r="K1116" t="inlineStr">
@@ -67555,17 +67559,13 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1116" t="inlineStr">
-        <is>
-          <t>2-4학년만 신청가능, 1학년은 학과개설란에서 신청</t>
-        </is>
-      </c>
+      <c r="M1116" t="inlineStr"/>
       <c r="N1116" t="inlineStr"/>
     </row>
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr">
@@ -67603,10 +67603,14 @@
           <t>3</t>
         </is>
       </c>
-      <c r="I1117" t="inlineStr"/>
+      <c r="I1117" t="inlineStr">
+        <is>
+          <t>YBM시사</t>
+        </is>
+      </c>
       <c r="J1117" t="inlineStr">
         <is>
-          <t>월3,수1~2</t>
+          <t>화3,목1~2</t>
         </is>
       </c>
       <c r="K1117" t="inlineStr">
@@ -67619,17 +67623,13 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1117" t="inlineStr">
-        <is>
-          <t>2-4학년만 신청가능, 1학년은 학과개설란에서 신청</t>
-        </is>
-      </c>
+      <c r="M1117" t="inlineStr"/>
       <c r="N1117" t="inlineStr"/>
     </row>
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr">
@@ -67667,10 +67667,14 @@
           <t>3</t>
         </is>
       </c>
-      <c r="I1118" t="inlineStr"/>
+      <c r="I1118" t="inlineStr">
+        <is>
+          <t>YBM시사</t>
+        </is>
+      </c>
       <c r="J1118" t="inlineStr">
         <is>
-          <t>화1~2,목3</t>
+          <t>월1~2,수3</t>
         </is>
       </c>
       <c r="K1118" t="inlineStr">
@@ -67683,17 +67687,13 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1118" t="inlineStr">
-        <is>
-          <t>2-4학년만 신청가능, 1학년은 학과개설란에서 신청</t>
-        </is>
-      </c>
+      <c r="M1118" t="inlineStr"/>
       <c r="N1118" t="inlineStr"/>
     </row>
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr">
@@ -67731,10 +67731,14 @@
           <t>3</t>
         </is>
       </c>
-      <c r="I1119" t="inlineStr"/>
+      <c r="I1119" t="inlineStr">
+        <is>
+          <t>YBM시사</t>
+        </is>
+      </c>
       <c r="J1119" t="inlineStr">
         <is>
-          <t>화3,목1~2</t>
+          <t>월3,수1~2</t>
         </is>
       </c>
       <c r="K1119" t="inlineStr">
@@ -67747,17 +67751,13 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1119" t="inlineStr">
-        <is>
-          <t>2-4학년만 신청가능, 1학년은 학과개설란에서 신청</t>
-        </is>
-      </c>
+      <c r="M1119" t="inlineStr"/>
       <c r="N1119" t="inlineStr"/>
     </row>
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr">
@@ -67797,12 +67797,12 @@
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>Christopher John Wright</t>
+          <t>YBM시사</t>
         </is>
       </c>
       <c r="J1120" t="inlineStr">
         <is>
-          <t>월1~2,수3</t>
+          <t>화1~2,목3</t>
         </is>
       </c>
       <c r="K1120" t="inlineStr">
@@ -67821,7 +67821,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr">
@@ -67861,12 +67861,12 @@
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>Christopher John Wright</t>
+          <t>YBM시사</t>
         </is>
       </c>
       <c r="J1121" t="inlineStr">
         <is>
-          <t>월3,수1~2</t>
+          <t>화3,목1~2</t>
         </is>
       </c>
       <c r="K1121" t="inlineStr">
@@ -67885,7 +67885,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr">
@@ -67925,12 +67925,12 @@
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>Christopher John Wright</t>
+          <t>YBM시사</t>
         </is>
       </c>
       <c r="J1122" t="inlineStr">
         <is>
-          <t>화1~2,목3</t>
+          <t>월1~2,수3</t>
         </is>
       </c>
       <c r="K1122" t="inlineStr">
@@ -67949,7 +67949,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr">
@@ -67989,12 +67989,12 @@
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>Christopher John Wright</t>
+          <t>YBM시사</t>
         </is>
       </c>
       <c r="J1123" t="inlineStr">
         <is>
-          <t>화3,목1~2</t>
+          <t>월3,수1~2</t>
         </is>
       </c>
       <c r="K1123" t="inlineStr">
@@ -68013,7 +68013,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr">
@@ -68053,7 +68053,7 @@
       </c>
       <c r="I1124" t="inlineStr">
         <is>
-          <t>백정혜</t>
+          <t>YBM시사</t>
         </is>
       </c>
       <c r="J1124" t="inlineStr">
@@ -68077,7 +68077,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr">
@@ -68117,7 +68117,7 @@
       </c>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>백정혜</t>
+          <t>YBM시사</t>
         </is>
       </c>
       <c r="J1125" t="inlineStr">
@@ -68141,7 +68141,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr">
@@ -68181,7 +68181,7 @@
       </c>
       <c r="I1126" t="inlineStr">
         <is>
-          <t>William Lagundino</t>
+          <t>YBM시사</t>
         </is>
       </c>
       <c r="J1126" t="inlineStr">
@@ -68205,7 +68205,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr">
@@ -68245,12 +68245,12 @@
       </c>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>William Lagundino</t>
+          <t>Andrew Wonho Cho</t>
         </is>
       </c>
       <c r="J1127" t="inlineStr">
         <is>
-          <t>월3,수1~2</t>
+          <t>월1~2,수3</t>
         </is>
       </c>
       <c r="K1127" t="inlineStr">
@@ -68269,7 +68269,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
@@ -68309,12 +68309,12 @@
       </c>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>William Lagundino</t>
+          <t>Andrew Wonho Cho</t>
         </is>
       </c>
       <c r="J1128" t="inlineStr">
         <is>
-          <t>화1~2,목3</t>
+          <t>월3,수1~2</t>
         </is>
       </c>
       <c r="K1128" t="inlineStr">
@@ -68333,7 +68333,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
@@ -68373,12 +68373,12 @@
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>William Lagundino</t>
+          <t>Andrew Wonho Cho</t>
         </is>
       </c>
       <c r="J1129" t="inlineStr">
         <is>
-          <t>화3,목1~2</t>
+          <t>화1~2,목3</t>
         </is>
       </c>
       <c r="K1129" t="inlineStr">
@@ -68397,7 +68397,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
@@ -68437,12 +68437,12 @@
       </c>
       <c r="I1130" t="inlineStr">
         <is>
-          <t>Rosemarie E. Shin</t>
+          <t>Andrew Wonho Cho</t>
         </is>
       </c>
       <c r="J1130" t="inlineStr">
         <is>
-          <t>월1~2,수3</t>
+          <t>화3,목1~2</t>
         </is>
       </c>
       <c r="K1130" t="inlineStr">
@@ -68461,7 +68461,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
@@ -68501,12 +68501,12 @@
       </c>
       <c r="I1131" t="inlineStr">
         <is>
-          <t>Rosemarie E. Shin</t>
+          <t>SHIN SEUNG WON</t>
         </is>
       </c>
       <c r="J1131" t="inlineStr">
         <is>
-          <t>월3,수1~2</t>
+          <t>월1~2,수3</t>
         </is>
       </c>
       <c r="K1131" t="inlineStr">
@@ -68525,7 +68525,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
@@ -68565,12 +68565,12 @@
       </c>
       <c r="I1132" t="inlineStr">
         <is>
-          <t>Rosemarie E. Shin</t>
+          <t>SHIN SEUNG WON</t>
         </is>
       </c>
       <c r="J1132" t="inlineStr">
         <is>
-          <t>화1~2,목3</t>
+          <t>월3,수1~2</t>
         </is>
       </c>
       <c r="K1132" t="inlineStr">
@@ -68589,7 +68589,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
@@ -68629,12 +68629,12 @@
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>Rosemarie E. Shin</t>
+          <t>SHIN SEUNG WON</t>
         </is>
       </c>
       <c r="J1133" t="inlineStr">
         <is>
-          <t>화3,목1~2</t>
+          <t>화1~2,목3</t>
         </is>
       </c>
       <c r="K1133" t="inlineStr">
@@ -68653,7 +68653,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
@@ -68693,12 +68693,12 @@
       </c>
       <c r="I1134" t="inlineStr">
         <is>
-          <t>Nicole A. Walker</t>
+          <t>SHIN SEUNG WON</t>
         </is>
       </c>
       <c r="J1134" t="inlineStr">
         <is>
-          <t>월1~2,수3</t>
+          <t>목5~7</t>
         </is>
       </c>
       <c r="K1134" t="inlineStr">
@@ -68717,7 +68717,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
@@ -68757,12 +68757,12 @@
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>Nicole A. Walker</t>
+          <t>SHIN SEUNG WON</t>
         </is>
       </c>
       <c r="J1135" t="inlineStr">
         <is>
-          <t>월3,수1~2</t>
+          <t>목10~12</t>
         </is>
       </c>
       <c r="K1135" t="inlineStr">
@@ -68781,7 +68781,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
@@ -68821,12 +68821,12 @@
       </c>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>Nicole A. Walker</t>
+          <t>Christopher John Wright</t>
         </is>
       </c>
       <c r="J1136" t="inlineStr">
         <is>
-          <t>화1~2,목3</t>
+          <t>월1~2,수3</t>
         </is>
       </c>
       <c r="K1136" t="inlineStr">
@@ -68845,7 +68845,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
@@ -68885,12 +68885,12 @@
       </c>
       <c r="I1137" t="inlineStr">
         <is>
-          <t>Nicole A. Walker</t>
+          <t>Christopher John Wright</t>
         </is>
       </c>
       <c r="J1137" t="inlineStr">
         <is>
-          <t>화3,목1~2</t>
+          <t>월3,수1~2</t>
         </is>
       </c>
       <c r="K1137" t="inlineStr">
@@ -68909,7 +68909,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
@@ -68949,12 +68949,12 @@
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>노동욱</t>
+          <t>Christopher John Wright</t>
         </is>
       </c>
       <c r="J1138" t="inlineStr">
         <is>
-          <t>월3,수1~2</t>
+          <t>화1~2,목3</t>
         </is>
       </c>
       <c r="K1138" t="inlineStr">
@@ -68973,7 +68973,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr">
@@ -69013,12 +69013,12 @@
       </c>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>노동욱</t>
+          <t>Christopher John Wright</t>
         </is>
       </c>
       <c r="J1139" t="inlineStr">
         <is>
-          <t>화1~2,목3</t>
+          <t>화3,목1~2</t>
         </is>
       </c>
       <c r="K1139" t="inlineStr">
@@ -69037,7 +69037,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
@@ -69077,12 +69077,12 @@
       </c>
       <c r="I1140" t="inlineStr">
         <is>
-          <t>노동욱</t>
+          <t>Ian Robert Jereos Aujero</t>
         </is>
       </c>
       <c r="J1140" t="inlineStr">
         <is>
-          <t>화3,목1~2</t>
+          <t>월1~2,수3</t>
         </is>
       </c>
       <c r="K1140" t="inlineStr">
@@ -69101,7 +69101,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
@@ -69141,12 +69141,12 @@
       </c>
       <c r="I1141" t="inlineStr">
         <is>
-          <t>SHIN SEUNG WON</t>
+          <t>Ian Robert Jereos Aujero</t>
         </is>
       </c>
       <c r="J1141" t="inlineStr">
         <is>
-          <t>월1~2,수3</t>
+          <t>월3,수1~2</t>
         </is>
       </c>
       <c r="K1141" t="inlineStr">
@@ -69165,7 +69165,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
@@ -69205,12 +69205,12 @@
       </c>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>SHIN SEUNG WON</t>
+          <t>Ian Robert Jereos Aujero</t>
         </is>
       </c>
       <c r="J1142" t="inlineStr">
         <is>
-          <t>월3,수1~2</t>
+          <t>화1~2,목3</t>
         </is>
       </c>
       <c r="K1142" t="inlineStr">
@@ -69229,7 +69229,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
@@ -69269,12 +69269,12 @@
       </c>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>SHIN SEUNG WON</t>
+          <t>Ian Robert Jereos Aujero</t>
         </is>
       </c>
       <c r="J1143" t="inlineStr">
         <is>
-          <t>화1~2,목3</t>
+          <t>화3,목1~2</t>
         </is>
       </c>
       <c r="K1143" t="inlineStr">
@@ -69293,7 +69293,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
@@ -69333,12 +69333,12 @@
       </c>
       <c r="I1144" t="inlineStr">
         <is>
-          <t>SHIN SEUNG WON</t>
+          <t>Nicole A. Walker</t>
         </is>
       </c>
       <c r="J1144" t="inlineStr">
         <is>
-          <t>목5~7</t>
+          <t>월1~2,수3</t>
         </is>
       </c>
       <c r="K1144" t="inlineStr">
@@ -69357,7 +69357,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
@@ -69397,12 +69397,12 @@
       </c>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>SHIN SEUNG WON</t>
+          <t>Nicole A. Walker</t>
         </is>
       </c>
       <c r="J1145" t="inlineStr">
         <is>
-          <t>목10~12</t>
+          <t>월3,수1~2</t>
         </is>
       </c>
       <c r="K1145" t="inlineStr">
@@ -69421,7 +69421,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
@@ -69461,12 +69461,12 @@
       </c>
       <c r="I1146" t="inlineStr">
         <is>
-          <t>Ian Robert Jereos Aujero</t>
+          <t>Nicole A. Walker</t>
         </is>
       </c>
       <c r="J1146" t="inlineStr">
         <is>
-          <t>월1~2,수3</t>
+          <t>화1~2,목3</t>
         </is>
       </c>
       <c r="K1146" t="inlineStr">
@@ -69485,7 +69485,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
@@ -69525,12 +69525,12 @@
       </c>
       <c r="I1147" t="inlineStr">
         <is>
-          <t>Ian Robert Jereos Aujero</t>
+          <t>Nicole A. Walker</t>
         </is>
       </c>
       <c r="J1147" t="inlineStr">
         <is>
-          <t>월3,수1~2</t>
+          <t>화3,목1~2</t>
         </is>
       </c>
       <c r="K1147" t="inlineStr">
@@ -69549,7 +69549,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
@@ -69589,12 +69589,12 @@
       </c>
       <c r="I1148" t="inlineStr">
         <is>
-          <t>Ian Robert Jereos Aujero</t>
+          <t>Rosemarie E. Shin</t>
         </is>
       </c>
       <c r="J1148" t="inlineStr">
         <is>
-          <t>화1~2,목3</t>
+          <t>월1~2,수3</t>
         </is>
       </c>
       <c r="K1148" t="inlineStr">
@@ -69613,7 +69613,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr">
@@ -69653,12 +69653,12 @@
       </c>
       <c r="I1149" t="inlineStr">
         <is>
-          <t>Ian Robert Jereos Aujero</t>
+          <t>Rosemarie E. Shin</t>
         </is>
       </c>
       <c r="J1149" t="inlineStr">
         <is>
-          <t>화3,목1~2</t>
+          <t>월3,수1~2</t>
         </is>
       </c>
       <c r="K1149" t="inlineStr">
@@ -69677,7 +69677,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
@@ -69717,12 +69717,12 @@
       </c>
       <c r="I1150" t="inlineStr">
         <is>
-          <t>YBM시사</t>
+          <t>Rosemarie E. Shin</t>
         </is>
       </c>
       <c r="J1150" t="inlineStr">
         <is>
-          <t>월1~2,수3</t>
+          <t>화1~2,목3</t>
         </is>
       </c>
       <c r="K1150" t="inlineStr">
@@ -69741,7 +69741,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
@@ -69781,12 +69781,12 @@
       </c>
       <c r="I1151" t="inlineStr">
         <is>
-          <t>YBM시사</t>
+          <t>Rosemarie E. Shin</t>
         </is>
       </c>
       <c r="J1151" t="inlineStr">
         <is>
-          <t>월3,수1~2</t>
+          <t>화3,목1~2</t>
         </is>
       </c>
       <c r="K1151" t="inlineStr">
@@ -69805,7 +69805,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
@@ -69845,12 +69845,12 @@
       </c>
       <c r="I1152" t="inlineStr">
         <is>
-          <t>YBM시사</t>
+          <t>William Lagundino</t>
         </is>
       </c>
       <c r="J1152" t="inlineStr">
         <is>
-          <t>화1~2,목3</t>
+          <t>월1~2,수3</t>
         </is>
       </c>
       <c r="K1152" t="inlineStr">
@@ -69869,7 +69869,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
@@ -69909,12 +69909,12 @@
       </c>
       <c r="I1153" t="inlineStr">
         <is>
-          <t>YBM시사</t>
+          <t>William Lagundino</t>
         </is>
       </c>
       <c r="J1153" t="inlineStr">
         <is>
-          <t>화3,목1~2</t>
+          <t>월3,수1~2</t>
         </is>
       </c>
       <c r="K1153" t="inlineStr">
@@ -69933,7 +69933,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
@@ -69973,12 +69973,12 @@
       </c>
       <c r="I1154" t="inlineStr">
         <is>
-          <t>YBM시사</t>
+          <t>William Lagundino</t>
         </is>
       </c>
       <c r="J1154" t="inlineStr">
         <is>
-          <t>월1~2,수3</t>
+          <t>화1~2,목3</t>
         </is>
       </c>
       <c r="K1154" t="inlineStr">
@@ -69997,7 +69997,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
@@ -70037,12 +70037,12 @@
       </c>
       <c r="I1155" t="inlineStr">
         <is>
-          <t>YBM시사</t>
+          <t>William Lagundino</t>
         </is>
       </c>
       <c r="J1155" t="inlineStr">
         <is>
-          <t>월3,수1~2</t>
+          <t>화3,목1~2</t>
         </is>
       </c>
       <c r="K1155" t="inlineStr">
@@ -70061,7 +70061,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
@@ -70101,7 +70101,7 @@
       </c>
       <c r="I1156" t="inlineStr">
         <is>
-          <t>YBM시사</t>
+          <t>백정혜</t>
         </is>
       </c>
       <c r="J1156" t="inlineStr">
@@ -70125,7 +70125,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
@@ -70165,7 +70165,7 @@
       </c>
       <c r="I1157" t="inlineStr">
         <is>
-          <t>YBM시사</t>
+          <t>백정혜</t>
         </is>
       </c>
       <c r="J1157" t="inlineStr">
@@ -70189,7 +70189,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
@@ -70229,12 +70229,12 @@
       </c>
       <c r="I1158" t="inlineStr">
         <is>
-          <t>YBM시사</t>
+          <t>노동욱</t>
         </is>
       </c>
       <c r="J1158" t="inlineStr">
         <is>
-          <t>월1~2,수3</t>
+          <t>월3,수1~2</t>
         </is>
       </c>
       <c r="K1158" t="inlineStr">
@@ -70253,7 +70253,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
@@ -70293,12 +70293,12 @@
       </c>
       <c r="I1159" t="inlineStr">
         <is>
-          <t>YBM시사</t>
+          <t>노동욱</t>
         </is>
       </c>
       <c r="J1159" t="inlineStr">
         <is>
-          <t>월3,수1~2</t>
+          <t>화1~2,목3</t>
         </is>
       </c>
       <c r="K1159" t="inlineStr">
@@ -70317,7 +70317,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
@@ -70357,12 +70357,12 @@
       </c>
       <c r="I1160" t="inlineStr">
         <is>
-          <t>YBM시사</t>
+          <t>노동욱</t>
         </is>
       </c>
       <c r="J1160" t="inlineStr">
         <is>
-          <t>화1~2,목3</t>
+          <t>화3,목1~2</t>
         </is>
       </c>
       <c r="K1160" t="inlineStr">
@@ -70381,7 +70381,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
@@ -70421,12 +70421,12 @@
       </c>
       <c r="I1161" t="inlineStr">
         <is>
-          <t>YBM시사</t>
+          <t>김향일</t>
         </is>
       </c>
       <c r="J1161" t="inlineStr">
         <is>
-          <t>화3,목1~2</t>
+          <t>월1~2,수3</t>
         </is>
       </c>
       <c r="K1161" t="inlineStr">
@@ -70445,7 +70445,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
@@ -70485,12 +70485,12 @@
       </c>
       <c r="I1162" t="inlineStr">
         <is>
-          <t>Andrew Wonho Cho</t>
+          <t>김향일</t>
         </is>
       </c>
       <c r="J1162" t="inlineStr">
         <is>
-          <t>월1~2,수3</t>
+          <t>월3,수1~2</t>
         </is>
       </c>
       <c r="K1162" t="inlineStr">
@@ -70509,7 +70509,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
@@ -70549,12 +70549,12 @@
       </c>
       <c r="I1163" t="inlineStr">
         <is>
-          <t>Andrew Wonho Cho</t>
+          <t>김향일</t>
         </is>
       </c>
       <c r="J1163" t="inlineStr">
         <is>
-          <t>월3,수1~2</t>
+          <t>화1~2,목3</t>
         </is>
       </c>
       <c r="K1163" t="inlineStr">
@@ -70573,7 +70573,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
@@ -70611,14 +70611,10 @@
           <t>3</t>
         </is>
       </c>
-      <c r="I1164" t="inlineStr">
-        <is>
-          <t>Andrew Wonho Cho</t>
-        </is>
-      </c>
+      <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr">
         <is>
-          <t>화1~2,목3</t>
+          <t>월1~2,수3</t>
         </is>
       </c>
       <c r="K1164" t="inlineStr">
@@ -70631,13 +70627,17 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1164" t="inlineStr"/>
+      <c r="M1164" t="inlineStr">
+        <is>
+          <t>2-4학년만 신청가능, 1학년은 학과개설란에서 신청</t>
+        </is>
+      </c>
       <c r="N1164" t="inlineStr"/>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
@@ -70675,14 +70675,10 @@
           <t>3</t>
         </is>
       </c>
-      <c r="I1165" t="inlineStr">
-        <is>
-          <t>Andrew Wonho Cho</t>
-        </is>
-      </c>
+      <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr">
         <is>
-          <t>화3,목1~2</t>
+          <t>월3,수1~2</t>
         </is>
       </c>
       <c r="K1165" t="inlineStr">
@@ -70695,13 +70691,17 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1165" t="inlineStr"/>
+      <c r="M1165" t="inlineStr">
+        <is>
+          <t>2-4학년만 신청가능, 1학년은 학과개설란에서 신청</t>
+        </is>
+      </c>
       <c r="N1165" t="inlineStr"/>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
@@ -70739,14 +70739,10 @@
           <t>3</t>
         </is>
       </c>
-      <c r="I1166" t="inlineStr">
-        <is>
-          <t>김향일</t>
-        </is>
-      </c>
+      <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr">
         <is>
-          <t>월1~2,수3</t>
+          <t>화1~2,목3</t>
         </is>
       </c>
       <c r="K1166" t="inlineStr">
@@ -70759,13 +70755,17 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1166" t="inlineStr"/>
+      <c r="M1166" t="inlineStr">
+        <is>
+          <t>2-4학년만 신청가능, 1학년은 학과개설란에서 신청</t>
+        </is>
+      </c>
       <c r="N1166" t="inlineStr"/>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
@@ -70803,14 +70803,10 @@
           <t>3</t>
         </is>
       </c>
-      <c r="I1167" t="inlineStr">
-        <is>
-          <t>김향일</t>
-        </is>
-      </c>
+      <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr">
         <is>
-          <t>월3,수1~2</t>
+          <t>화3,목1~2</t>
         </is>
       </c>
       <c r="K1167" t="inlineStr">
@@ -70823,7 +70819,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1167" t="inlineStr"/>
+      <c r="M1167" t="inlineStr">
+        <is>
+          <t>2-4학년만 신청가능, 1학년은 학과개설란에서 신청</t>
+        </is>
+      </c>
       <c r="N1167" t="inlineStr"/>
     </row>
     <row r="1168">
@@ -72721,7 +72721,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
@@ -72761,12 +72761,12 @@
       </c>
       <c r="I1197" t="inlineStr">
         <is>
-          <t>이은경</t>
+          <t>김정헌</t>
         </is>
       </c>
       <c r="J1197" t="inlineStr">
         <is>
-          <t>화5~7</t>
+          <t>월2~4</t>
         </is>
       </c>
       <c r="K1197" t="inlineStr">
@@ -72785,7 +72785,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
@@ -72825,12 +72825,12 @@
       </c>
       <c r="I1198" t="inlineStr">
         <is>
-          <t>김희진</t>
+          <t>김정헌</t>
         </is>
       </c>
       <c r="J1198" t="inlineStr">
         <is>
-          <t>화2~4</t>
+          <t>월6~8</t>
         </is>
       </c>
       <c r="K1198" t="inlineStr">
@@ -72849,7 +72849,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
@@ -72889,12 +72889,12 @@
       </c>
       <c r="I1199" t="inlineStr">
         <is>
-          <t>김희진</t>
+          <t>한금윤</t>
         </is>
       </c>
       <c r="J1199" t="inlineStr">
         <is>
-          <t>목2~4</t>
+          <t>화2~4</t>
         </is>
       </c>
       <c r="K1199" t="inlineStr">
@@ -72913,7 +72913,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
@@ -72953,12 +72953,12 @@
       </c>
       <c r="I1200" t="inlineStr">
         <is>
-          <t>김지혜</t>
+          <t>한금윤</t>
         </is>
       </c>
       <c r="J1200" t="inlineStr">
         <is>
-          <t>수6~8</t>
+          <t>수2~4</t>
         </is>
       </c>
       <c r="K1200" t="inlineStr">
@@ -73105,7 +73105,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
@@ -73145,12 +73145,12 @@
       </c>
       <c r="I1203" t="inlineStr">
         <is>
-          <t>백숭기</t>
+          <t>강영미</t>
         </is>
       </c>
       <c r="J1203" t="inlineStr">
         <is>
-          <t>수2~4</t>
+          <t>월1~3</t>
         </is>
       </c>
       <c r="K1203" t="inlineStr">
@@ -73169,7 +73169,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
@@ -73209,12 +73209,12 @@
       </c>
       <c r="I1204" t="inlineStr">
         <is>
-          <t>이은경</t>
+          <t>강영미</t>
         </is>
       </c>
       <c r="J1204" t="inlineStr">
         <is>
-          <t>월6~8</t>
+          <t>월4~6</t>
         </is>
       </c>
       <c r="K1204" t="inlineStr">
@@ -73233,7 +73233,7 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
@@ -73273,12 +73273,12 @@
       </c>
       <c r="I1205" t="inlineStr">
         <is>
-          <t>박현선</t>
+          <t>김희진</t>
         </is>
       </c>
       <c r="J1205" t="inlineStr">
         <is>
-          <t>수6~8</t>
+          <t>화2~4</t>
         </is>
       </c>
       <c r="K1205" t="inlineStr">
@@ -73297,7 +73297,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
@@ -73337,12 +73337,12 @@
       </c>
       <c r="I1206" t="inlineStr">
         <is>
-          <t>김정헌</t>
+          <t>김희진</t>
         </is>
       </c>
       <c r="J1206" t="inlineStr">
         <is>
-          <t>월2~4</t>
+          <t>목2~4</t>
         </is>
       </c>
       <c r="K1206" t="inlineStr">
@@ -73361,7 +73361,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
@@ -73401,12 +73401,12 @@
       </c>
       <c r="I1207" t="inlineStr">
         <is>
-          <t>김정헌</t>
+          <t>박윤영</t>
         </is>
       </c>
       <c r="J1207" t="inlineStr">
         <is>
-          <t>월6~8</t>
+          <t>목2~4</t>
         </is>
       </c>
       <c r="K1207" t="inlineStr">
@@ -73425,7 +73425,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
@@ -73470,7 +73470,7 @@
       </c>
       <c r="J1208" t="inlineStr">
         <is>
-          <t>목2~4</t>
+          <t>목6~8</t>
         </is>
       </c>
       <c r="K1208" t="inlineStr">
@@ -73489,7 +73489,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
@@ -73529,12 +73529,12 @@
       </c>
       <c r="I1209" t="inlineStr">
         <is>
-          <t>박윤영</t>
+          <t>박현선</t>
         </is>
       </c>
       <c r="J1209" t="inlineStr">
         <is>
-          <t>목6~8</t>
+          <t>수2~4</t>
         </is>
       </c>
       <c r="K1209" t="inlineStr">
@@ -73553,7 +73553,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
@@ -73593,12 +73593,12 @@
       </c>
       <c r="I1210" t="inlineStr">
         <is>
-          <t>한금윤</t>
+          <t>박현선</t>
         </is>
       </c>
       <c r="J1210" t="inlineStr">
         <is>
-          <t>화2~4</t>
+          <t>수6~8</t>
         </is>
       </c>
       <c r="K1210" t="inlineStr">
@@ -73617,7 +73617,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
@@ -73657,12 +73657,12 @@
       </c>
       <c r="I1211" t="inlineStr">
         <is>
-          <t>한금윤</t>
+          <t>유승현</t>
         </is>
       </c>
       <c r="J1211" t="inlineStr">
         <is>
-          <t>수2~4</t>
+          <t>금1~3</t>
         </is>
       </c>
       <c r="K1211" t="inlineStr">
@@ -73681,7 +73681,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
@@ -73721,12 +73721,12 @@
       </c>
       <c r="I1212" t="inlineStr">
         <is>
-          <t>강영미</t>
+          <t>유승현</t>
         </is>
       </c>
       <c r="J1212" t="inlineStr">
         <is>
-          <t>월1~3</t>
+          <t>금4~6</t>
         </is>
       </c>
       <c r="K1212" t="inlineStr">
@@ -73745,7 +73745,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
@@ -73785,12 +73785,12 @@
       </c>
       <c r="I1213" t="inlineStr">
         <is>
-          <t>강영미</t>
+          <t>이은경</t>
         </is>
       </c>
       <c r="J1213" t="inlineStr">
         <is>
-          <t>월4~6</t>
+          <t>월6~8</t>
         </is>
       </c>
       <c r="K1213" t="inlineStr">
@@ -73809,7 +73809,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
@@ -73849,12 +73849,12 @@
       </c>
       <c r="I1214" t="inlineStr">
         <is>
-          <t>최가형</t>
+          <t>이은경</t>
         </is>
       </c>
       <c r="J1214" t="inlineStr">
         <is>
-          <t>목2~4</t>
+          <t>화5~7</t>
         </is>
       </c>
       <c r="K1214" t="inlineStr">
@@ -73873,7 +73873,7 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
@@ -73918,7 +73918,7 @@
       </c>
       <c r="J1215" t="inlineStr">
         <is>
-          <t>목6~8</t>
+          <t>목2~4</t>
         </is>
       </c>
       <c r="K1215" t="inlineStr">
@@ -73937,7 +73937,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
@@ -73977,12 +73977,12 @@
       </c>
       <c r="I1216" t="inlineStr">
         <is>
-          <t>유승현</t>
+          <t>최가형</t>
         </is>
       </c>
       <c r="J1216" t="inlineStr">
         <is>
-          <t>금1~3</t>
+          <t>목6~8</t>
         </is>
       </c>
       <c r="K1216" t="inlineStr">
@@ -74001,7 +74001,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
@@ -74041,12 +74041,12 @@
       </c>
       <c r="I1217" t="inlineStr">
         <is>
-          <t>유승현</t>
+          <t>김지혜</t>
         </is>
       </c>
       <c r="J1217" t="inlineStr">
         <is>
-          <t>금4~6</t>
+          <t>수6~8</t>
         </is>
       </c>
       <c r="K1217" t="inlineStr">
@@ -74065,7 +74065,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
@@ -74105,7 +74105,7 @@
       </c>
       <c r="I1218" t="inlineStr">
         <is>
-          <t>박현선</t>
+          <t>백숭기</t>
         </is>
       </c>
       <c r="J1218" t="inlineStr">
@@ -75041,7 +75041,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
@@ -75081,7 +75081,7 @@
       </c>
       <c r="I1233" t="inlineStr">
         <is>
-          <t>제해종</t>
+          <t>심재일</t>
         </is>
       </c>
       <c r="J1233" t="inlineStr">
@@ -75109,7 +75109,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
@@ -75149,7 +75149,7 @@
       </c>
       <c r="I1234" t="inlineStr">
         <is>
-          <t>심재일</t>
+          <t>제해종</t>
         </is>
       </c>
       <c r="J1234" t="inlineStr">
@@ -79649,7 +79649,7 @@
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>956</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr">
@@ -79685,7 +79685,7 @@
       </c>
       <c r="I1305" t="inlineStr">
         <is>
-          <t>김봉근</t>
+          <t>음영철</t>
         </is>
       </c>
       <c r="J1305" t="inlineStr">
@@ -79709,7 +79709,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>988</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr">
@@ -79745,7 +79745,7 @@
       </c>
       <c r="I1306" t="inlineStr">
         <is>
-          <t>음영철</t>
+          <t>김봉근</t>
         </is>
       </c>
       <c r="J1306" t="inlineStr">
@@ -80785,7 +80785,7 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>973</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr">
@@ -80826,7 +80826,7 @@
       </c>
       <c r="J1324" t="inlineStr">
         <is>
-          <t>목6~8</t>
+          <t>금6~8</t>
         </is>
       </c>
       <c r="K1324" t="inlineStr">
@@ -80839,17 +80839,13 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1324" t="inlineStr">
-        <is>
-          <t>이중언어과정 수업</t>
-        </is>
-      </c>
+      <c r="M1324" t="inlineStr"/>
       <c r="N1324" t="inlineStr"/>
     </row>
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>973</t>
+          <t>985</t>
         </is>
       </c>
       <c r="B1325" t="inlineStr">
@@ -80890,7 +80886,7 @@
       </c>
       <c r="J1325" t="inlineStr">
         <is>
-          <t>금6~8</t>
+          <t>목6~8</t>
         </is>
       </c>
       <c r="K1325" t="inlineStr">
@@ -80903,7 +80899,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1325" t="inlineStr"/>
+      <c r="M1325" t="inlineStr">
+        <is>
+          <t>이중언어과정 수업</t>
+        </is>
+      </c>
       <c r="N1325" t="inlineStr"/>
     </row>
     <row r="1326">
@@ -81513,7 +81513,7 @@
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>895</t>
+          <t>876</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr">
@@ -81549,7 +81549,7 @@
       </c>
       <c r="I1336" t="inlineStr">
         <is>
-          <t>Baronese Harriet Peters</t>
+          <t>전혜민</t>
         </is>
       </c>
       <c r="J1336" t="inlineStr">
@@ -81633,7 +81633,7 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>891</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr">
@@ -81669,7 +81669,7 @@
       </c>
       <c r="I1338" t="inlineStr">
         <is>
-          <t>전혜민</t>
+          <t>John Thomas Peters</t>
         </is>
       </c>
       <c r="J1338" t="inlineStr">
@@ -81693,7 +81693,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>891</t>
+          <t>895</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr">
@@ -81729,7 +81729,7 @@
       </c>
       <c r="I1339" t="inlineStr">
         <is>
-          <t>John Thomas Peters</t>
+          <t>Baronese Harriet Peters</t>
         </is>
       </c>
       <c r="J1339" t="inlineStr">
@@ -81813,7 +81813,7 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>882</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr">
@@ -81849,7 +81849,7 @@
       </c>
       <c r="I1341" t="inlineStr">
         <is>
-          <t>Yoon Surina Rin</t>
+          <t>김용성</t>
         </is>
       </c>
       <c r="J1341" t="inlineStr">
@@ -81873,7 +81873,7 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>882</t>
+          <t>889</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr">
@@ -81909,7 +81909,7 @@
       </c>
       <c r="I1342" t="inlineStr">
         <is>
-          <t>김용성</t>
+          <t>김민희</t>
         </is>
       </c>
       <c r="J1342" t="inlineStr">
@@ -81933,7 +81933,7 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>897</t>
+          <t>893</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr">
@@ -81969,7 +81969,7 @@
       </c>
       <c r="I1343" t="inlineStr">
         <is>
-          <t>최경룡</t>
+          <t>Yoon Surina Rin</t>
         </is>
       </c>
       <c r="J1343" t="inlineStr">
@@ -81993,7 +81993,7 @@
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>897</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr">
@@ -82029,7 +82029,7 @@
       </c>
       <c r="I1344" t="inlineStr">
         <is>
-          <t>김민희</t>
+          <t>최경룡</t>
         </is>
       </c>
       <c r="J1344" t="inlineStr">
@@ -82169,7 +82169,7 @@
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>881</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr">
@@ -82210,7 +82210,7 @@
       </c>
       <c r="J1347" t="inlineStr">
         <is>
-          <t>월1~2,수2</t>
+          <t>화1,금1~2</t>
         </is>
       </c>
       <c r="K1347" t="inlineStr">
@@ -82229,7 +82229,7 @@
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>888</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr">
@@ -82270,7 +82270,7 @@
       </c>
       <c r="J1348" t="inlineStr">
         <is>
-          <t>화1,금1~2</t>
+          <t>월1~2,수2</t>
         </is>
       </c>
       <c r="K1348" t="inlineStr">
@@ -82649,7 +82649,7 @@
     <row r="1355">
       <c r="A1355" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>868</t>
         </is>
       </c>
       <c r="B1355" t="inlineStr">
@@ -82685,7 +82685,7 @@
       </c>
       <c r="I1355" t="inlineStr">
         <is>
-          <t>Baronese Harriet Peters</t>
+          <t>John Thomas Peters</t>
         </is>
       </c>
       <c r="J1355" t="inlineStr">
@@ -82709,7 +82709,7 @@
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>884</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr">
@@ -82745,7 +82745,7 @@
       </c>
       <c r="I1356" t="inlineStr">
         <is>
-          <t>Ruby Christian Lewis</t>
+          <t>Hannah Shin</t>
         </is>
       </c>
       <c r="J1356" t="inlineStr">
@@ -82769,7 +82769,7 @@
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>884</t>
+          <t>890</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr">
@@ -82805,7 +82805,7 @@
       </c>
       <c r="I1357" t="inlineStr">
         <is>
-          <t>Hannah Shin</t>
+          <t>Ruby Christian Lewis</t>
         </is>
       </c>
       <c r="J1357" t="inlineStr">
@@ -82829,7 +82829,7 @@
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>868</t>
+          <t>894</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr">
@@ -82865,7 +82865,7 @@
       </c>
       <c r="I1358" t="inlineStr">
         <is>
-          <t>John Thomas Peters</t>
+          <t>Baronese Harriet Peters</t>
         </is>
       </c>
       <c r="J1358" t="inlineStr">
@@ -84621,7 +84621,7 @@
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>922</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr">
@@ -84662,7 +84662,7 @@
       </c>
       <c r="J1388" t="inlineStr">
         <is>
-          <t>월1~3</t>
+          <t>월5~7</t>
         </is>
       </c>
       <c r="K1388" t="inlineStr">
@@ -84681,7 +84681,7 @@
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>945</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr">
@@ -84722,7 +84722,7 @@
       </c>
       <c r="J1389" t="inlineStr">
         <is>
-          <t>월5~7</t>
+          <t>월1~3</t>
         </is>
       </c>
       <c r="K1389" t="inlineStr">
@@ -84741,7 +84741,7 @@
     <row r="1390">
       <c r="A1390" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>1464</t>
         </is>
       </c>
       <c r="B1390" t="inlineStr">
@@ -84777,7 +84777,7 @@
       </c>
       <c r="I1390" t="inlineStr">
         <is>
-          <t>신지연</t>
+          <t>김정미</t>
         </is>
       </c>
       <c r="J1390" t="inlineStr">
@@ -84861,7 +84861,7 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>1467</t>
+          <t>1466</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr">
@@ -84897,7 +84897,7 @@
       </c>
       <c r="I1392" t="inlineStr">
         <is>
-          <t>이유진</t>
+          <t>김길숙</t>
         </is>
       </c>
       <c r="J1392" t="inlineStr">
@@ -84921,7 +84921,7 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>1466</t>
+          <t>1467</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr">
@@ -84957,7 +84957,7 @@
       </c>
       <c r="I1393" t="inlineStr">
         <is>
-          <t>김길숙</t>
+          <t>이유진</t>
         </is>
       </c>
       <c r="J1393" t="inlineStr">
@@ -84981,7 +84981,7 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>1464</t>
+          <t>940</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr">
@@ -85017,7 +85017,7 @@
       </c>
       <c r="I1394" t="inlineStr">
         <is>
-          <t>김정미</t>
+          <t>신지연</t>
         </is>
       </c>
       <c r="J1394" t="inlineStr">
@@ -85281,7 +85281,7 @@
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>954</t>
+          <t>937</t>
         </is>
       </c>
       <c r="B1399" t="inlineStr">
@@ -85322,7 +85322,7 @@
       </c>
       <c r="J1399" t="inlineStr">
         <is>
-          <t>화5~7</t>
+          <t>화1~3</t>
         </is>
       </c>
       <c r="K1399" t="inlineStr">
@@ -85341,7 +85341,7 @@
     <row r="1400">
       <c r="A1400" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>954</t>
         </is>
       </c>
       <c r="B1400" t="inlineStr">
@@ -85382,7 +85382,7 @@
       </c>
       <c r="J1400" t="inlineStr">
         <is>
-          <t>화1~3</t>
+          <t>화5~7</t>
         </is>
       </c>
       <c r="K1400" t="inlineStr">
@@ -85941,7 +85941,7 @@
     <row r="1410">
       <c r="A1410" t="inlineStr">
         <is>
-          <t>949</t>
+          <t>928</t>
         </is>
       </c>
       <c r="B1410" t="inlineStr">
@@ -85982,7 +85982,7 @@
       </c>
       <c r="J1410" t="inlineStr">
         <is>
-          <t>목3~4</t>
+          <t>목1~2</t>
         </is>
       </c>
       <c r="K1410" t="inlineStr">
@@ -86001,7 +86001,7 @@
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>949</t>
         </is>
       </c>
       <c r="B1411" t="inlineStr">
@@ -86042,7 +86042,7 @@
       </c>
       <c r="J1411" t="inlineStr">
         <is>
-          <t>목1~2</t>
+          <t>목3~4</t>
         </is>
       </c>
       <c r="K1411" t="inlineStr">
@@ -86061,7 +86061,7 @@
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>927</t>
         </is>
       </c>
       <c r="B1412" t="inlineStr">
@@ -86102,7 +86102,7 @@
       </c>
       <c r="J1412" t="inlineStr">
         <is>
-          <t>화1~3</t>
+          <t>화5~7</t>
         </is>
       </c>
       <c r="K1412" t="inlineStr">
@@ -86121,7 +86121,7 @@
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>948</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr">
@@ -86162,7 +86162,7 @@
       </c>
       <c r="J1413" t="inlineStr">
         <is>
-          <t>화5~7</t>
+          <t>화1~3</t>
         </is>
       </c>
       <c r="K1413" t="inlineStr">
@@ -86365,7 +86365,7 @@
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>951</t>
+          <t>931</t>
         </is>
       </c>
       <c r="B1417" t="inlineStr">
@@ -86406,7 +86406,7 @@
       </c>
       <c r="J1417" t="inlineStr">
         <is>
-          <t>화7~8</t>
+          <t>화5~6</t>
         </is>
       </c>
       <c r="K1417" t="inlineStr">
@@ -86425,7 +86425,7 @@
     <row r="1418">
       <c r="A1418" t="inlineStr">
         <is>
-          <t>931</t>
+          <t>951</t>
         </is>
       </c>
       <c r="B1418" t="inlineStr">
@@ -86466,7 +86466,7 @@
       </c>
       <c r="J1418" t="inlineStr">
         <is>
-          <t>화5~6</t>
+          <t>화7~8</t>
         </is>
       </c>
       <c r="K1418" t="inlineStr">
@@ -86485,7 +86485,7 @@
     <row r="1419">
       <c r="A1419" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>930</t>
         </is>
       </c>
       <c r="B1419" t="inlineStr">
@@ -86526,7 +86526,7 @@
       </c>
       <c r="J1419" t="inlineStr">
         <is>
-          <t>화1~2</t>
+          <t>화3~4</t>
         </is>
       </c>
       <c r="K1419" t="inlineStr">
@@ -86605,7 +86605,7 @@
     <row r="1421">
       <c r="A1421" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>950</t>
         </is>
       </c>
       <c r="B1421" t="inlineStr">
@@ -86646,7 +86646,7 @@
       </c>
       <c r="J1421" t="inlineStr">
         <is>
-          <t>화3~4</t>
+          <t>화1~2</t>
         </is>
       </c>
       <c r="K1421" t="inlineStr">
@@ -88873,7 +88873,7 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>1504</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
@@ -88909,7 +88909,7 @@
       </c>
       <c r="I1459" t="inlineStr">
         <is>
-          <t>유예진</t>
+          <t>박민수</t>
         </is>
       </c>
       <c r="J1459" t="inlineStr">
@@ -88933,7 +88933,7 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>1505</t>
+          <t>1502</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
@@ -88969,7 +88969,7 @@
       </c>
       <c r="I1460" t="inlineStr">
         <is>
-          <t>김민주</t>
+          <t>김낙철</t>
         </is>
       </c>
       <c r="J1460" t="inlineStr">
@@ -88993,7 +88993,7 @@
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>1504</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
@@ -89029,7 +89029,7 @@
       </c>
       <c r="I1461" t="inlineStr">
         <is>
-          <t>박민수</t>
+          <t>유예진</t>
         </is>
       </c>
       <c r="J1461" t="inlineStr">
@@ -89053,7 +89053,7 @@
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>1502</t>
+          <t>1505</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
@@ -89089,7 +89089,7 @@
       </c>
       <c r="I1462" t="inlineStr">
         <is>
-          <t>김낙철</t>
+          <t>김민주</t>
         </is>
       </c>
       <c r="J1462" t="inlineStr">

--- a/data/2023년 2학기 정규 시간표.xlsx
+++ b/data/2023년 2학기 정규 시간표.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1490"/>
+  <dimension ref="A1:N1491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -84785,7 +84785,7 @@
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>1671</t>
+          <t>1670</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr">
@@ -84805,7 +84805,7 @@
       </c>
       <c r="E1389" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F1389" t="inlineStr">
@@ -84819,10 +84819,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I1389" t="inlineStr"/>
+      <c r="I1389" t="inlineStr">
+        <is>
+          <t>미지정</t>
+        </is>
+      </c>
       <c r="J1389" t="inlineStr">
         <is>
-          <t>수2</t>
+          <t>월3</t>
         </is>
       </c>
       <c r="K1389" t="inlineStr">
@@ -84841,17 +84845,17 @@
     <row r="1390">
       <c r="A1390" t="inlineStr">
         <is>
-          <t>924</t>
+          <t>1671</t>
         </is>
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>1001135</t>
+          <t>1004903</t>
         </is>
       </c>
       <c r="C1390" t="inlineStr">
         <is>
-          <t>종교와인생</t>
+          <t>채플</t>
         </is>
       </c>
       <c r="D1390" t="inlineStr">
@@ -84861,33 +84865,29 @@
       </c>
       <c r="E1390" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F1390" t="inlineStr">
         <is>
-          <t>교양필수</t>
+          <t>채플</t>
         </is>
       </c>
       <c r="G1390" t="inlineStr"/>
       <c r="H1390" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I1390" t="inlineStr">
-        <is>
-          <t>이원구</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I1390" t="inlineStr"/>
       <c r="J1390" t="inlineStr">
         <is>
-          <t>수2~3</t>
+          <t>수2</t>
         </is>
       </c>
       <c r="K1390" t="inlineStr">
         <is>
-          <t>사무엘관209호강의실</t>
+          <t>대강당(메인)</t>
         </is>
       </c>
       <c r="L1390" t="inlineStr">
@@ -84901,17 +84901,17 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>1530</t>
+          <t>924</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>1006240</t>
+          <t>1001135</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr">
         <is>
-          <t>글로컬 영어 II</t>
+          <t>종교와인생</t>
         </is>
       </c>
       <c r="D1391" t="inlineStr">
@@ -84932,18 +84932,22 @@
       <c r="G1391" t="inlineStr"/>
       <c r="H1391" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I1391" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I1391" t="inlineStr">
+        <is>
+          <t>이원구</t>
+        </is>
+      </c>
       <c r="J1391" t="inlineStr">
         <is>
-          <t>화3,목1~2</t>
+          <t>수2~3</t>
         </is>
       </c>
       <c r="K1391" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>사무엘관209호강의실</t>
         </is>
       </c>
       <c r="L1391" t="inlineStr">
@@ -84957,17 +84961,17 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>1530</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr">
         <is>
-          <t>1001312</t>
+          <t>1006240</t>
         </is>
       </c>
       <c r="C1392" t="inlineStr">
         <is>
-          <t>놀이지도</t>
+          <t>글로컬 영어 II</t>
         </is>
       </c>
       <c r="D1392" t="inlineStr">
@@ -84982,7 +84986,7 @@
       </c>
       <c r="F1392" t="inlineStr">
         <is>
-          <t>전공선택</t>
+          <t>교양필수</t>
         </is>
       </c>
       <c r="G1392" t="inlineStr"/>
@@ -84991,19 +84995,15 @@
           <t>3</t>
         </is>
       </c>
-      <c r="I1392" t="inlineStr">
-        <is>
-          <t>신지연</t>
-        </is>
-      </c>
+      <c r="I1392" t="inlineStr"/>
       <c r="J1392" t="inlineStr">
         <is>
-          <t>수5~7</t>
+          <t>화3,목1~2</t>
         </is>
       </c>
       <c r="K1392" t="inlineStr">
         <is>
-          <t>국제교육관223호(中)대학원강의실</t>
+          <t>미지정</t>
         </is>
       </c>
       <c r="L1392" t="inlineStr">
@@ -85017,7 +85017,7 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>946</t>
+          <t>923</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr">
@@ -85058,12 +85058,12 @@
       </c>
       <c r="J1393" t="inlineStr">
         <is>
-          <t>화5~7</t>
+          <t>수5~7</t>
         </is>
       </c>
       <c r="K1393" t="inlineStr">
         <is>
-          <t>국제교육관222호(中)강의실</t>
+          <t>국제교육관223호(中)대학원강의실</t>
         </is>
       </c>
       <c r="L1393" t="inlineStr">
@@ -85077,17 +85077,17 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>946</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>1003853</t>
+          <t>1001312</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr">
         <is>
-          <t>유아동작교육</t>
+          <t>놀이지도</t>
         </is>
       </c>
       <c r="D1394" t="inlineStr">
@@ -85113,17 +85113,17 @@
       </c>
       <c r="I1394" t="inlineStr">
         <is>
-          <t>김길숙</t>
+          <t>신지연</t>
         </is>
       </c>
       <c r="J1394" t="inlineStr">
         <is>
-          <t>월5~7</t>
+          <t>화5~7</t>
         </is>
       </c>
       <c r="K1394" t="inlineStr">
         <is>
-          <t>제1실습관307호(창작공예실-유교과 전용)</t>
+          <t>국제교육관222호(中)강의실</t>
         </is>
       </c>
       <c r="L1394" t="inlineStr">
@@ -85137,7 +85137,7 @@
     <row r="1395">
       <c r="A1395" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>922</t>
         </is>
       </c>
       <c r="B1395" t="inlineStr">
@@ -85178,7 +85178,7 @@
       </c>
       <c r="J1395" t="inlineStr">
         <is>
-          <t>월1~3</t>
+          <t>월5~7</t>
         </is>
       </c>
       <c r="K1395" t="inlineStr">
@@ -85197,17 +85197,17 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>945</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>1006074</t>
+          <t>1003853</t>
         </is>
       </c>
       <c r="C1396" t="inlineStr">
         <is>
-          <t>인생설계와 진로 II</t>
+          <t>유아동작교육</t>
         </is>
       </c>
       <c r="D1396" t="inlineStr">
@@ -85217,33 +85217,33 @@
       </c>
       <c r="E1396" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F1396" t="inlineStr">
         <is>
-          <t>교양필수</t>
+          <t>전공선택</t>
         </is>
       </c>
       <c r="G1396" t="inlineStr"/>
       <c r="H1396" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I1396" t="inlineStr">
         <is>
-          <t>신지연</t>
+          <t>김길숙</t>
         </is>
       </c>
       <c r="J1396" t="inlineStr">
         <is>
-          <t>화9</t>
+          <t>월1~3</t>
         </is>
       </c>
       <c r="K1396" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>제1실습관307호(창작공예실-유교과 전용)</t>
         </is>
       </c>
       <c r="L1396" t="inlineStr">
@@ -85257,7 +85257,7 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>1464</t>
+          <t>940</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr">
@@ -85293,7 +85293,7 @@
       </c>
       <c r="I1397" t="inlineStr">
         <is>
-          <t>김정미</t>
+          <t>신지연</t>
         </is>
       </c>
       <c r="J1397" t="inlineStr">
@@ -85317,7 +85317,7 @@
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1464</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr">
@@ -85353,7 +85353,7 @@
       </c>
       <c r="I1398" t="inlineStr">
         <is>
-          <t>최지영</t>
+          <t>김정미</t>
         </is>
       </c>
       <c r="J1398" t="inlineStr">
@@ -85377,7 +85377,7 @@
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>1466</t>
+          <t>1465</t>
         </is>
       </c>
       <c r="B1399" t="inlineStr">
@@ -85413,7 +85413,7 @@
       </c>
       <c r="I1399" t="inlineStr">
         <is>
-          <t>김길숙</t>
+          <t>최지영</t>
         </is>
       </c>
       <c r="J1399" t="inlineStr">
@@ -85437,7 +85437,7 @@
     <row r="1400">
       <c r="A1400" t="inlineStr">
         <is>
-          <t>1467</t>
+          <t>1466</t>
         </is>
       </c>
       <c r="B1400" t="inlineStr">
@@ -85473,7 +85473,7 @@
       </c>
       <c r="I1400" t="inlineStr">
         <is>
-          <t>이유진</t>
+          <t>김길숙</t>
         </is>
       </c>
       <c r="J1400" t="inlineStr">
@@ -85497,17 +85497,17 @@
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>1467</t>
         </is>
       </c>
       <c r="B1401" t="inlineStr">
         <is>
-          <t>1006707</t>
+          <t>1006074</t>
         </is>
       </c>
       <c r="C1401" t="inlineStr">
         <is>
-          <t>학교현장의 이해 Ⅱ</t>
+          <t>인생설계와 진로 II</t>
         </is>
       </c>
       <c r="D1401" t="inlineStr">
@@ -85522,7 +85522,7 @@
       </c>
       <c r="F1401" t="inlineStr">
         <is>
-          <t>전공필수</t>
+          <t>교양필수</t>
         </is>
       </c>
       <c r="G1401" t="inlineStr"/>
@@ -85533,17 +85533,17 @@
       </c>
       <c r="I1401" t="inlineStr">
         <is>
-          <t>최지영</t>
+          <t>이유진</t>
         </is>
       </c>
       <c r="J1401" t="inlineStr">
         <is>
-          <t>금2</t>
+          <t>화9</t>
         </is>
       </c>
       <c r="K1401" t="inlineStr">
         <is>
-          <t>제1실습관302호강의실</t>
+          <t>미지정</t>
         </is>
       </c>
       <c r="L1401" t="inlineStr">
@@ -85557,17 +85557,17 @@
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>939</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr">
         <is>
-          <t>1000890</t>
+          <t>1006707</t>
         </is>
       </c>
       <c r="C1402" t="inlineStr">
         <is>
-          <t>교육심리</t>
+          <t>학교현장의 이해 Ⅱ</t>
         </is>
       </c>
       <c r="D1402" t="inlineStr">
@@ -85582,23 +85582,23 @@
       </c>
       <c r="F1402" t="inlineStr">
         <is>
-          <t>교직필수</t>
+          <t>전공필수</t>
         </is>
       </c>
       <c r="G1402" t="inlineStr"/>
       <c r="H1402" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I1402" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>최지영</t>
         </is>
       </c>
       <c r="J1402" t="inlineStr">
         <is>
-          <t>금6~7</t>
+          <t>금2</t>
         </is>
       </c>
       <c r="K1402" t="inlineStr">
@@ -85617,17 +85617,17 @@
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>934</t>
         </is>
       </c>
       <c r="B1403" t="inlineStr">
         <is>
-          <t>1000899</t>
+          <t>1000890</t>
         </is>
       </c>
       <c r="C1403" t="inlineStr">
         <is>
-          <t>교육철학 및 교육사</t>
+          <t>교육심리</t>
         </is>
       </c>
       <c r="D1403" t="inlineStr">
@@ -85653,12 +85653,12 @@
       </c>
       <c r="I1403" t="inlineStr">
         <is>
-          <t>명지원</t>
+          <t>미지정</t>
         </is>
       </c>
       <c r="J1403" t="inlineStr">
         <is>
-          <t>월7~8</t>
+          <t>금6~7</t>
         </is>
       </c>
       <c r="K1403" t="inlineStr">
@@ -85677,17 +85677,17 @@
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>935</t>
         </is>
       </c>
       <c r="B1404" t="inlineStr">
         <is>
-          <t>1001121</t>
+          <t>1000899</t>
         </is>
       </c>
       <c r="C1404" t="inlineStr">
         <is>
-          <t>역사와문화</t>
+          <t>교육철학 및 교육사</t>
         </is>
       </c>
       <c r="D1404" t="inlineStr">
@@ -85702,7 +85702,7 @@
       </c>
       <c r="F1404" t="inlineStr">
         <is>
-          <t>교양필수</t>
+          <t>교직필수</t>
         </is>
       </c>
       <c r="G1404" t="inlineStr"/>
@@ -85713,12 +85713,12 @@
       </c>
       <c r="I1404" t="inlineStr">
         <is>
-          <t>이원구</t>
+          <t>명지원</t>
         </is>
       </c>
       <c r="J1404" t="inlineStr">
         <is>
-          <t>월5~6</t>
+          <t>월7~8</t>
         </is>
       </c>
       <c r="K1404" t="inlineStr">
@@ -85737,17 +85737,17 @@
     <row r="1405">
       <c r="A1405" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>941</t>
         </is>
       </c>
       <c r="B1405" t="inlineStr">
         <is>
-          <t>1002956</t>
+          <t>1001121</t>
         </is>
       </c>
       <c r="C1405" t="inlineStr">
         <is>
-          <t>아동건강교육</t>
+          <t>역사와문화</t>
         </is>
       </c>
       <c r="D1405" t="inlineStr">
@@ -85762,23 +85762,23 @@
       </c>
       <c r="F1405" t="inlineStr">
         <is>
-          <t>전공선택</t>
+          <t>교양필수</t>
         </is>
       </c>
       <c r="G1405" t="inlineStr"/>
       <c r="H1405" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I1405" t="inlineStr">
         <is>
-          <t>최지영</t>
+          <t>이원구</t>
         </is>
       </c>
       <c r="J1405" t="inlineStr">
         <is>
-          <t>화1~3</t>
+          <t>월5~6</t>
         </is>
       </c>
       <c r="K1405" t="inlineStr">
@@ -85797,7 +85797,7 @@
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>954</t>
+          <t>937</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr">
@@ -85838,7 +85838,7 @@
       </c>
       <c r="J1406" t="inlineStr">
         <is>
-          <t>화5~7</t>
+          <t>화1~3</t>
         </is>
       </c>
       <c r="K1406" t="inlineStr">
@@ -85857,17 +85857,17 @@
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>954</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>1003855</t>
+          <t>1002956</t>
         </is>
       </c>
       <c r="C1407" t="inlineStr">
         <is>
-          <t>유아미술교육</t>
+          <t>아동건강교육</t>
         </is>
       </c>
       <c r="D1407" t="inlineStr">
@@ -85893,17 +85893,17 @@
       </c>
       <c r="I1407" t="inlineStr">
         <is>
-          <t>김정미</t>
+          <t>최지영</t>
         </is>
       </c>
       <c r="J1407" t="inlineStr">
         <is>
-          <t>목1~3</t>
+          <t>화5~7</t>
         </is>
       </c>
       <c r="K1407" t="inlineStr">
         <is>
-          <t>제1실습관307호(창작공예실-유교과 전용)</t>
+          <t>제1실습관302호강의실</t>
         </is>
       </c>
       <c r="L1407" t="inlineStr">
@@ -85917,17 +85917,17 @@
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>938</t>
+          <t>936</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr">
         <is>
-          <t>1003860</t>
+          <t>1003855</t>
         </is>
       </c>
       <c r="C1408" t="inlineStr">
         <is>
-          <t>유아언어교육</t>
+          <t>유아미술교육</t>
         </is>
       </c>
       <c r="D1408" t="inlineStr">
@@ -85953,17 +85953,17 @@
       </c>
       <c r="I1408" t="inlineStr">
         <is>
-          <t>이경열</t>
+          <t>김정미</t>
         </is>
       </c>
       <c r="J1408" t="inlineStr">
         <is>
-          <t>수5~7</t>
+          <t>목1~3</t>
         </is>
       </c>
       <c r="K1408" t="inlineStr">
         <is>
-          <t>제1실습관304호강의실(유교과)</t>
+          <t>제1실습관307호(창작공예실-유교과 전용)</t>
         </is>
       </c>
       <c r="L1408" t="inlineStr">
@@ -85977,7 +85977,7 @@
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>955</t>
+          <t>938</t>
         </is>
       </c>
       <c r="B1409" t="inlineStr">
@@ -86018,7 +86018,7 @@
       </c>
       <c r="J1409" t="inlineStr">
         <is>
-          <t>수1~3</t>
+          <t>수5~7</t>
         </is>
       </c>
       <c r="K1409" t="inlineStr">
@@ -86037,17 +86037,17 @@
     <row r="1410">
       <c r="A1410" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>955</t>
         </is>
       </c>
       <c r="B1410" t="inlineStr">
         <is>
-          <t>1001967</t>
+          <t>1003860</t>
         </is>
       </c>
       <c r="C1410" t="inlineStr">
         <is>
-          <t>보육실습 I</t>
+          <t>유아언어교육</t>
         </is>
       </c>
       <c r="D1410" t="inlineStr">
@@ -86057,33 +86057,33 @@
       </c>
       <c r="E1410" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F1410" t="inlineStr">
         <is>
-          <t>교직필수</t>
+          <t>전공선택</t>
         </is>
       </c>
       <c r="G1410" t="inlineStr"/>
       <c r="H1410" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I1410" t="inlineStr">
         <is>
-          <t>신남주</t>
+          <t>이경열</t>
         </is>
       </c>
       <c r="J1410" t="inlineStr">
         <is>
-          <t>금8</t>
+          <t>수1~3</t>
         </is>
       </c>
       <c r="K1410" t="inlineStr">
         <is>
-          <t>제1실습관302호강의실</t>
+          <t>제1실습관304호강의실(유교과)</t>
         </is>
       </c>
       <c r="L1410" t="inlineStr">
@@ -86091,27 +86091,23 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1410" t="inlineStr">
-        <is>
-          <t>방학중 보육실습 이수한 학생들만 신청</t>
-        </is>
-      </c>
+      <c r="M1410" t="inlineStr"/>
       <c r="N1410" t="inlineStr"/>
     </row>
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>926</t>
         </is>
       </c>
       <c r="B1411" t="inlineStr">
         <is>
-          <t>1000875</t>
+          <t>1001967</t>
         </is>
       </c>
       <c r="C1411" t="inlineStr">
         <is>
-          <t>교육과정 및 교육평가</t>
+          <t>보육실습 I</t>
         </is>
       </c>
       <c r="D1411" t="inlineStr">
@@ -86132,22 +86128,22 @@
       <c r="G1411" t="inlineStr"/>
       <c r="H1411" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I1411" t="inlineStr">
         <is>
-          <t>홍지완</t>
+          <t>신남주</t>
         </is>
       </c>
       <c r="J1411" t="inlineStr">
         <is>
-          <t>화2~3</t>
+          <t>금8</t>
         </is>
       </c>
       <c r="K1411" t="inlineStr">
         <is>
-          <t>제1실습관307호(창작공예실-유교과 전용)</t>
+          <t>제1실습관302호강의실</t>
         </is>
       </c>
       <c r="L1411" t="inlineStr">
@@ -86155,13 +86151,17 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1411" t="inlineStr"/>
+      <c r="M1411" t="inlineStr">
+        <is>
+          <t>방학중 보육실습 이수한 학생들만 신청</t>
+        </is>
+      </c>
       <c r="N1411" t="inlineStr"/>
     </row>
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>920</t>
         </is>
       </c>
       <c r="B1412" t="inlineStr">
@@ -86202,7 +86202,7 @@
       </c>
       <c r="J1412" t="inlineStr">
         <is>
-          <t>화5~6</t>
+          <t>화2~3</t>
         </is>
       </c>
       <c r="K1412" t="inlineStr">
@@ -86221,17 +86221,17 @@
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>925</t>
+          <t>943</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr">
         <is>
-          <t>1000878</t>
+          <t>1000875</t>
         </is>
       </c>
       <c r="C1413" t="inlineStr">
         <is>
-          <t>교육방법 및 교육공학</t>
+          <t>교육과정 및 교육평가</t>
         </is>
       </c>
       <c r="D1413" t="inlineStr">
@@ -86257,17 +86257,17 @@
       </c>
       <c r="I1413" t="inlineStr">
         <is>
-          <t>박완성</t>
+          <t>홍지완</t>
         </is>
       </c>
       <c r="J1413" t="inlineStr">
         <is>
-          <t>목7~8</t>
+          <t>화5~6</t>
         </is>
       </c>
       <c r="K1413" t="inlineStr">
         <is>
-          <t>제1실습관304호강의실(유교과)</t>
+          <t>제1실습관307호(창작공예실-유교과 전용)</t>
         </is>
       </c>
       <c r="L1413" t="inlineStr">
@@ -86281,7 +86281,7 @@
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>925</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr">
@@ -86322,7 +86322,7 @@
       </c>
       <c r="J1414" t="inlineStr">
         <is>
-          <t>목5~6</t>
+          <t>목7~8</t>
         </is>
       </c>
       <c r="K1414" t="inlineStr">
@@ -86341,17 +86341,17 @@
     <row r="1415">
       <c r="A1415" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>947</t>
         </is>
       </c>
       <c r="B1415" t="inlineStr">
         <is>
-          <t>1003838</t>
+          <t>1000878</t>
         </is>
       </c>
       <c r="C1415" t="inlineStr">
         <is>
-          <t>유아교과 논리 및 논술</t>
+          <t>교육방법 및 교육공학</t>
         </is>
       </c>
       <c r="D1415" t="inlineStr">
@@ -86366,7 +86366,7 @@
       </c>
       <c r="F1415" t="inlineStr">
         <is>
-          <t>전공선택</t>
+          <t>교직필수</t>
         </is>
       </c>
       <c r="G1415" t="inlineStr"/>
@@ -86377,12 +86377,12 @@
       </c>
       <c r="I1415" t="inlineStr">
         <is>
-          <t>김길숙</t>
+          <t>박완성</t>
         </is>
       </c>
       <c r="J1415" t="inlineStr">
         <is>
-          <t>목1~2</t>
+          <t>목5~6</t>
         </is>
       </c>
       <c r="K1415" t="inlineStr">
@@ -86401,7 +86401,7 @@
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>949</t>
+          <t>928</t>
         </is>
       </c>
       <c r="B1416" t="inlineStr">
@@ -86442,7 +86442,7 @@
       </c>
       <c r="J1416" t="inlineStr">
         <is>
-          <t>목3~4</t>
+          <t>목1~2</t>
         </is>
       </c>
       <c r="K1416" t="inlineStr">
@@ -86461,17 +86461,17 @@
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>949</t>
         </is>
       </c>
       <c r="B1417" t="inlineStr">
         <is>
-          <t>1000833</t>
+          <t>1003838</t>
         </is>
       </c>
       <c r="C1417" t="inlineStr">
         <is>
-          <t>교과교육론</t>
+          <t>유아교과 논리 및 논술</t>
         </is>
       </c>
       <c r="D1417" t="inlineStr">
@@ -86492,17 +86492,17 @@
       <c r="G1417" t="inlineStr"/>
       <c r="H1417" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I1417" t="inlineStr">
         <is>
-          <t>이유진</t>
+          <t>김길숙</t>
         </is>
       </c>
       <c r="J1417" t="inlineStr">
         <is>
-          <t>화5~7</t>
+          <t>목3~4</t>
         </is>
       </c>
       <c r="K1417" t="inlineStr">
@@ -86521,7 +86521,7 @@
     <row r="1418">
       <c r="A1418" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>927</t>
         </is>
       </c>
       <c r="B1418" t="inlineStr">
@@ -86562,7 +86562,7 @@
       </c>
       <c r="J1418" t="inlineStr">
         <is>
-          <t>화1~3</t>
+          <t>화5~7</t>
         </is>
       </c>
       <c r="K1418" t="inlineStr">
@@ -86581,17 +86581,17 @@
     <row r="1419">
       <c r="A1419" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>948</t>
         </is>
       </c>
       <c r="B1419" t="inlineStr">
         <is>
-          <t>1001994</t>
+          <t>1000833</t>
         </is>
       </c>
       <c r="C1419" t="inlineStr">
         <is>
-          <t>부모교육</t>
+          <t>교과교육론</t>
         </is>
       </c>
       <c r="D1419" t="inlineStr">
@@ -86617,17 +86617,17 @@
       </c>
       <c r="I1419" t="inlineStr">
         <is>
-          <t>신남주</t>
+          <t>이유진</t>
         </is>
       </c>
       <c r="J1419" t="inlineStr">
         <is>
-          <t>월5~7</t>
+          <t>화1~3</t>
         </is>
       </c>
       <c r="K1419" t="inlineStr">
         <is>
-          <t>아트앤디자인202호강의실</t>
+          <t>제1실습관304호강의실(유교과)</t>
         </is>
       </c>
       <c r="L1419" t="inlineStr">
@@ -86641,7 +86641,7 @@
     <row r="1420">
       <c r="A1420" t="inlineStr">
         <is>
-          <t>944</t>
+          <t>921</t>
         </is>
       </c>
       <c r="B1420" t="inlineStr">
@@ -86682,12 +86682,12 @@
       </c>
       <c r="J1420" t="inlineStr">
         <is>
-          <t>월1~3</t>
+          <t>월5~7</t>
         </is>
       </c>
       <c r="K1420" t="inlineStr">
         <is>
-          <t>제1실습관304호강의실(유교과)</t>
+          <t>아트앤디자인202호강의실</t>
         </is>
       </c>
       <c r="L1420" t="inlineStr">
@@ -86701,17 +86701,17 @@
     <row r="1421">
       <c r="A1421" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>944</t>
         </is>
       </c>
       <c r="B1421" t="inlineStr">
         <is>
-          <t>1000882</t>
+          <t>1001994</t>
         </is>
       </c>
       <c r="C1421" t="inlineStr">
         <is>
-          <t>교육봉사활동II</t>
+          <t>부모교육</t>
         </is>
       </c>
       <c r="D1421" t="inlineStr">
@@ -86721,33 +86721,33 @@
       </c>
       <c r="E1421" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F1421" t="inlineStr">
         <is>
-          <t>교직필수</t>
+          <t>전공선택</t>
         </is>
       </c>
       <c r="G1421" t="inlineStr"/>
       <c r="H1421" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I1421" t="inlineStr">
         <is>
-          <t>이유진</t>
+          <t>신남주</t>
         </is>
       </c>
       <c r="J1421" t="inlineStr">
         <is>
-          <t>금9</t>
+          <t>월1~3</t>
         </is>
       </c>
       <c r="K1421" t="inlineStr">
         <is>
-          <t>제1실습관302호강의실</t>
+          <t>제1실습관304호강의실(유교과)</t>
         </is>
       </c>
       <c r="L1421" t="inlineStr">
@@ -86755,27 +86755,23 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1421" t="inlineStr">
-        <is>
-          <t>교육봉사지 사전협의 완료된 학생들만 수강신청하시기바랍니다.</t>
-        </is>
-      </c>
+      <c r="M1421" t="inlineStr"/>
       <c r="N1421" t="inlineStr"/>
     </row>
     <row r="1422">
       <c r="A1422" t="inlineStr">
         <is>
-          <t>931</t>
+          <t>929</t>
         </is>
       </c>
       <c r="B1422" t="inlineStr">
         <is>
-          <t>1000905</t>
+          <t>1000882</t>
         </is>
       </c>
       <c r="C1422" t="inlineStr">
         <is>
-          <t>교육행정 및 교육경영</t>
+          <t>교육봉사활동II</t>
         </is>
       </c>
       <c r="D1422" t="inlineStr">
@@ -86796,22 +86792,22 @@
       <c r="G1422" t="inlineStr"/>
       <c r="H1422" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I1422" t="inlineStr">
         <is>
-          <t>이재균</t>
+          <t>이유진</t>
         </is>
       </c>
       <c r="J1422" t="inlineStr">
         <is>
-          <t>화5~6</t>
+          <t>금9</t>
         </is>
       </c>
       <c r="K1422" t="inlineStr">
         <is>
-          <t>제1실습관202호강의실</t>
+          <t>제1실습관302호강의실</t>
         </is>
       </c>
       <c r="L1422" t="inlineStr">
@@ -86819,13 +86815,17 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1422" t="inlineStr"/>
+      <c r="M1422" t="inlineStr">
+        <is>
+          <t>교육봉사지 사전협의 완료된 학생들만 수강신청하시기바랍니다.</t>
+        </is>
+      </c>
       <c r="N1422" t="inlineStr"/>
     </row>
     <row r="1423">
       <c r="A1423" t="inlineStr">
         <is>
-          <t>951</t>
+          <t>931</t>
         </is>
       </c>
       <c r="B1423" t="inlineStr">
@@ -86866,7 +86866,7 @@
       </c>
       <c r="J1423" t="inlineStr">
         <is>
-          <t>화7~8</t>
+          <t>화5~6</t>
         </is>
       </c>
       <c r="K1423" t="inlineStr">
@@ -86885,17 +86885,17 @@
     <row r="1424">
       <c r="A1424" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>951</t>
         </is>
       </c>
       <c r="B1424" t="inlineStr">
         <is>
-          <t>1000910</t>
+          <t>1000905</t>
         </is>
       </c>
       <c r="C1424" t="inlineStr">
         <is>
-          <t>교직실무</t>
+          <t>교육행정 및 교육경영</t>
         </is>
       </c>
       <c r="D1424" t="inlineStr">
@@ -86921,12 +86921,12 @@
       </c>
       <c r="I1424" t="inlineStr">
         <is>
-          <t>김정미</t>
+          <t>이재균</t>
         </is>
       </c>
       <c r="J1424" t="inlineStr">
         <is>
-          <t>화3~4</t>
+          <t>화7~8</t>
         </is>
       </c>
       <c r="K1424" t="inlineStr">
@@ -86945,7 +86945,7 @@
     <row r="1425">
       <c r="A1425" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>930</t>
         </is>
       </c>
       <c r="B1425" t="inlineStr">
@@ -86986,7 +86986,7 @@
       </c>
       <c r="J1425" t="inlineStr">
         <is>
-          <t>화1~2</t>
+          <t>화3~4</t>
         </is>
       </c>
       <c r="K1425" t="inlineStr">
@@ -87065,17 +87065,17 @@
     <row r="1427">
       <c r="A1427" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>950</t>
         </is>
       </c>
       <c r="B1427" t="inlineStr">
         <is>
-          <t>1002965</t>
+          <t>1000910</t>
         </is>
       </c>
       <c r="C1427" t="inlineStr">
         <is>
-          <t>아동권리와 복지 (종합설계)</t>
+          <t>교직실무</t>
         </is>
       </c>
       <c r="D1427" t="inlineStr">
@@ -87090,23 +87090,23 @@
       </c>
       <c r="F1427" t="inlineStr">
         <is>
-          <t>전공선택</t>
+          <t>교직필수</t>
         </is>
       </c>
       <c r="G1427" t="inlineStr"/>
       <c r="H1427" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I1427" t="inlineStr">
         <is>
-          <t>신남주</t>
+          <t>김정미</t>
         </is>
       </c>
       <c r="J1427" t="inlineStr">
         <is>
-          <t>수1~3</t>
+          <t>화1~2</t>
         </is>
       </c>
       <c r="K1427" t="inlineStr">
@@ -87125,7 +87125,7 @@
     <row r="1428">
       <c r="A1428" t="inlineStr">
         <is>
-          <t>953</t>
+          <t>933</t>
         </is>
       </c>
       <c r="B1428" t="inlineStr">
@@ -87166,7 +87166,7 @@
       </c>
       <c r="J1428" t="inlineStr">
         <is>
-          <t>수5~7</t>
+          <t>수1~3</t>
         </is>
       </c>
       <c r="K1428" t="inlineStr">
@@ -87185,17 +87185,17 @@
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>932</t>
+          <t>953</t>
         </is>
       </c>
       <c r="B1429" t="inlineStr">
         <is>
-          <t>1002969</t>
+          <t>1002965</t>
         </is>
       </c>
       <c r="C1429" t="inlineStr">
         <is>
-          <t>아동생활지도</t>
+          <t>아동권리와 복지 (종합설계)</t>
         </is>
       </c>
       <c r="D1429" t="inlineStr">
@@ -87221,17 +87221,17 @@
       </c>
       <c r="I1429" t="inlineStr">
         <is>
-          <t>최지영</t>
+          <t>신남주</t>
         </is>
       </c>
       <c r="J1429" t="inlineStr">
         <is>
-          <t>월1~3</t>
+          <t>수5~7</t>
         </is>
       </c>
       <c r="K1429" t="inlineStr">
         <is>
-          <t>제1실습관302호강의실</t>
+          <t>제1실습관202호강의실</t>
         </is>
       </c>
       <c r="L1429" t="inlineStr">
@@ -87245,7 +87245,7 @@
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>952</t>
+          <t>932</t>
         </is>
       </c>
       <c r="B1430" t="inlineStr">
@@ -87286,12 +87286,12 @@
       </c>
       <c r="J1430" t="inlineStr">
         <is>
-          <t>월5~7</t>
+          <t>월1~3</t>
         </is>
       </c>
       <c r="K1430" t="inlineStr">
         <is>
-          <t>제1실습관304호강의실(유교과)</t>
+          <t>제1실습관302호강의실</t>
         </is>
       </c>
       <c r="L1430" t="inlineStr">
@@ -87305,17 +87305,17 @@
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>952</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>1003858</t>
+          <t>1002969</t>
         </is>
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>유아사회교육</t>
+          <t>아동생활지도</t>
         </is>
       </c>
       <c r="D1431" t="inlineStr">
@@ -87341,17 +87341,17 @@
       </c>
       <c r="I1431" t="inlineStr">
         <is>
-          <t>김길숙</t>
+          <t>최지영</t>
         </is>
       </c>
       <c r="J1431" t="inlineStr">
         <is>
-          <t>목6~8</t>
+          <t>월5~7</t>
         </is>
       </c>
       <c r="K1431" t="inlineStr">
         <is>
-          <t>제1실습관302호강의실</t>
+          <t>제1실습관304호강의실(유교과)</t>
         </is>
       </c>
       <c r="L1431" t="inlineStr">
@@ -87365,49 +87365,53 @@
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>1522</t>
+          <t>942</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>1004903</t>
+          <t>1003858</t>
         </is>
       </c>
       <c r="C1432" t="inlineStr">
         <is>
-          <t>채플</t>
+          <t>유아사회교육</t>
         </is>
       </c>
       <c r="D1432" t="inlineStr">
         <is>
-          <t>일본어학과</t>
+          <t>유아교육과</t>
         </is>
       </c>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F1432" t="inlineStr">
         <is>
-          <t>채플</t>
+          <t>전공선택</t>
         </is>
       </c>
       <c r="G1432" t="inlineStr"/>
       <c r="H1432" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I1432" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I1432" t="inlineStr">
+        <is>
+          <t>김길숙</t>
+        </is>
+      </c>
       <c r="J1432" t="inlineStr">
         <is>
-          <t>수2</t>
+          <t>목6~8</t>
         </is>
       </c>
       <c r="K1432" t="inlineStr">
         <is>
-          <t>대강당(메인)</t>
+          <t>제1실습관302호강의실</t>
         </is>
       </c>
       <c r="L1432" t="inlineStr">
@@ -87421,17 +87425,17 @@
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>1519</t>
+          <t>1522</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr">
         <is>
-          <t>1000834</t>
+          <t>1004903</t>
         </is>
       </c>
       <c r="C1433" t="inlineStr">
         <is>
-          <t>교과교재연구 및 지도법 (종합설계)</t>
+          <t>채플</t>
         </is>
       </c>
       <c r="D1433" t="inlineStr">
@@ -87446,28 +87450,24 @@
       </c>
       <c r="F1433" t="inlineStr">
         <is>
-          <t>교직필수</t>
+          <t>채플</t>
         </is>
       </c>
       <c r="G1433" t="inlineStr"/>
       <c r="H1433" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I1433" t="inlineStr">
-        <is>
-          <t>유예진</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I1433" t="inlineStr"/>
       <c r="J1433" t="inlineStr">
         <is>
-          <t>목3~4</t>
+          <t>수2</t>
         </is>
       </c>
       <c r="K1433" t="inlineStr">
         <is>
-          <t>바울관402호강의실</t>
+          <t>대강당(메인)</t>
         </is>
       </c>
       <c r="L1433" t="inlineStr">
@@ -87481,17 +87481,17 @@
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>1518</t>
+          <t>1519</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>1001298</t>
+          <t>1000834</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>논리 및 논술</t>
+          <t>교과교재연구 및 지도법 (종합설계)</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr">
@@ -87512,22 +87512,22 @@
       <c r="G1434" t="inlineStr"/>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I1434" t="inlineStr">
         <is>
-          <t>유춘선</t>
+          <t>유예진</t>
         </is>
       </c>
       <c r="J1434" t="inlineStr">
         <is>
-          <t>화2~4</t>
+          <t>목3~4</t>
         </is>
       </c>
       <c r="K1434" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>바울관402호강의실</t>
         </is>
       </c>
       <c r="L1434" t="inlineStr">
@@ -87541,17 +87541,17 @@
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>1528</t>
+          <t>1518</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>1001784</t>
+          <t>1001298</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>미디어일본어II</t>
+          <t>논리 및 논술</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr">
@@ -87566,7 +87566,7 @@
       </c>
       <c r="F1435" t="inlineStr">
         <is>
-          <t>전공선택</t>
+          <t>교직필수</t>
         </is>
       </c>
       <c r="G1435" t="inlineStr"/>
@@ -87577,17 +87577,17 @@
       </c>
       <c r="I1435" t="inlineStr">
         <is>
-          <t>하소정</t>
+          <t>유춘선</t>
         </is>
       </c>
       <c r="J1435" t="inlineStr">
         <is>
-          <t>월6~8</t>
+          <t>화2~4</t>
         </is>
       </c>
       <c r="K1435" t="inlineStr">
         <is>
-          <t>제1과학관312호(실험실-강의실 아님)</t>
+          <t>미지정</t>
         </is>
       </c>
       <c r="L1435" t="inlineStr">
@@ -87601,17 +87601,17 @@
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>1525</t>
+          <t>1528</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>1002913</t>
+          <t>1001784</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>실용일본어회화 II</t>
+          <t>미디어일본어II</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr">
@@ -87637,17 +87637,17 @@
       </c>
       <c r="I1436" t="inlineStr">
         <is>
-          <t>김시은</t>
+          <t>하소정</t>
         </is>
       </c>
       <c r="J1436" t="inlineStr">
         <is>
-          <t>금2~4</t>
+          <t>월6~8</t>
         </is>
       </c>
       <c r="K1436" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>제1과학관312호(실험실-강의실 아님)</t>
         </is>
       </c>
       <c r="L1436" t="inlineStr">
@@ -87661,17 +87661,17 @@
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>1525</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>1004210</t>
+          <t>1002913</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>일본어말하기능력시험</t>
+          <t>실용일본어회화 II</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr">
@@ -87697,12 +87697,12 @@
       </c>
       <c r="I1437" t="inlineStr">
         <is>
-          <t>장성숙</t>
+          <t>김시은</t>
         </is>
       </c>
       <c r="J1437" t="inlineStr">
         <is>
-          <t>수9~11</t>
+          <t>금2~4</t>
         </is>
       </c>
       <c r="K1437" t="inlineStr">
@@ -87721,17 +87721,17 @@
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>1524</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>1004215</t>
+          <t>1004210</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>일본어스피치연습</t>
+          <t>일본어말하기능력시험</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr">
@@ -87757,12 +87757,12 @@
       </c>
       <c r="I1438" t="inlineStr">
         <is>
-          <t>한정연</t>
+          <t>장성숙</t>
         </is>
       </c>
       <c r="J1438" t="inlineStr">
         <is>
-          <t>화5~7</t>
+          <t>수9~11</t>
         </is>
       </c>
       <c r="K1438" t="inlineStr">
@@ -87781,17 +87781,17 @@
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>1521</t>
+          <t>1524</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>1005473</t>
+          <t>1004215</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>일한통역연습</t>
+          <t>일본어스피치연습</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr">
@@ -87817,12 +87817,12 @@
       </c>
       <c r="I1439" t="inlineStr">
         <is>
-          <t>정윤영</t>
+          <t>한정연</t>
         </is>
       </c>
       <c r="J1439" t="inlineStr">
         <is>
-          <t>목5~7</t>
+          <t>화5~7</t>
         </is>
       </c>
       <c r="K1439" t="inlineStr">
@@ -87841,17 +87841,17 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>1527</t>
+          <t>1521</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>1004833</t>
+          <t>1005473</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>직무실습 및 세미나</t>
+          <t>일한통역연습</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr">
@@ -87877,12 +87877,12 @@
       </c>
       <c r="I1440" t="inlineStr">
         <is>
-          <t>KITAUCHI DAITO</t>
+          <t>정윤영</t>
         </is>
       </c>
       <c r="J1440" t="inlineStr">
         <is>
-          <t>월1~3</t>
+          <t>목5~7</t>
         </is>
       </c>
       <c r="K1440" t="inlineStr">
@@ -87901,17 +87901,17 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>1520</t>
+          <t>1527</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>1004599</t>
+          <t>1004833</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>졸업시험</t>
+          <t>직무실습 및 세미나</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr">
@@ -87921,33 +87921,33 @@
       </c>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F1441" t="inlineStr">
         <is>
-          <t>전공필수</t>
+          <t>전공선택</t>
         </is>
       </c>
       <c r="G1441" t="inlineStr"/>
       <c r="H1441" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I1441" t="inlineStr">
         <is>
-          <t>유예진</t>
+          <t>KITAUCHI DAITO</t>
         </is>
       </c>
       <c r="J1441" t="inlineStr">
         <is>
-          <t>월9</t>
+          <t>월1~3</t>
         </is>
       </c>
       <c r="K1441" t="inlineStr">
         <is>
-          <t>바울관401호식음료실습실</t>
+          <t>미지정</t>
         </is>
       </c>
       <c r="L1441" t="inlineStr">
@@ -87961,17 +87961,17 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>1526</t>
+          <t>1520</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>1004169</t>
+          <t>1004599</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>일본어세미나 I</t>
+          <t>졸업시험</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr">
@@ -87986,28 +87986,28 @@
       </c>
       <c r="F1442" t="inlineStr">
         <is>
-          <t>전공선택</t>
+          <t>전공필수</t>
         </is>
       </c>
       <c r="G1442" t="inlineStr"/>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I1442" t="inlineStr">
         <is>
-          <t>김남경</t>
+          <t>유예진</t>
         </is>
       </c>
       <c r="J1442" t="inlineStr">
         <is>
-          <t>목2~4</t>
+          <t>월9</t>
         </is>
       </c>
       <c r="K1442" t="inlineStr">
         <is>
-          <t>다니엘관103호(한국어과정전용)</t>
+          <t>바울관401호식음료실습실</t>
         </is>
       </c>
       <c r="L1442" t="inlineStr">
@@ -88021,17 +88021,17 @@
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>1529</t>
+          <t>1526</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>1004214</t>
+          <t>1004169</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>일본어세미나 II</t>
+          <t>일본어세미나 I</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr">
@@ -88057,17 +88057,17 @@
       </c>
       <c r="I1443" t="inlineStr">
         <is>
-          <t>정윤영</t>
+          <t>김남경</t>
         </is>
       </c>
       <c r="J1443" t="inlineStr">
         <is>
-          <t>화2~4</t>
+          <t>목2~4</t>
         </is>
       </c>
       <c r="K1443" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>다니엘관103호(한국어과정전용)</t>
         </is>
       </c>
       <c r="L1443" t="inlineStr">
@@ -88081,27 +88081,27 @@
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>1507</t>
+          <t>1529</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>1001785</t>
+          <t>1004214</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>미디어중국어</t>
+          <t>일본어세미나 II</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr">
         <is>
-          <t>중국어학과</t>
+          <t>일본어학과</t>
         </is>
       </c>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr">
@@ -88117,17 +88117,17 @@
       </c>
       <c r="I1444" t="inlineStr">
         <is>
-          <t>김낙철</t>
+          <t>정윤영</t>
         </is>
       </c>
       <c r="J1444" t="inlineStr">
         <is>
-          <t>수5~7</t>
+          <t>화2~4</t>
         </is>
       </c>
       <c r="K1444" t="inlineStr">
         <is>
-          <t>바울관313호강의실</t>
+          <t>미지정</t>
         </is>
       </c>
       <c r="L1444" t="inlineStr">
@@ -88141,17 +88141,17 @@
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>1508</t>
+          <t>1507</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>1002917</t>
+          <t>1001785</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>실용중국어회화II (고급중국어회화 II)</t>
+          <t>미디어중국어</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr">
@@ -88182,12 +88182,12 @@
       </c>
       <c r="J1445" t="inlineStr">
         <is>
-          <t>월2~4</t>
+          <t>수5~7</t>
         </is>
       </c>
       <c r="K1445" t="inlineStr">
         <is>
-          <t>바울관301호(PBL)강의실</t>
+          <t>바울관313호강의실</t>
         </is>
       </c>
       <c r="L1445" t="inlineStr">
@@ -88201,17 +88201,17 @@
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>1511</t>
+          <t>1508</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>1005810</t>
+          <t>1002917</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>영화로 읽는 중국고전</t>
+          <t>실용중국어회화II (고급중국어회화 II)</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr">
@@ -88237,17 +88237,17 @@
       </c>
       <c r="I1446" t="inlineStr">
         <is>
-          <t>김하나</t>
+          <t>김낙철</t>
         </is>
       </c>
       <c r="J1446" t="inlineStr">
         <is>
-          <t>화3~5</t>
+          <t>월2~4</t>
         </is>
       </c>
       <c r="K1446" t="inlineStr">
         <is>
-          <t>다니엘관402호(PBL)강의실</t>
+          <t>바울관301호(PBL)강의실</t>
         </is>
       </c>
       <c r="L1446" t="inlineStr">
@@ -88261,17 +88261,17 @@
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>1516</t>
+          <t>1511</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>1004689</t>
+          <t>1005810</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>중국어인터뷰(HSK특강 II)</t>
+          <t>영화로 읽는 중국고전</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr">
@@ -88297,17 +88297,17 @@
       </c>
       <c r="I1447" t="inlineStr">
         <is>
-          <t>김낙철</t>
+          <t>김하나</t>
         </is>
       </c>
       <c r="J1447" t="inlineStr">
         <is>
-          <t>금10~12</t>
+          <t>화3~5</t>
         </is>
       </c>
       <c r="K1447" t="inlineStr">
         <is>
-          <t>바울관313호강의실</t>
+          <t>다니엘관402호(PBL)강의실</t>
         </is>
       </c>
       <c r="L1447" t="inlineStr">
@@ -88321,17 +88321,17 @@
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>1514</t>
+          <t>1516</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>1004593</t>
+          <t>1004689</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>졸업논문 및 중국어자격시험(신HSK6급)</t>
+          <t>중국어인터뷰(HSK특강 II)</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr">
@@ -88341,18 +88341,18 @@
       </c>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F1448" t="inlineStr">
         <is>
-          <t>전공필수</t>
+          <t>전공선택</t>
         </is>
       </c>
       <c r="G1448" t="inlineStr"/>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I1448" t="inlineStr">
@@ -88362,7 +88362,7 @@
       </c>
       <c r="J1448" t="inlineStr">
         <is>
-          <t>금13</t>
+          <t>금10~12</t>
         </is>
       </c>
       <c r="K1448" t="inlineStr">
@@ -88381,17 +88381,17 @@
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>1515</t>
+          <t>1514</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>1004678</t>
+          <t>1004593</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>중국어교과교재연구 및 지도법</t>
+          <t>졸업논문 및 중국어자격시험(신HSK6급)</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr">
@@ -88406,13 +88406,13 @@
       </c>
       <c r="F1449" t="inlineStr">
         <is>
-          <t>전공선택</t>
+          <t>전공필수</t>
         </is>
       </c>
       <c r="G1449" t="inlineStr"/>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I1449" t="inlineStr">
@@ -88422,12 +88422,12 @@
       </c>
       <c r="J1449" t="inlineStr">
         <is>
-          <t>화9~10</t>
+          <t>금13</t>
         </is>
       </c>
       <c r="K1449" t="inlineStr">
         <is>
-          <t>에스라관213호SW전용실습실</t>
+          <t>바울관313호강의실</t>
         </is>
       </c>
       <c r="L1449" t="inlineStr">
@@ -88441,17 +88441,17 @@
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>1517</t>
+          <t>1515</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>1000698</t>
+          <t>1004678</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
         <is>
-          <t>고급중국어번역 I</t>
+          <t>중국어교과교재연구 및 지도법</t>
         </is>
       </c>
       <c r="D1450" t="inlineStr">
@@ -88472,22 +88472,22 @@
       <c r="G1450" t="inlineStr"/>
       <c r="H1450" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I1450" t="inlineStr">
         <is>
-          <t>김하나</t>
+          <t>김낙철</t>
         </is>
       </c>
       <c r="J1450" t="inlineStr">
         <is>
-          <t>목2~4</t>
+          <t>화9~10</t>
         </is>
       </c>
       <c r="K1450" t="inlineStr">
         <is>
-          <t>에스라관211호SW전용실습실</t>
+          <t>에스라관213호SW전용실습실</t>
         </is>
       </c>
       <c r="L1450" t="inlineStr">
@@ -88501,17 +88501,17 @@
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>1506</t>
+          <t>1517</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>1001298</t>
+          <t>1000698</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>논리 및 논술</t>
+          <t>고급중국어번역 I</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr">
@@ -88537,17 +88537,17 @@
       </c>
       <c r="I1451" t="inlineStr">
         <is>
-          <t>김낙철</t>
+          <t>김하나</t>
         </is>
       </c>
       <c r="J1451" t="inlineStr">
         <is>
-          <t>금1~3</t>
+          <t>목2~4</t>
         </is>
       </c>
       <c r="K1451" t="inlineStr">
         <is>
-          <t>바울관313호강의실</t>
+          <t>에스라관211호SW전용실습실</t>
         </is>
       </c>
       <c r="L1451" t="inlineStr">
@@ -88561,17 +88561,17 @@
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>1512</t>
+          <t>1506</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>1002873</t>
+          <t>1001298</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>실무중국어회화작문</t>
+          <t>논리 및 논술</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr">
@@ -88602,12 +88602,12 @@
       </c>
       <c r="J1452" t="inlineStr">
         <is>
-          <t>금4~6</t>
+          <t>금1~3</t>
         </is>
       </c>
       <c r="K1452" t="inlineStr">
         <is>
-          <t>바울관301호(PBL)강의실</t>
+          <t>바울관313호강의실</t>
         </is>
       </c>
       <c r="L1452" t="inlineStr">
@@ -88621,17 +88621,17 @@
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>1512</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>1004693</t>
+          <t>1002873</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>중국어통역 II</t>
+          <t>실무중국어회화작문</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr">
@@ -88662,12 +88662,12 @@
       </c>
       <c r="J1453" t="inlineStr">
         <is>
-          <t>목5~7</t>
+          <t>금4~6</t>
         </is>
       </c>
       <c r="K1453" t="inlineStr">
         <is>
-          <t>바울관313호강의실</t>
+          <t>바울관301호(PBL)강의실</t>
         </is>
       </c>
       <c r="L1453" t="inlineStr">
@@ -88681,17 +88681,17 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>1509</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>1004788</t>
+          <t>1004693</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>중한번역연습Ⅱ</t>
+          <t>중국어통역 II</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr">
@@ -88722,12 +88722,12 @@
       </c>
       <c r="J1454" t="inlineStr">
         <is>
-          <t>화2~4</t>
+          <t>목5~7</t>
         </is>
       </c>
       <c r="K1454" t="inlineStr">
         <is>
-          <t>다니엘관105호(한국어과정전용)</t>
+          <t>바울관313호강의실</t>
         </is>
       </c>
       <c r="L1454" t="inlineStr">
@@ -88741,49 +88741,53 @@
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>1625</t>
+          <t>1509</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>1004903</t>
+          <t>1004788</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>채플</t>
+          <t>중한번역연습Ⅱ</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr">
         <is>
-          <t>항공관광외국어학부</t>
+          <t>중국어학과</t>
         </is>
       </c>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr">
         <is>
-          <t>채플</t>
+          <t>전공선택</t>
         </is>
       </c>
       <c r="G1455" t="inlineStr"/>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I1455" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I1455" t="inlineStr">
+        <is>
+          <t>김낙철</t>
+        </is>
+      </c>
       <c r="J1455" t="inlineStr">
         <is>
-          <t>화8</t>
+          <t>화2~4</t>
         </is>
       </c>
       <c r="K1455" t="inlineStr">
         <is>
-          <t>바울관403호강의실</t>
+          <t>다니엘관105호(한국어과정전용)</t>
         </is>
       </c>
       <c r="L1455" t="inlineStr">
@@ -88797,7 +88801,7 @@
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>1625</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
@@ -88817,7 +88821,7 @@
       </c>
       <c r="E1456" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F1456" t="inlineStr">
@@ -88834,12 +88838,12 @@
       <c r="I1456" t="inlineStr"/>
       <c r="J1456" t="inlineStr">
         <is>
-          <t>월3</t>
+          <t>화8</t>
         </is>
       </c>
       <c r="K1456" t="inlineStr">
         <is>
-          <t>대강당(메인)</t>
+          <t>바울관403호강의실</t>
         </is>
       </c>
       <c r="L1456" t="inlineStr">
@@ -88853,7 +88857,7 @@
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>1627</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
@@ -88873,7 +88877,7 @@
       </c>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F1457" t="inlineStr">
@@ -88890,7 +88894,7 @@
       <c r="I1457" t="inlineStr"/>
       <c r="J1457" t="inlineStr">
         <is>
-          <t>수2</t>
+          <t>월3</t>
         </is>
       </c>
       <c r="K1457" t="inlineStr">
@@ -88909,17 +88913,17 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>1482</t>
+          <t>1627</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>1001290</t>
+          <t>1004903</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>노작교육(그린교육)</t>
+          <t>채플</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr">
@@ -88929,33 +88933,29 @@
       </c>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr">
         <is>
-          <t>교양필수</t>
+          <t>채플</t>
         </is>
       </c>
       <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I1458" t="inlineStr">
-        <is>
-          <t>박완성</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I1458" t="inlineStr"/>
       <c r="J1458" t="inlineStr">
         <is>
-          <t>수5~6</t>
+          <t>수2</t>
         </is>
       </c>
       <c r="K1458" t="inlineStr">
         <is>
-          <t>노작교육실습장</t>
+          <t>대강당(메인)</t>
         </is>
       </c>
       <c r="L1458" t="inlineStr">
@@ -88969,17 +88969,17 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>1480</t>
+          <t>1482</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>1001135</t>
+          <t>1001290</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>종교와인생</t>
+          <t>노작교육(그린교육)</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr">
@@ -88997,29 +88997,25 @@
           <t>교양필수</t>
         </is>
       </c>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>핵심교양</t>
-        </is>
-      </c>
+      <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I1459" t="inlineStr">
         <is>
-          <t>김영수</t>
+          <t>박완성</t>
         </is>
       </c>
       <c r="J1459" t="inlineStr">
         <is>
-          <t>화3~4</t>
+          <t>수5~6</t>
         </is>
       </c>
       <c r="K1459" t="inlineStr">
         <is>
-          <t>백주년309(대학원)</t>
+          <t>노작교육실습장</t>
         </is>
       </c>
       <c r="L1459" t="inlineStr">
@@ -89033,17 +89029,17 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>1475</t>
+          <t>1480</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>1006659</t>
+          <t>1001135</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>글로벌매너와 이미지메이킹</t>
+          <t>종교와인생</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr">
@@ -89058,28 +89054,32 @@
       </c>
       <c r="F1460" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="G1460" t="inlineStr"/>
+          <t>교양필수</t>
+        </is>
+      </c>
+      <c r="G1460" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I1460" t="inlineStr">
         <is>
-          <t>김민주</t>
+          <t>김영수</t>
         </is>
       </c>
       <c r="J1460" t="inlineStr">
         <is>
-          <t>목2~4</t>
+          <t>화3~4</t>
         </is>
       </c>
       <c r="K1460" t="inlineStr">
         <is>
-          <t>바울관401호식음료실습실</t>
+          <t>백주년309(대학원)</t>
         </is>
       </c>
       <c r="L1460" t="inlineStr">
@@ -89093,17 +89093,17 @@
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>1478</t>
+          <t>1475</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>1006240</t>
+          <t>1006659</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>글로컬 영어 II</t>
+          <t>글로벌매너와 이미지메이킹</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr">
@@ -89118,7 +89118,7 @@
       </c>
       <c r="F1461" t="inlineStr">
         <is>
-          <t>교양필수</t>
+          <t>전공선택</t>
         </is>
       </c>
       <c r="G1461" t="inlineStr"/>
@@ -89127,15 +89127,19 @@
           <t>3</t>
         </is>
       </c>
-      <c r="I1461" t="inlineStr"/>
+      <c r="I1461" t="inlineStr">
+        <is>
+          <t>김민주</t>
+        </is>
+      </c>
       <c r="J1461" t="inlineStr">
         <is>
-          <t>월1~2,수3</t>
+          <t>목2~4</t>
         </is>
       </c>
       <c r="K1461" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>바울관401호식음료실습실</t>
         </is>
       </c>
       <c r="L1461" t="inlineStr">
@@ -89149,17 +89153,17 @@
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>1490</t>
+          <t>1478</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>1006660</t>
+          <t>1006240</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>일본어 한자 및 문장연습</t>
+          <t>글로컬 영어 II</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr">
@@ -89174,7 +89178,7 @@
       </c>
       <c r="F1462" t="inlineStr">
         <is>
-          <t>전공선택</t>
+          <t>교양필수</t>
         </is>
       </c>
       <c r="G1462" t="inlineStr"/>
@@ -89183,19 +89187,15 @@
           <t>3</t>
         </is>
       </c>
-      <c r="I1462" t="inlineStr">
-        <is>
-          <t>유예진</t>
-        </is>
-      </c>
+      <c r="I1462" t="inlineStr"/>
       <c r="J1462" t="inlineStr">
         <is>
-          <t>화5~7</t>
+          <t>월1~2,수3</t>
         </is>
       </c>
       <c r="K1462" t="inlineStr">
         <is>
-          <t>바울관403호강의실</t>
+          <t>미지정</t>
         </is>
       </c>
       <c r="L1462" t="inlineStr">
@@ -89209,17 +89209,17 @@
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>1474</t>
+          <t>1490</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>1005995</t>
+          <t>1006660</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>한자와 중국어</t>
+          <t>일본어 한자 및 문장연습</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr">
@@ -89245,17 +89245,17 @@
       </c>
       <c r="I1463" t="inlineStr">
         <is>
-          <t>안병삼</t>
+          <t>유예진</t>
         </is>
       </c>
       <c r="J1463" t="inlineStr">
         <is>
-          <t>목6~8</t>
+          <t>화5~7</t>
         </is>
       </c>
       <c r="K1463" t="inlineStr">
         <is>
-          <t>에스라관313호강의실(보건관리과실습실)</t>
+          <t>바울관403호강의실</t>
         </is>
       </c>
       <c r="L1463" t="inlineStr">
@@ -89269,17 +89269,17 @@
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>1491</t>
+          <t>1474</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>1006074</t>
+          <t>1005995</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>인생설계와 진로 II</t>
+          <t>한자와 중국어</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr">
@@ -89289,18 +89289,18 @@
       </c>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F1464" t="inlineStr">
         <is>
-          <t>교양필수</t>
+          <t>전공선택</t>
         </is>
       </c>
       <c r="G1464" t="inlineStr"/>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I1464" t="inlineStr">
@@ -89310,12 +89310,12 @@
       </c>
       <c r="J1464" t="inlineStr">
         <is>
-          <t>화9</t>
+          <t>목6~8</t>
         </is>
       </c>
       <c r="K1464" t="inlineStr">
         <is>
-          <t>에스라관211호SW전용실습실</t>
+          <t>에스라관313호강의실(보건관리과실습실)</t>
         </is>
       </c>
       <c r="L1464" t="inlineStr">
@@ -89329,7 +89329,7 @@
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>1491</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
@@ -89365,7 +89365,7 @@
       </c>
       <c r="I1465" t="inlineStr">
         <is>
-          <t>박민수</t>
+          <t>안병삼</t>
         </is>
       </c>
       <c r="J1465" t="inlineStr">
@@ -89375,7 +89375,7 @@
       </c>
       <c r="K1465" t="inlineStr">
         <is>
-          <t>바울관403호강의실</t>
+          <t>에스라관211호SW전용실습실</t>
         </is>
       </c>
       <c r="L1465" t="inlineStr">
@@ -89389,7 +89389,7 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>1502</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
@@ -89423,9 +89423,21 @@
           <t>1</t>
         </is>
       </c>
-      <c r="I1466" t="inlineStr"/>
-      <c r="J1466" t="inlineStr"/>
-      <c r="K1466" t="inlineStr"/>
+      <c r="I1466" t="inlineStr">
+        <is>
+          <t>박민수</t>
+        </is>
+      </c>
+      <c r="J1466" t="inlineStr">
+        <is>
+          <t>화9</t>
+        </is>
+      </c>
+      <c r="K1466" t="inlineStr">
+        <is>
+          <t>바울관403호강의실</t>
+        </is>
+      </c>
       <c r="L1466" t="inlineStr">
         <is>
           <t>인문사회대학</t>
@@ -89437,7 +89449,7 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>1504</t>
+          <t>1502</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
@@ -89471,21 +89483,9 @@
           <t>1</t>
         </is>
       </c>
-      <c r="I1467" t="inlineStr">
-        <is>
-          <t>유예진</t>
-        </is>
-      </c>
-      <c r="J1467" t="inlineStr">
-        <is>
-          <t>화9</t>
-        </is>
-      </c>
-      <c r="K1467" t="inlineStr">
-        <is>
-          <t>바울관401호식음료실습실</t>
-        </is>
-      </c>
+      <c r="I1467" t="inlineStr"/>
+      <c r="J1467" t="inlineStr"/>
+      <c r="K1467" t="inlineStr"/>
       <c r="L1467" t="inlineStr">
         <is>
           <t>인문사회대학</t>
@@ -89497,7 +89497,7 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>1505</t>
+          <t>1504</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
@@ -89533,7 +89533,7 @@
       </c>
       <c r="I1468" t="inlineStr">
         <is>
-          <t>김민주</t>
+          <t>유예진</t>
         </is>
       </c>
       <c r="J1468" t="inlineStr">
@@ -89543,7 +89543,7 @@
       </c>
       <c r="K1468" t="inlineStr">
         <is>
-          <t>바울관402호강의실</t>
+          <t>바울관401호식음료실습실</t>
         </is>
       </c>
       <c r="L1468" t="inlineStr">
@@ -89557,17 +89557,17 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>1485</t>
+          <t>1505</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>1001121</t>
+          <t>1006074</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>역사와문화</t>
+          <t>인생설계와 진로 II</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr">
@@ -89585,29 +89585,25 @@
           <t>교양필수</t>
         </is>
       </c>
-      <c r="G1469" t="inlineStr">
-        <is>
-          <t>핵심교양</t>
-        </is>
-      </c>
+      <c r="G1469" t="inlineStr"/>
       <c r="H1469" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I1469" t="inlineStr">
         <is>
-          <t>김영수</t>
+          <t>김민주</t>
         </is>
       </c>
       <c r="J1469" t="inlineStr">
         <is>
-          <t>월4~5</t>
+          <t>화9</t>
         </is>
       </c>
       <c r="K1469" t="inlineStr">
         <is>
-          <t>바울관403호강의실</t>
+          <t>바울관402호강의실</t>
         </is>
       </c>
       <c r="L1469" t="inlineStr">
@@ -89621,17 +89617,17 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>1477</t>
+          <t>1485</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>1002330</t>
+          <t>1001121</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>서비스경영론</t>
+          <t>역사와문화</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr">
@@ -89646,28 +89642,32 @@
       </c>
       <c r="F1470" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="G1470" t="inlineStr"/>
+          <t>교양필수</t>
+        </is>
+      </c>
+      <c r="G1470" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="H1470" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I1470" t="inlineStr">
         <is>
-          <t>이효성</t>
+          <t>김영수</t>
         </is>
       </c>
       <c r="J1470" t="inlineStr">
         <is>
-          <t>월6~8</t>
+          <t>월4~5</t>
         </is>
       </c>
       <c r="K1470" t="inlineStr">
         <is>
-          <t>국제교육관223호(中)대학원강의실</t>
+          <t>바울관403호강의실</t>
         </is>
       </c>
       <c r="L1470" t="inlineStr">
@@ -89681,17 +89681,17 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>1486</t>
+          <t>1477</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>1006788</t>
+          <t>1002330</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>서비스커뮤니케이션</t>
+          <t>서비스경영론</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr">
@@ -89717,17 +89717,17 @@
       </c>
       <c r="I1471" t="inlineStr">
         <is>
-          <t>민세원</t>
+          <t>이효성</t>
         </is>
       </c>
       <c r="J1471" t="inlineStr">
         <is>
-          <t>금4~6</t>
+          <t>월6~8</t>
         </is>
       </c>
       <c r="K1471" t="inlineStr">
         <is>
-          <t>바울관402호강의실</t>
+          <t>국제교육관223호(中)대학원강의실</t>
         </is>
       </c>
       <c r="L1471" t="inlineStr">
@@ -89741,17 +89741,17 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>1487</t>
+          <t>1486</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>1006360</t>
+          <t>1006788</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>일본어원어연극</t>
+          <t>서비스커뮤니케이션</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr">
@@ -89777,17 +89777,17 @@
       </c>
       <c r="I1472" t="inlineStr">
         <is>
-          <t>KITAUCHI DAITO</t>
+          <t>민세원</t>
         </is>
       </c>
       <c r="J1472" t="inlineStr">
         <is>
-          <t>수1~3</t>
+          <t>금4~6</t>
         </is>
       </c>
       <c r="K1472" t="inlineStr">
         <is>
-          <t>다니엘관104호(한국어과정전용)</t>
+          <t>바울관402호강의실</t>
         </is>
       </c>
       <c r="L1472" t="inlineStr">
@@ -89801,17 +89801,17 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>1481</t>
+          <t>1487</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>1004669</t>
+          <t>1006360</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>중국어 원어연극</t>
+          <t>일본어원어연극</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr">
@@ -89837,17 +89837,17 @@
       </c>
       <c r="I1473" t="inlineStr">
         <is>
-          <t>박민수</t>
+          <t>KITAUCHI DAITO</t>
         </is>
       </c>
       <c r="J1473" t="inlineStr">
         <is>
-          <t>목2~4</t>
+          <t>수1~3</t>
         </is>
       </c>
       <c r="K1473" t="inlineStr">
         <is>
-          <t>바울관403호강의실</t>
+          <t>다니엘관104호(한국어과정전용)</t>
         </is>
       </c>
       <c r="L1473" t="inlineStr">
@@ -89861,17 +89861,17 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>1489</t>
+          <t>1481</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>1006789</t>
+          <t>1004669</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>중국어문법</t>
+          <t>중국어 원어연극</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr">
@@ -89902,12 +89902,12 @@
       </c>
       <c r="J1474" t="inlineStr">
         <is>
-          <t>화2~4</t>
+          <t>목2~4</t>
         </is>
       </c>
       <c r="K1474" t="inlineStr">
         <is>
-          <t>에스라관211호SW전용실습실</t>
+          <t>바울관403호강의실</t>
         </is>
       </c>
       <c r="L1474" t="inlineStr">
@@ -89921,17 +89921,17 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>1476</t>
+          <t>1489</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>1004757</t>
+          <t>1006789</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>중급중국어회화 I</t>
+          <t>중국어문법</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr">
@@ -89957,17 +89957,17 @@
       </c>
       <c r="I1475" t="inlineStr">
         <is>
-          <t>안병삼</t>
+          <t>박민수</t>
         </is>
       </c>
       <c r="J1475" t="inlineStr">
         <is>
-          <t>수6~8</t>
+          <t>화2~4</t>
         </is>
       </c>
       <c r="K1475" t="inlineStr">
         <is>
-          <t>에스라관305호강의실(PBL보건관리학)</t>
+          <t>에스라관211호SW전용실습실</t>
         </is>
       </c>
       <c r="L1475" t="inlineStr">
@@ -89981,17 +89981,17 @@
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>1484</t>
+          <t>1476</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>1005032</t>
+          <t>1004757</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>초급일본어회화 I</t>
+          <t>중급중국어회화 I</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr">
@@ -90017,17 +90017,17 @@
       </c>
       <c r="I1476" t="inlineStr">
         <is>
-          <t>KITAUCHI DAITO</t>
+          <t>안병삼</t>
         </is>
       </c>
       <c r="J1476" t="inlineStr">
         <is>
-          <t>금1~3</t>
+          <t>수6~8</t>
         </is>
       </c>
       <c r="K1476" t="inlineStr">
         <is>
-          <t>바울관403호강의실</t>
+          <t>에스라관305호강의실(PBL보건관리학)</t>
         </is>
       </c>
       <c r="L1476" t="inlineStr">
@@ -90041,17 +90041,17 @@
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>1483</t>
+          <t>1484</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>1006790</t>
+          <t>1005032</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>필수일본어문법</t>
+          <t>초급일본어회화 I</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr">
@@ -90077,17 +90077,17 @@
       </c>
       <c r="I1477" t="inlineStr">
         <is>
-          <t>유예진</t>
+          <t>KITAUCHI DAITO</t>
         </is>
       </c>
       <c r="J1477" t="inlineStr">
         <is>
-          <t>목5~7</t>
+          <t>금1~3</t>
         </is>
       </c>
       <c r="K1477" t="inlineStr">
         <is>
-          <t>바울관401호식음료실습실</t>
+          <t>바울관403호강의실</t>
         </is>
       </c>
       <c r="L1477" t="inlineStr">
@@ -90101,17 +90101,17 @@
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>1479</t>
+          <t>1483</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>1006791</t>
+          <t>1006790</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>항공사방송실무</t>
+          <t>필수일본어문법</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr">
@@ -90137,12 +90137,12 @@
       </c>
       <c r="I1478" t="inlineStr">
         <is>
-          <t>김민주</t>
+          <t>유예진</t>
         </is>
       </c>
       <c r="J1478" t="inlineStr">
         <is>
-          <t>화6~8</t>
+          <t>목5~7</t>
         </is>
       </c>
       <c r="K1478" t="inlineStr">
@@ -90161,17 +90161,17 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>1479</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>1000693</t>
+          <t>1006791</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>고급중국어</t>
+          <t>항공사방송실무</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr">
@@ -90181,7 +90181,7 @@
       </c>
       <c r="E1479" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F1479" t="inlineStr">
@@ -90197,17 +90197,17 @@
       </c>
       <c r="I1479" t="inlineStr">
         <is>
-          <t>박민수</t>
+          <t>김민주</t>
         </is>
       </c>
       <c r="J1479" t="inlineStr">
         <is>
-          <t>수6~8</t>
+          <t>화6~8</t>
         </is>
       </c>
       <c r="K1479" t="inlineStr">
         <is>
-          <t>바울관402호강의실</t>
+          <t>바울관401호식음료실습실</t>
         </is>
       </c>
       <c r="L1479" t="inlineStr">
@@ -90221,17 +90221,17 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>1473</t>
+          <t>1498</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>1006847</t>
+          <t>1000693</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>서비스 롤플레이</t>
+          <t>고급중국어</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr">
@@ -90257,17 +90257,17 @@
       </c>
       <c r="I1480" t="inlineStr">
         <is>
-          <t>김민주</t>
+          <t>박민수</t>
         </is>
       </c>
       <c r="J1480" t="inlineStr">
         <is>
-          <t>월6~8</t>
+          <t>수6~8</t>
         </is>
       </c>
       <c r="K1480" t="inlineStr">
         <is>
-          <t>바울관401호식음료실습실</t>
+          <t>바울관402호강의실</t>
         </is>
       </c>
       <c r="L1480" t="inlineStr">
@@ -90281,17 +90281,17 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>1473</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>1002329</t>
+          <t>1006847</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>서비스마케팅</t>
+          <t>서비스 롤플레이</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr">
@@ -90317,17 +90317,17 @@
       </c>
       <c r="I1481" t="inlineStr">
         <is>
-          <t>이효성</t>
+          <t>김민주</t>
         </is>
       </c>
       <c r="J1481" t="inlineStr">
         <is>
-          <t>월2~4</t>
+          <t>월6~8</t>
         </is>
       </c>
       <c r="K1481" t="inlineStr">
         <is>
-          <t>바울관402호강의실</t>
+          <t>바울관401호식음료실습실</t>
         </is>
       </c>
       <c r="L1481" t="inlineStr">
@@ -90341,17 +90341,17 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>1499</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>1002912</t>
+          <t>1002329</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>실용일본어회화</t>
+          <t>서비스마케팅</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr">
@@ -90377,17 +90377,17 @@
       </c>
       <c r="I1482" t="inlineStr">
         <is>
-          <t>KITAUCHI DAITO</t>
+          <t>이효성</t>
         </is>
       </c>
       <c r="J1482" t="inlineStr">
         <is>
-          <t>금5~7</t>
+          <t>월2~4</t>
         </is>
       </c>
       <c r="K1482" t="inlineStr">
         <is>
-          <t>바울관403호강의실</t>
+          <t>바울관402호강의실</t>
         </is>
       </c>
       <c r="L1482" t="inlineStr">
@@ -90401,17 +90401,17 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>1002918</t>
+          <t>1002912</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>실용중국어회화Ⅰ</t>
+          <t>실용일본어회화</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr">
@@ -90437,17 +90437,17 @@
       </c>
       <c r="I1483" t="inlineStr">
         <is>
-          <t>박민수</t>
+          <t>KITAUCHI DAITO</t>
         </is>
       </c>
       <c r="J1483" t="inlineStr">
         <is>
-          <t>화6~8</t>
+          <t>금5~7</t>
         </is>
       </c>
       <c r="K1483" t="inlineStr">
         <is>
-          <t>국제교육관221호(中)강의실</t>
+          <t>바울관403호강의실</t>
         </is>
       </c>
       <c r="L1483" t="inlineStr">
@@ -90461,17 +90461,17 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>1495</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>1004066</t>
+          <t>1002918</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>인적자원관리론</t>
+          <t>실용중국어회화Ⅰ</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr">
@@ -90497,17 +90497,17 @@
       </c>
       <c r="I1484" t="inlineStr">
         <is>
-          <t>민세원</t>
+          <t>박민수</t>
         </is>
       </c>
       <c r="J1484" t="inlineStr">
         <is>
-          <t>목2~4</t>
+          <t>화6~8</t>
         </is>
       </c>
       <c r="K1484" t="inlineStr">
         <is>
-          <t>다니엘관105호(한국어과정전용)</t>
+          <t>국제교육관221호(中)강의실</t>
         </is>
       </c>
       <c r="L1484" t="inlineStr">
@@ -90521,17 +90521,17 @@
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1495</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>1006952</t>
+          <t>1004066</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>일본어 번역</t>
+          <t>인적자원관리론</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr">
@@ -90557,17 +90557,17 @@
       </c>
       <c r="I1485" t="inlineStr">
         <is>
-          <t>유예진</t>
+          <t>민세원</t>
         </is>
       </c>
       <c r="J1485" t="inlineStr">
         <is>
-          <t>화2~4</t>
+          <t>목2~4</t>
         </is>
       </c>
       <c r="K1485" t="inlineStr">
         <is>
-          <t>바울관401호식음료실습실</t>
+          <t>다니엘관105호(한국어과정전용)</t>
         </is>
       </c>
       <c r="L1485" t="inlineStr">
@@ -90581,17 +90581,17 @@
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>1496</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>1006953</t>
+          <t>1006952</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>일본어스피치 및 프리젠테이션</t>
+          <t>일본어 번역</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr">
@@ -90617,17 +90617,17 @@
       </c>
       <c r="I1486" t="inlineStr">
         <is>
-          <t>유춘선</t>
+          <t>유예진</t>
         </is>
       </c>
       <c r="J1486" t="inlineStr">
         <is>
-          <t>화6~8</t>
+          <t>화2~4</t>
         </is>
       </c>
       <c r="K1486" t="inlineStr">
         <is>
-          <t>다니엘관102호(한국어과정전용)</t>
+          <t>바울관401호식음료실습실</t>
         </is>
       </c>
       <c r="L1486" t="inlineStr">
@@ -90641,17 +90641,17 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>1493</t>
+          <t>1496</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>1006954</t>
+          <t>1006953</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>일본인의 심리와 언어행동</t>
+          <t>일본어스피치 및 프리젠테이션</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr">
@@ -90677,17 +90677,17 @@
       </c>
       <c r="I1487" t="inlineStr">
         <is>
-          <t>정윤영</t>
+          <t>유춘선</t>
         </is>
       </c>
       <c r="J1487" t="inlineStr">
         <is>
-          <t>목1~3</t>
+          <t>화6~8</t>
         </is>
       </c>
       <c r="K1487" t="inlineStr">
         <is>
-          <t>바울관306호강의실</t>
+          <t>다니엘관102호(한국어과정전용)</t>
         </is>
       </c>
       <c r="L1487" t="inlineStr">
@@ -90701,17 +90701,17 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>1469</t>
+          <t>1493</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>1004689</t>
+          <t>1006954</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>중국어인터뷰(HSK특강 II)</t>
+          <t>일본인의 심리와 언어행동</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr">
@@ -90737,17 +90737,17 @@
       </c>
       <c r="I1488" t="inlineStr">
         <is>
-          <t>안병삼</t>
+          <t>정윤영</t>
         </is>
       </c>
       <c r="J1488" t="inlineStr">
         <is>
-          <t>금2~4</t>
+          <t>목1~3</t>
         </is>
       </c>
       <c r="K1488" t="inlineStr">
         <is>
-          <t>에스라관210호강의실</t>
+          <t>바울관306호강의실</t>
         </is>
       </c>
       <c r="L1488" t="inlineStr">
@@ -90761,17 +90761,17 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>1472</t>
+          <t>1469</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>1006849</t>
+          <t>1004689</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>항공관광실무영어</t>
+          <t>중국어인터뷰(HSK특강 II)</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr">
@@ -90797,17 +90797,17 @@
       </c>
       <c r="I1489" t="inlineStr">
         <is>
-          <t>이효성</t>
+          <t>안병삼</t>
         </is>
       </c>
       <c r="J1489" t="inlineStr">
         <is>
-          <t>목6~8</t>
+          <t>금2~4</t>
         </is>
       </c>
       <c r="K1489" t="inlineStr">
         <is>
-          <t>바울관402호강의실</t>
+          <t>에스라관210호강의실</t>
         </is>
       </c>
       <c r="L1489" t="inlineStr">
@@ -90821,17 +90821,17 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>1471</t>
+          <t>1472</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>1006024</t>
+          <t>1006849</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>중국문화세미나</t>
+          <t>항공관광실무영어</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr">
@@ -90852,22 +90852,22 @@
       <c r="G1490" t="inlineStr"/>
       <c r="H1490" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I1490" t="inlineStr">
         <is>
-          <t>안병삼</t>
+          <t>이효성</t>
         </is>
       </c>
       <c r="J1490" t="inlineStr">
         <is>
-          <t>월10~15</t>
+          <t>목6~8</t>
         </is>
       </c>
       <c r="K1490" t="inlineStr">
         <is>
-          <t>바울관403호강의실</t>
+          <t>바울관402호강의실</t>
         </is>
       </c>
       <c r="L1490" t="inlineStr">
@@ -90877,6 +90877,66 @@
       </c>
       <c r="M1490" t="inlineStr"/>
       <c r="N1490" t="inlineStr"/>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>1471</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr">
+        <is>
+          <t>1006024</t>
+        </is>
+      </c>
+      <c r="C1491" t="inlineStr">
+        <is>
+          <t>중국문화세미나</t>
+        </is>
+      </c>
+      <c r="D1491" t="inlineStr">
+        <is>
+          <t>항공관광외국어학부</t>
+        </is>
+      </c>
+      <c r="E1491" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F1491" t="inlineStr">
+        <is>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="G1491" t="inlineStr"/>
+      <c r="H1491" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I1491" t="inlineStr">
+        <is>
+          <t>안병삼</t>
+        </is>
+      </c>
+      <c r="J1491" t="inlineStr">
+        <is>
+          <t>월10~15</t>
+        </is>
+      </c>
+      <c r="K1491" t="inlineStr">
+        <is>
+          <t>바울관403호강의실</t>
+        </is>
+      </c>
+      <c r="L1491" t="inlineStr">
+        <is>
+          <t>인문사회대학</t>
+        </is>
+      </c>
+      <c r="M1491" t="inlineStr"/>
+      <c r="N1491" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/2023년 2학기 정규 시간표.xlsx
+++ b/data/2023년 2학기 정규 시간표.xlsx
@@ -437,7 +437,7 @@
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
     <col width="30" customWidth="1" min="11" max="11"/>
     <col width="12" customWidth="1" min="12" max="12"/>
   </cols>
@@ -803,7 +803,11 @@
           <t>간호대학</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -2335,7 +2339,11 @@
           <t>간호대학</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -2399,7 +2407,11 @@
           <t>간호대학</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -5419,7 +5431,11 @@
           <t>간호대학</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
@@ -5483,7 +5499,11 @@
           <t>간호대학</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
@@ -7365,7 +7385,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>동물자원과학과, 동물생명자원학과 외 수강 금지</t>
+          <t>핵심교양, 동물자원과학과, 동물생명자원학과 외 수강 금지</t>
         </is>
       </c>
       <c r="N119" t="inlineStr"/>
@@ -7729,7 +7749,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>동물자원과학과, 동물생명자원학과 외 수강 금지</t>
+          <t>핵심교양, 동물자원과학과, 동물생명자원학과 외 수강 금지</t>
         </is>
       </c>
       <c r="N125" t="inlineStr"/>
@@ -9779,7 +9799,11 @@
           <t>과학기술대학</t>
         </is>
       </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
@@ -9843,7 +9867,11 @@
           <t>과학기술대학</t>
         </is>
       </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
@@ -10563,7 +10591,11 @@
           <t>과학기술대학</t>
         </is>
       </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
@@ -10627,7 +10659,11 @@
           <t>과학기술대학</t>
         </is>
       </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
@@ -13959,7 +13995,11 @@
           <t>과학기술대학</t>
         </is>
       </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N230" t="inlineStr"/>
     </row>
     <row r="231">
@@ -14563,7 +14603,11 @@
           <t>과학기술대학</t>
         </is>
       </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N240" t="inlineStr"/>
     </row>
     <row r="241">
@@ -21719,7 +21763,11 @@
           <t>문화예술대학</t>
         </is>
       </c>
-      <c r="M358" t="inlineStr"/>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N358" t="inlineStr"/>
     </row>
     <row r="359">
@@ -21895,7 +21943,11 @@
           <t>문화예술대학</t>
         </is>
       </c>
-      <c r="M361" t="inlineStr"/>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N361" t="inlineStr"/>
     </row>
     <row r="362">
@@ -26479,7 +26531,11 @@
           <t>문화예술대학</t>
         </is>
       </c>
-      <c r="M437" t="inlineStr"/>
+      <c r="M437" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N437" t="inlineStr"/>
     </row>
     <row r="438">
@@ -27963,7 +28019,11 @@
           <t>문화예술대학</t>
         </is>
       </c>
-      <c r="M461" t="inlineStr"/>
+      <c r="M461" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N461" t="inlineStr"/>
     </row>
     <row r="462">
@@ -29813,7 +29873,7 @@
       </c>
       <c r="M491" t="inlineStr">
         <is>
-          <t>교직과정</t>
+          <t>교직필수, 교직과정</t>
         </is>
       </c>
       <c r="N491" t="inlineStr"/>
@@ -31839,7 +31899,11 @@
           <t>미래융합대학</t>
         </is>
       </c>
-      <c r="M524" t="inlineStr"/>
+      <c r="M524" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N524" t="inlineStr"/>
     </row>
     <row r="525">
@@ -31903,7 +31967,11 @@
           <t>미래융합대학</t>
         </is>
       </c>
-      <c r="M525" t="inlineStr"/>
+      <c r="M525" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N525" t="inlineStr"/>
     </row>
     <row r="526">
@@ -32863,7 +32931,11 @@
           <t>미래융합대학</t>
         </is>
       </c>
-      <c r="M541" t="inlineStr"/>
+      <c r="M541" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N541" t="inlineStr"/>
     </row>
     <row r="542">
@@ -32927,7 +32999,11 @@
           <t>미래융합대학</t>
         </is>
       </c>
-      <c r="M542" t="inlineStr"/>
+      <c r="M542" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N542" t="inlineStr"/>
     </row>
     <row r="543">
@@ -40463,7 +40539,11 @@
           <t>보건복지대학</t>
         </is>
       </c>
-      <c r="M667" t="inlineStr"/>
+      <c r="M667" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N667" t="inlineStr"/>
     </row>
     <row r="668">
@@ -41303,7 +41383,11 @@
           <t>보건복지대학</t>
         </is>
       </c>
-      <c r="M681" t="inlineStr"/>
+      <c r="M681" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N681" t="inlineStr"/>
     </row>
     <row r="682">
@@ -42811,7 +42895,11 @@
           <t>보건복지대학</t>
         </is>
       </c>
-      <c r="M707" t="inlineStr"/>
+      <c r="M707" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N707" t="inlineStr"/>
     </row>
     <row r="708">
@@ -43235,7 +43323,11 @@
           <t>보건복지대학</t>
         </is>
       </c>
-      <c r="M714" t="inlineStr"/>
+      <c r="M714" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N714" t="inlineStr"/>
     </row>
     <row r="715">
@@ -44783,7 +44875,11 @@
           <t>보건복지대학</t>
         </is>
       </c>
-      <c r="M740" t="inlineStr"/>
+      <c r="M740" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N740" t="inlineStr"/>
     </row>
     <row r="741">
@@ -46087,7 +46183,11 @@
           <t>보건복지대학</t>
         </is>
       </c>
-      <c r="M762" t="inlineStr"/>
+      <c r="M762" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N762" t="inlineStr"/>
     </row>
     <row r="763">
@@ -46807,7 +46907,11 @@
           <t>보건복지대학</t>
         </is>
       </c>
-      <c r="M774" t="inlineStr"/>
+      <c r="M774" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N774" t="inlineStr"/>
     </row>
     <row r="775">
@@ -48179,7 +48283,11 @@
           <t>보건복지대학</t>
         </is>
       </c>
-      <c r="M797" t="inlineStr"/>
+      <c r="M797" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N797" t="inlineStr"/>
     </row>
     <row r="798">
@@ -49019,7 +49127,11 @@
           <t>보건복지대학</t>
         </is>
       </c>
-      <c r="M811" t="inlineStr"/>
+      <c r="M811" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N811" t="inlineStr"/>
     </row>
     <row r="812">
@@ -53659,7 +53771,11 @@
           <t>신학대학</t>
         </is>
       </c>
-      <c r="M889" t="inlineStr"/>
+      <c r="M889" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N889" t="inlineStr"/>
     </row>
     <row r="890">
@@ -53903,7 +54019,11 @@
           <t>신학대학</t>
         </is>
       </c>
-      <c r="M893" t="inlineStr"/>
+      <c r="M893" t="inlineStr">
+        <is>
+          <t>컴퓨터활용</t>
+        </is>
+      </c>
       <c r="N893" t="inlineStr"/>
     </row>
     <row r="894">
@@ -54387,7 +54507,11 @@
           <t>신학대학</t>
         </is>
       </c>
-      <c r="M901" t="inlineStr"/>
+      <c r="M901" t="inlineStr">
+        <is>
+          <t>인문학영역</t>
+        </is>
+      </c>
       <c r="N901" t="inlineStr"/>
     </row>
     <row r="902">
@@ -54683,7 +54807,11 @@
           <t>신학대학</t>
         </is>
       </c>
-      <c r="M906" t="inlineStr"/>
+      <c r="M906" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N906" t="inlineStr"/>
     </row>
     <row r="907">
@@ -58051,7 +58179,11 @@
           <t>약학대학</t>
         </is>
       </c>
-      <c r="M962" t="inlineStr"/>
+      <c r="M962" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N962" t="inlineStr"/>
     </row>
     <row r="963">
@@ -58171,7 +58303,11 @@
           <t>약학대학</t>
         </is>
       </c>
-      <c r="M964" t="inlineStr"/>
+      <c r="M964" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N964" t="inlineStr"/>
     </row>
     <row r="965">
@@ -59785,7 +59921,7 @@
       </c>
       <c r="M991" t="inlineStr">
         <is>
-          <t>짝수학번</t>
+          <t>핵심교양, 짝수학번</t>
         </is>
       </c>
       <c r="N991" t="inlineStr"/>
@@ -59853,7 +59989,7 @@
       </c>
       <c r="M992" t="inlineStr">
         <is>
-          <t>홀수학번</t>
+          <t>핵심교양, 홀수학번</t>
         </is>
       </c>
       <c r="N992" t="inlineStr"/>
@@ -60579,7 +60715,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1004" t="inlineStr"/>
+      <c r="M1004" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N1004" t="inlineStr"/>
     </row>
     <row r="1005">
@@ -60643,7 +60783,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1005" t="inlineStr"/>
+      <c r="M1005" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N1005" t="inlineStr"/>
     </row>
     <row r="1006">
@@ -63465,7 +63609,7 @@
       </c>
       <c r="M1052" t="inlineStr">
         <is>
-          <t>생활체육학과 신청불가</t>
+          <t>일반선택영역, 생활체육학과 신청불가</t>
         </is>
       </c>
       <c r="N1052" t="inlineStr"/>
@@ -63533,7 +63677,7 @@
       </c>
       <c r="M1053" t="inlineStr">
         <is>
-          <t>생활체육학과 신청불가</t>
+          <t>일반선택영역, 생활체육학과 신청불가</t>
         </is>
       </c>
       <c r="N1053" t="inlineStr"/>
@@ -63601,7 +63745,7 @@
       </c>
       <c r="M1054" t="inlineStr">
         <is>
-          <t>생활체육학과 신청불가</t>
+          <t>일반선택영역, 생활체육학과 신청불가</t>
         </is>
       </c>
       <c r="N1054" t="inlineStr"/>
@@ -63669,7 +63813,7 @@
       </c>
       <c r="M1055" t="inlineStr">
         <is>
-          <t>생활체육학과 신청불가</t>
+          <t>일반선택영역, 생활체육학과 신청불가, 생활체육학과 신청불가</t>
         </is>
       </c>
       <c r="N1055" t="inlineStr">
@@ -63741,7 +63885,7 @@
       </c>
       <c r="M1056" t="inlineStr">
         <is>
-          <t>생활체육학과 신청불가</t>
+          <t>일반선택영역, 생활체육학과 신청불가</t>
         </is>
       </c>
       <c r="N1056" t="inlineStr"/>
@@ -63809,7 +63953,7 @@
       </c>
       <c r="M1057" t="inlineStr">
         <is>
-          <t>생활체육학과 신청불가</t>
+          <t>일반선택영역, 생활체육학과 신청불가, 생활체육학과 신청불가</t>
         </is>
       </c>
       <c r="N1057" t="inlineStr">
@@ -63881,7 +64025,7 @@
       </c>
       <c r="M1058" t="inlineStr">
         <is>
-          <t>생활체육학과 신청불가</t>
+          <t>일반선택영역, 생활체육학과 신청불가</t>
         </is>
       </c>
       <c r="N1058" t="inlineStr"/>
@@ -63949,7 +64093,7 @@
       </c>
       <c r="M1059" t="inlineStr">
         <is>
-          <t>생활체육학과 신청불가</t>
+          <t>일반선택영역, 생활체육학과 신청불가</t>
         </is>
       </c>
       <c r="N1059" t="inlineStr"/>
@@ -64009,7 +64153,7 @@
       </c>
       <c r="M1060" t="inlineStr">
         <is>
-          <t>1365 또는 VMS 연동기관/문의 02-3399-3261</t>
+          <t>기초교양, 1365 또는 VMS 연동기관/문의 02-3399-3261</t>
         </is>
       </c>
       <c r="N1060" t="inlineStr"/>
@@ -64077,7 +64221,7 @@
       </c>
       <c r="M1061" t="inlineStr">
         <is>
-          <t>생활체육학과 신청불가</t>
+          <t>일반선택영역, 생활체육학과 신청불가</t>
         </is>
       </c>
       <c r="N1061" t="inlineStr"/>
@@ -64143,7 +64287,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1062" t="inlineStr"/>
+      <c r="M1062" t="inlineStr">
+        <is>
+          <t>일반선택영역</t>
+        </is>
+      </c>
       <c r="N1062" t="inlineStr"/>
     </row>
     <row r="1063">
@@ -64209,7 +64357,7 @@
       </c>
       <c r="M1063" t="inlineStr">
         <is>
-          <t>수업계획서 필독 (문의:02-3399-3234)</t>
+          <t>일반선택영역, 수업계획서 필독 (문의:02-3399-3234)</t>
         </is>
       </c>
       <c r="N1063" t="inlineStr"/>
@@ -64277,7 +64425,7 @@
       </c>
       <c r="M1064" t="inlineStr">
         <is>
-          <t>수업계획서 필독 (문의:02-3399-3234)</t>
+          <t>일반선택영역, 수업계획서 필독 (문의:02-3399-3234)</t>
         </is>
       </c>
       <c r="N1064" t="inlineStr"/>
@@ -64345,7 +64493,7 @@
       </c>
       <c r="M1065" t="inlineStr">
         <is>
-          <t>수업계획서 필독 (문의:02-3399-3234)</t>
+          <t>일반선택영역, 수업계획서 필독 (문의:02-3399-3234)</t>
         </is>
       </c>
       <c r="N1065" t="inlineStr"/>
@@ -64407,7 +64555,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1066" t="inlineStr"/>
+      <c r="M1066" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N1066" t="inlineStr"/>
     </row>
     <row r="1067">
@@ -64467,7 +64619,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1067" t="inlineStr"/>
+      <c r="M1067" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N1067" t="inlineStr"/>
     </row>
     <row r="1068">
@@ -64527,7 +64683,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1068" t="inlineStr"/>
+      <c r="M1068" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N1068" t="inlineStr"/>
     </row>
     <row r="1069">
@@ -64587,7 +64747,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1069" t="inlineStr"/>
+      <c r="M1069" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N1069" t="inlineStr"/>
     </row>
     <row r="1070">
@@ -64647,7 +64811,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1070" t="inlineStr"/>
+      <c r="M1070" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N1070" t="inlineStr"/>
     </row>
     <row r="1071">
@@ -64713,7 +64881,7 @@
       </c>
       <c r="M1071" t="inlineStr">
         <is>
-          <t>초급. Blended 수업 (온, 오프라인 연계 수업. 수업계획서 필독)</t>
+          <t>일반선택영역, 초급. Blended 수업 (온, 오프라인 연계 수업. 수업계획서 필독)</t>
         </is>
       </c>
       <c r="N1071" t="inlineStr"/>
@@ -64781,7 +64949,7 @@
       </c>
       <c r="M1072" t="inlineStr">
         <is>
-          <t>중급. Blended 수업 (온, 오프라인 연계 수업. 수업계획서 필독)</t>
+          <t>일반선택영역, 중급. Blended 수업 (온, 오프라인 연계 수업. 수업계획서 필독)</t>
         </is>
       </c>
       <c r="N1072" t="inlineStr"/>
@@ -64847,7 +65015,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1073" t="inlineStr"/>
+      <c r="M1073" t="inlineStr">
+        <is>
+          <t>일반선택영역</t>
+        </is>
+      </c>
       <c r="N1073" t="inlineStr"/>
     </row>
     <row r="1074">
@@ -64911,7 +65083,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1074" t="inlineStr"/>
+      <c r="M1074" t="inlineStr">
+        <is>
+          <t>일반선택영역</t>
+        </is>
+      </c>
       <c r="N1074" t="inlineStr"/>
     </row>
     <row r="1075">
@@ -64977,7 +65153,7 @@
       </c>
       <c r="M1075" t="inlineStr">
         <is>
-          <t>수업계획서 필독 (문의:02-3399-3234)</t>
+          <t>일반선택영역, 수업계획서 필독 (문의:02-3399-3234)</t>
         </is>
       </c>
       <c r="N1075" t="inlineStr"/>
@@ -65045,7 +65221,7 @@
       </c>
       <c r="M1076" t="inlineStr">
         <is>
-          <t>수업계획서 필독 (문의:02-3399-3234)</t>
+          <t>일반선택영역, 수업계획서 필독 (문의:02-3399-3234)</t>
         </is>
       </c>
       <c r="N1076" t="inlineStr"/>
@@ -65113,7 +65289,7 @@
       </c>
       <c r="M1077" t="inlineStr">
         <is>
-          <t>여학생만 신청가능, 수업계획서 필독 (문의:02-3399-3234)</t>
+          <t>일반선택영역, 여학생만 신청가능, 수업계획서 필독 (문의:02-3399-3234)</t>
         </is>
       </c>
       <c r="N1077" t="inlineStr"/>
@@ -65181,7 +65357,7 @@
       </c>
       <c r="M1078" t="inlineStr">
         <is>
-          <t>생활체육학과 신청불가</t>
+          <t>일반선택영역, 생활체육학과 신청불가</t>
         </is>
       </c>
       <c r="N1078" t="inlineStr"/>
@@ -65249,7 +65425,7 @@
       </c>
       <c r="M1079" t="inlineStr">
         <is>
-          <t>중국어학과 수강불가</t>
+          <t>일반선택영역, 중국어학과 수강불가</t>
         </is>
       </c>
       <c r="N1079" t="inlineStr"/>
@@ -65315,7 +65491,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1080" t="inlineStr"/>
+      <c r="M1080" t="inlineStr">
+        <is>
+          <t>일반선택영역</t>
+        </is>
+      </c>
       <c r="N1080" t="inlineStr"/>
     </row>
     <row r="1081">
@@ -65379,7 +65559,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1081" t="inlineStr"/>
+      <c r="M1081" t="inlineStr">
+        <is>
+          <t>일반선택영역</t>
+        </is>
+      </c>
       <c r="N1081" t="inlineStr"/>
     </row>
     <row r="1082">
@@ -65443,7 +65627,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1082" t="inlineStr"/>
+      <c r="M1082" t="inlineStr">
+        <is>
+          <t>일반선택영역</t>
+        </is>
+      </c>
       <c r="N1082" t="inlineStr"/>
     </row>
     <row r="1083">
@@ -65509,7 +65697,7 @@
       </c>
       <c r="M1083" t="inlineStr">
         <is>
-          <t>3-4학년 대상 취업준비 교과목, 수업계획서 필독 (문의:02-3399-3234)</t>
+          <t>일반선택영역, 3-4학년 대상 취업준비 교과목, 수업계획서 필독 (문의:02-3399-3234)</t>
         </is>
       </c>
       <c r="N1083" t="inlineStr"/>
@@ -65577,7 +65765,7 @@
       </c>
       <c r="M1084" t="inlineStr">
         <is>
-          <t>3-4학년 대상 취업준비 교과목, 수업계획서 필독 (문의:02-3399-3234)</t>
+          <t>일반선택영역, 3-4학년 대상 취업준비 교과목, 수업계획서 필독 (문의:02-3399-3234)</t>
         </is>
       </c>
       <c r="N1084" t="inlineStr"/>
@@ -65645,7 +65833,7 @@
       </c>
       <c r="M1085" t="inlineStr">
         <is>
-          <t>3-4학년 대상 취업준비 교과목, 수업계획서 필독 (문의:02-3399-3234)</t>
+          <t>일반선택영역, 3-4학년 대상 취업준비 교과목, 수업계획서 필독 (문의:02-3399-3234)</t>
         </is>
       </c>
       <c r="N1085" t="inlineStr"/>
@@ -65705,7 +65893,7 @@
       </c>
       <c r="M1086" t="inlineStr">
         <is>
-          <t>온라인 수업(수업계획서 및 홈페이지 학사공지 수업안내문 필독)</t>
+          <t>일반선택영역, 온라인 수업(수업계획서 및 홈페이지 학사공지 수업안내문 필독)</t>
         </is>
       </c>
       <c r="N1086" t="inlineStr"/>
@@ -65765,7 +65953,7 @@
       </c>
       <c r="M1087" t="inlineStr">
         <is>
-          <t>온라인 수업(수업계획서 및 홈페이지 학사공지 수업안내문 필독)</t>
+          <t>일반선택영역, 온라인 수업(수업계획서 및 홈페이지 학사공지 수업안내문 필독)</t>
         </is>
       </c>
       <c r="N1087" t="inlineStr"/>
@@ -65827,7 +66015,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1088" t="inlineStr"/>
+      <c r="M1088" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N1088" t="inlineStr"/>
     </row>
     <row r="1089">
@@ -65887,7 +66079,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1089" t="inlineStr"/>
+      <c r="M1089" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N1089" t="inlineStr"/>
     </row>
     <row r="1090">
@@ -65951,7 +66147,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1090" t="inlineStr"/>
+      <c r="M1090" t="inlineStr">
+        <is>
+          <t>사회과학영역</t>
+        </is>
+      </c>
       <c r="N1090" t="inlineStr"/>
     </row>
     <row r="1091">
@@ -66015,7 +66215,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1091" t="inlineStr"/>
+      <c r="M1091" t="inlineStr">
+        <is>
+          <t>디지털 리터러시영역</t>
+        </is>
+      </c>
       <c r="N1091" t="inlineStr"/>
     </row>
     <row r="1092">
@@ -66079,7 +66283,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1092" t="inlineStr"/>
+      <c r="M1092" t="inlineStr">
+        <is>
+          <t>일반선택영역</t>
+        </is>
+      </c>
       <c r="N1092" t="inlineStr"/>
     </row>
     <row r="1093">
@@ -66143,7 +66351,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1093" t="inlineStr"/>
+      <c r="M1093" t="inlineStr">
+        <is>
+          <t>사회과학영역</t>
+        </is>
+      </c>
       <c r="N1093" t="inlineStr"/>
     </row>
     <row r="1094">
@@ -66207,7 +66419,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1094" t="inlineStr"/>
+      <c r="M1094" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1094" t="inlineStr"/>
     </row>
     <row r="1095">
@@ -66271,7 +66487,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1095" t="inlineStr"/>
+      <c r="M1095" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1095" t="inlineStr"/>
     </row>
     <row r="1096">
@@ -66335,7 +66555,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1096" t="inlineStr"/>
+      <c r="M1096" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1096" t="inlineStr"/>
     </row>
     <row r="1097">
@@ -66399,7 +66623,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1097" t="inlineStr"/>
+      <c r="M1097" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1097" t="inlineStr"/>
     </row>
     <row r="1098">
@@ -66463,7 +66691,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1098" t="inlineStr"/>
+      <c r="M1098" t="inlineStr">
+        <is>
+          <t>자연과학영역</t>
+        </is>
+      </c>
       <c r="N1098" t="inlineStr"/>
     </row>
     <row r="1099">
@@ -66527,7 +66759,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1099" t="inlineStr"/>
+      <c r="M1099" t="inlineStr">
+        <is>
+          <t>자연과학영역</t>
+        </is>
+      </c>
       <c r="N1099" t="inlineStr"/>
     </row>
     <row r="1100">
@@ -66593,7 +66829,7 @@
       </c>
       <c r="M1100" t="inlineStr">
         <is>
-          <t>인문,사회,예체능계열 학과 신청/ SW중심대학 개설과목</t>
+          <t>디지털 리터러시영역, 인문,사회,예체능계열 학과 신청/ SW중심대학 개설과목</t>
         </is>
       </c>
       <c r="N1100" t="inlineStr"/>
@@ -66661,7 +66897,7 @@
       </c>
       <c r="M1101" t="inlineStr">
         <is>
-          <t>자연과학,공학계열 학과 신청/ SW중심대학 개설과목</t>
+          <t>디지털 리터러시영역, 자연과학,공학계열 학과 신청/ SW중심대학 개설과목</t>
         </is>
       </c>
       <c r="N1101" t="inlineStr"/>
@@ -66729,7 +66965,7 @@
       </c>
       <c r="M1102" t="inlineStr">
         <is>
-          <t>생활체육학과 신청불가</t>
+          <t>자연과학영역, 생활체육학과 신청불가</t>
         </is>
       </c>
       <c r="N1102" t="inlineStr"/>
@@ -66795,7 +67031,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1103" t="inlineStr"/>
+      <c r="M1103" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N1103" t="inlineStr"/>
     </row>
     <row r="1104">
@@ -66861,7 +67101,7 @@
       </c>
       <c r="M1104" t="inlineStr">
         <is>
-          <t>건축학과 신청불가</t>
+          <t>인문예술영역, 건축학과 신청불가</t>
         </is>
       </c>
       <c r="N1104" t="inlineStr"/>
@@ -66927,7 +67167,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1105" t="inlineStr"/>
+      <c r="M1105" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N1105" t="inlineStr"/>
     </row>
     <row r="1106">
@@ -66991,7 +67235,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1106" t="inlineStr"/>
+      <c r="M1106" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N1106" t="inlineStr"/>
     </row>
     <row r="1107">
@@ -67057,7 +67305,7 @@
       </c>
       <c r="M1107" t="inlineStr">
         <is>
-          <t>음악학과 신청불가</t>
+          <t>인문예술영역, 음악학과 신청불가</t>
         </is>
       </c>
       <c r="N1107" t="inlineStr"/>
@@ -67123,7 +67371,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1108" t="inlineStr"/>
+      <c r="M1108" t="inlineStr">
+        <is>
+          <t>사회과학영역</t>
+        </is>
+      </c>
       <c r="N1108" t="inlineStr"/>
     </row>
     <row r="1109">
@@ -67187,7 +67439,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1109" t="inlineStr"/>
+      <c r="M1109" t="inlineStr">
+        <is>
+          <t>사회과학영역</t>
+        </is>
+      </c>
       <c r="N1109" t="inlineStr"/>
     </row>
     <row r="1110">
@@ -67251,7 +67507,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1110" t="inlineStr"/>
+      <c r="M1110" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N1110" t="inlineStr"/>
     </row>
     <row r="1111">
@@ -67315,7 +67575,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1111" t="inlineStr"/>
+      <c r="M1111" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N1111" t="inlineStr"/>
     </row>
     <row r="1112">
@@ -67381,7 +67645,7 @@
       </c>
       <c r="M1112" t="inlineStr">
         <is>
-          <t>음악학과 수강불가</t>
+          <t>인문예술영역, 음악학과 수강불가</t>
         </is>
       </c>
       <c r="N1112" t="inlineStr"/>
@@ -67449,7 +67713,7 @@
       </c>
       <c r="M1113" t="inlineStr">
         <is>
-          <t>음악학과 수강불가</t>
+          <t>인문예술영역, 음악학과 수강불가</t>
         </is>
       </c>
       <c r="N1113" t="inlineStr"/>
@@ -67515,7 +67779,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1114" t="inlineStr"/>
+      <c r="M1114" t="inlineStr">
+        <is>
+          <t>사회과학영역</t>
+        </is>
+      </c>
       <c r="N1114" t="inlineStr"/>
     </row>
     <row r="1115">
@@ -67581,7 +67849,7 @@
       </c>
       <c r="M1115" t="inlineStr">
         <is>
-          <t>2-4학년만 신청가능</t>
+          <t>기초교양, 2-4학년만 신청가능</t>
         </is>
       </c>
       <c r="N1115" t="inlineStr"/>
@@ -67647,7 +67915,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1116" t="inlineStr"/>
+      <c r="M1116" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1116" t="inlineStr"/>
     </row>
     <row r="1117">
@@ -67711,7 +67983,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1117" t="inlineStr"/>
+      <c r="M1117" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1117" t="inlineStr"/>
     </row>
     <row r="1118">
@@ -67775,7 +68051,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1118" t="inlineStr"/>
+      <c r="M1118" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1118" t="inlineStr"/>
     </row>
     <row r="1119">
@@ -67839,7 +68119,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1119" t="inlineStr"/>
+      <c r="M1119" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1119" t="inlineStr"/>
     </row>
     <row r="1120">
@@ -67903,7 +68187,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1120" t="inlineStr"/>
+      <c r="M1120" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1120" t="inlineStr"/>
     </row>
     <row r="1121">
@@ -67967,7 +68255,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1121" t="inlineStr"/>
+      <c r="M1121" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1121" t="inlineStr"/>
     </row>
     <row r="1122">
@@ -68031,7 +68323,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1122" t="inlineStr"/>
+      <c r="M1122" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1122" t="inlineStr"/>
     </row>
     <row r="1123">
@@ -68095,7 +68391,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1123" t="inlineStr"/>
+      <c r="M1123" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1123" t="inlineStr"/>
     </row>
     <row r="1124">
@@ -68159,7 +68459,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1124" t="inlineStr"/>
+      <c r="M1124" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1124" t="inlineStr"/>
     </row>
     <row r="1125">
@@ -68223,7 +68527,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1125" t="inlineStr"/>
+      <c r="M1125" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1125" t="inlineStr"/>
     </row>
     <row r="1126">
@@ -68287,7 +68595,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1126" t="inlineStr"/>
+      <c r="M1126" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1126" t="inlineStr"/>
     </row>
     <row r="1127">
@@ -68351,7 +68663,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1127" t="inlineStr"/>
+      <c r="M1127" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1127" t="inlineStr"/>
     </row>
     <row r="1128">
@@ -68415,7 +68731,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1128" t="inlineStr"/>
+      <c r="M1128" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1128" t="inlineStr"/>
     </row>
     <row r="1129">
@@ -68479,7 +68799,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1129" t="inlineStr"/>
+      <c r="M1129" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1129" t="inlineStr"/>
     </row>
     <row r="1130">
@@ -68543,7 +68867,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1130" t="inlineStr"/>
+      <c r="M1130" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1130" t="inlineStr"/>
     </row>
     <row r="1131">
@@ -68607,7 +68935,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1131" t="inlineStr"/>
+      <c r="M1131" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1131" t="inlineStr"/>
     </row>
     <row r="1132">
@@ -68671,7 +69003,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1132" t="inlineStr"/>
+      <c r="M1132" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1132" t="inlineStr"/>
     </row>
     <row r="1133">
@@ -68735,7 +69071,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1133" t="inlineStr"/>
+      <c r="M1133" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1133" t="inlineStr"/>
     </row>
     <row r="1134">
@@ -68799,7 +69139,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1134" t="inlineStr"/>
+      <c r="M1134" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1134" t="inlineStr"/>
     </row>
     <row r="1135">
@@ -68863,7 +69207,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1135" t="inlineStr"/>
+      <c r="M1135" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1135" t="inlineStr"/>
     </row>
     <row r="1136">
@@ -68927,7 +69275,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1136" t="inlineStr"/>
+      <c r="M1136" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1136" t="inlineStr"/>
     </row>
     <row r="1137">
@@ -68991,7 +69343,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1137" t="inlineStr"/>
+      <c r="M1137" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1137" t="inlineStr"/>
     </row>
     <row r="1138">
@@ -69055,7 +69411,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1138" t="inlineStr"/>
+      <c r="M1138" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1138" t="inlineStr"/>
     </row>
     <row r="1139">
@@ -69119,7 +69479,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1139" t="inlineStr"/>
+      <c r="M1139" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1139" t="inlineStr"/>
     </row>
     <row r="1140">
@@ -69183,7 +69547,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1140" t="inlineStr"/>
+      <c r="M1140" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1140" t="inlineStr"/>
     </row>
     <row r="1141">
@@ -69247,7 +69615,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1141" t="inlineStr"/>
+      <c r="M1141" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1141" t="inlineStr"/>
     </row>
     <row r="1142">
@@ -69311,7 +69683,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1142" t="inlineStr"/>
+      <c r="M1142" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1142" t="inlineStr"/>
     </row>
     <row r="1143">
@@ -69375,7 +69751,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1143" t="inlineStr"/>
+      <c r="M1143" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1143" t="inlineStr"/>
     </row>
     <row r="1144">
@@ -69439,7 +69819,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1144" t="inlineStr"/>
+      <c r="M1144" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1144" t="inlineStr"/>
     </row>
     <row r="1145">
@@ -69503,7 +69887,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1145" t="inlineStr"/>
+      <c r="M1145" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1145" t="inlineStr"/>
     </row>
     <row r="1146">
@@ -69567,7 +69955,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1146" t="inlineStr"/>
+      <c r="M1146" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1146" t="inlineStr"/>
     </row>
     <row r="1147">
@@ -69631,7 +70023,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1147" t="inlineStr"/>
+      <c r="M1147" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1147" t="inlineStr"/>
     </row>
     <row r="1148">
@@ -69695,7 +70091,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1148" t="inlineStr"/>
+      <c r="M1148" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1148" t="inlineStr"/>
     </row>
     <row r="1149">
@@ -69759,7 +70159,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1149" t="inlineStr"/>
+      <c r="M1149" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1149" t="inlineStr"/>
     </row>
     <row r="1150">
@@ -69823,7 +70227,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1150" t="inlineStr"/>
+      <c r="M1150" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1150" t="inlineStr"/>
     </row>
     <row r="1151">
@@ -69887,7 +70295,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1151" t="inlineStr"/>
+      <c r="M1151" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1151" t="inlineStr"/>
     </row>
     <row r="1152">
@@ -69951,7 +70363,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1152" t="inlineStr"/>
+      <c r="M1152" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1152" t="inlineStr"/>
     </row>
     <row r="1153">
@@ -70015,7 +70431,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1153" t="inlineStr"/>
+      <c r="M1153" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1153" t="inlineStr"/>
     </row>
     <row r="1154">
@@ -70079,7 +70499,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1154" t="inlineStr"/>
+      <c r="M1154" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1154" t="inlineStr"/>
     </row>
     <row r="1155">
@@ -70143,7 +70567,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1155" t="inlineStr"/>
+      <c r="M1155" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1155" t="inlineStr"/>
     </row>
     <row r="1156">
@@ -70207,7 +70635,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1156" t="inlineStr"/>
+      <c r="M1156" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1156" t="inlineStr"/>
     </row>
     <row r="1157">
@@ -70271,7 +70703,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1157" t="inlineStr"/>
+      <c r="M1157" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1157" t="inlineStr"/>
     </row>
     <row r="1158">
@@ -70335,7 +70771,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1158" t="inlineStr"/>
+      <c r="M1158" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1158" t="inlineStr"/>
     </row>
     <row r="1159">
@@ -70399,7 +70839,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1159" t="inlineStr"/>
+      <c r="M1159" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1159" t="inlineStr"/>
     </row>
     <row r="1160">
@@ -70463,7 +70907,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1160" t="inlineStr"/>
+      <c r="M1160" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1160" t="inlineStr"/>
     </row>
     <row r="1161">
@@ -70527,7 +70975,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1161" t="inlineStr"/>
+      <c r="M1161" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1161" t="inlineStr"/>
     </row>
     <row r="1162">
@@ -70591,7 +71043,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1162" t="inlineStr"/>
+      <c r="M1162" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1162" t="inlineStr"/>
     </row>
     <row r="1163">
@@ -70655,7 +71111,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1163" t="inlineStr"/>
+      <c r="M1163" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1163" t="inlineStr"/>
     </row>
     <row r="1164">
@@ -70719,7 +71179,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1164" t="inlineStr"/>
+      <c r="M1164" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1164" t="inlineStr"/>
     </row>
     <row r="1165">
@@ -70781,7 +71245,7 @@
       </c>
       <c r="M1165" t="inlineStr">
         <is>
-          <t>2-4학년만 신청가능, 1학년은 학과개설란에서 신청</t>
+          <t>기초교양, 2-4학년만 신청가능, 1학년은 학과개설란에서 신청</t>
         </is>
       </c>
       <c r="N1165" t="inlineStr"/>
@@ -70845,7 +71309,7 @@
       </c>
       <c r="M1166" t="inlineStr">
         <is>
-          <t>2-4학년만 신청가능, 1학년은 학과개설란에서 신청</t>
+          <t>기초교양, 2-4학년만 신청가능, 1학년은 학과개설란에서 신청</t>
         </is>
       </c>
       <c r="N1166" t="inlineStr"/>
@@ -70909,7 +71373,7 @@
       </c>
       <c r="M1167" t="inlineStr">
         <is>
-          <t>2-4학년만 신청가능, 1학년은 학과개설란에서 신청</t>
+          <t>기초교양, 2-4학년만 신청가능, 1학년은 학과개설란에서 신청</t>
         </is>
       </c>
       <c r="N1167" t="inlineStr"/>
@@ -70973,7 +71437,7 @@
       </c>
       <c r="M1168" t="inlineStr">
         <is>
-          <t>2-4학년만 신청가능, 1학년은 학과개설란에서 신청</t>
+          <t>기초교양, 2-4학년만 신청가능, 1학년은 학과개설란에서 신청</t>
         </is>
       </c>
       <c r="N1168" t="inlineStr"/>
@@ -71041,7 +71505,7 @@
       </c>
       <c r="M1169" t="inlineStr">
         <is>
-          <t>상담심리학과 신청불가</t>
+          <t>사회과학영역, 상담심리학과 신청불가</t>
         </is>
       </c>
       <c r="N1169" t="inlineStr"/>
@@ -71107,7 +71571,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1170" t="inlineStr"/>
+      <c r="M1170" t="inlineStr">
+        <is>
+          <t>사회과학영역</t>
+        </is>
+      </c>
       <c r="N1170" t="inlineStr"/>
     </row>
     <row r="1171">
@@ -71171,7 +71639,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1171" t="inlineStr"/>
+      <c r="M1171" t="inlineStr">
+        <is>
+          <t>사회과학영역</t>
+        </is>
+      </c>
       <c r="N1171" t="inlineStr"/>
     </row>
     <row r="1172">
@@ -71237,7 +71709,7 @@
       </c>
       <c r="M1172" t="inlineStr">
         <is>
-          <t>화학생명,바이오융합, 동물자원,간호,물치,약학전공 신청불가</t>
+          <t>자연과학영역, 화학생명,바이오융합, 동물자원,간호,물치,약학전공 신청불가</t>
         </is>
       </c>
       <c r="N1172" t="inlineStr"/>
@@ -71303,7 +71775,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1173" t="inlineStr"/>
+      <c r="M1173" t="inlineStr">
+        <is>
+          <t>자연과학영역</t>
+        </is>
+      </c>
       <c r="N1173" t="inlineStr"/>
     </row>
     <row r="1174">
@@ -71367,7 +71843,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1174" t="inlineStr"/>
+      <c r="M1174" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1174" t="inlineStr"/>
     </row>
     <row r="1175">
@@ -71431,7 +71911,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1175" t="inlineStr"/>
+      <c r="M1175" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N1175" t="inlineStr"/>
     </row>
     <row r="1176">
@@ -71497,7 +71981,7 @@
       </c>
       <c r="M1176" t="inlineStr">
         <is>
-          <t>상담심리학과 신청불가</t>
+          <t>인성교양, 상담심리학과 신청불가, 상담심리학과 신청불가</t>
         </is>
       </c>
       <c r="N1176" t="inlineStr">
@@ -71569,7 +72053,7 @@
       </c>
       <c r="M1177" t="inlineStr">
         <is>
-          <t>외국인학생만 신청가능</t>
+          <t>일반선택영역, 외국인학생만 신청가능</t>
         </is>
       </c>
       <c r="N1177" t="inlineStr"/>
@@ -71635,7 +72119,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1178" t="inlineStr"/>
+      <c r="M1178" t="inlineStr">
+        <is>
+          <t>자연과학영역</t>
+        </is>
+      </c>
       <c r="N1178" t="inlineStr"/>
     </row>
     <row r="1179">
@@ -71701,7 +72189,7 @@
       </c>
       <c r="M1179" t="inlineStr">
         <is>
-          <t>외국인학생만 신청가능</t>
+          <t>일반선택영역, 외국인학생만 신청가능</t>
         </is>
       </c>
       <c r="N1179" t="inlineStr"/>
@@ -71767,7 +72255,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1180" t="inlineStr"/>
+      <c r="M1180" t="inlineStr">
+        <is>
+          <t>사회과학영역</t>
+        </is>
+      </c>
       <c r="N1180" t="inlineStr"/>
     </row>
     <row r="1181">
@@ -71831,7 +72323,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1181" t="inlineStr"/>
+      <c r="M1181" t="inlineStr">
+        <is>
+          <t>디지털 리터러시영역</t>
+        </is>
+      </c>
       <c r="N1181" t="inlineStr"/>
     </row>
     <row r="1182">
@@ -71895,7 +72391,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1182" t="inlineStr"/>
+      <c r="M1182" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1182" t="inlineStr"/>
     </row>
     <row r="1183">
@@ -71959,7 +72459,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1183" t="inlineStr"/>
+      <c r="M1183" t="inlineStr">
+        <is>
+          <t>자연과학영역</t>
+        </is>
+      </c>
       <c r="N1183" t="inlineStr"/>
     </row>
     <row r="1184">
@@ -72023,7 +72527,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1184" t="inlineStr"/>
+      <c r="M1184" t="inlineStr">
+        <is>
+          <t>일반선택영역</t>
+        </is>
+      </c>
       <c r="N1184" t="inlineStr"/>
     </row>
     <row r="1185">
@@ -72087,7 +72595,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1185" t="inlineStr"/>
+      <c r="M1185" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1185" t="inlineStr"/>
     </row>
     <row r="1186">
@@ -72151,7 +72663,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1186" t="inlineStr"/>
+      <c r="M1186" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N1186" t="inlineStr"/>
     </row>
     <row r="1187">
@@ -72217,7 +72733,7 @@
       </c>
       <c r="M1187" t="inlineStr">
         <is>
-          <t>중국어학과 수강불가</t>
+          <t>사회과학영역, 중국어학과 수강불가</t>
         </is>
       </c>
       <c r="N1187" t="inlineStr"/>
@@ -72283,7 +72799,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1188" t="inlineStr"/>
+      <c r="M1188" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1188" t="inlineStr"/>
     </row>
     <row r="1189">
@@ -72347,7 +72867,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1189" t="inlineStr"/>
+      <c r="M1189" t="inlineStr">
+        <is>
+          <t>디지털 리터러시영역</t>
+        </is>
+      </c>
       <c r="N1189" t="inlineStr"/>
     </row>
     <row r="1190">
@@ -72411,7 +72935,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1190" t="inlineStr"/>
+      <c r="M1190" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1190" t="inlineStr"/>
     </row>
     <row r="1191">
@@ -72475,7 +73003,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1191" t="inlineStr"/>
+      <c r="M1191" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N1191" t="inlineStr"/>
     </row>
     <row r="1192">
@@ -72539,7 +73071,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1192" t="inlineStr"/>
+      <c r="M1192" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N1192" t="inlineStr"/>
     </row>
     <row r="1193">
@@ -72605,7 +73141,7 @@
       </c>
       <c r="M1193" t="inlineStr">
         <is>
-          <t>아트앤디자인학과 신청불가</t>
+          <t>인문예술영역, 아트앤디자인학과 신청불가</t>
         </is>
       </c>
       <c r="N1193" t="inlineStr"/>
@@ -72673,7 +73209,7 @@
       </c>
       <c r="M1194" t="inlineStr">
         <is>
-          <t>화학생명,약학 신청불가</t>
+          <t>자연과학영역, 화학생명,약학 신청불가</t>
         </is>
       </c>
       <c r="N1194" t="inlineStr"/>
@@ -72739,7 +73275,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1195" t="inlineStr"/>
+      <c r="M1195" t="inlineStr">
+        <is>
+          <t>사회과학영역</t>
+        </is>
+      </c>
       <c r="N1195" t="inlineStr"/>
     </row>
     <row r="1196">
@@ -72803,7 +73343,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1196" t="inlineStr"/>
+      <c r="M1196" t="inlineStr">
+        <is>
+          <t>사회과학영역</t>
+        </is>
+      </c>
       <c r="N1196" t="inlineStr"/>
     </row>
     <row r="1197">
@@ -72867,7 +73411,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1197" t="inlineStr"/>
+      <c r="M1197" t="inlineStr">
+        <is>
+          <t>디지털 리터러시영역</t>
+        </is>
+      </c>
       <c r="N1197" t="inlineStr"/>
     </row>
     <row r="1198">
@@ -72931,7 +73479,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1198" t="inlineStr"/>
+      <c r="M1198" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1198" t="inlineStr"/>
     </row>
     <row r="1199">
@@ -72995,7 +73547,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1199" t="inlineStr"/>
+      <c r="M1199" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1199" t="inlineStr"/>
     </row>
     <row r="1200">
@@ -73059,7 +73615,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1200" t="inlineStr"/>
+      <c r="M1200" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1200" t="inlineStr"/>
     </row>
     <row r="1201">
@@ -73123,7 +73683,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1201" t="inlineStr"/>
+      <c r="M1201" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1201" t="inlineStr"/>
     </row>
     <row r="1202">
@@ -73187,7 +73751,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1202" t="inlineStr"/>
+      <c r="M1202" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1202" t="inlineStr"/>
     </row>
     <row r="1203">
@@ -73251,7 +73819,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1203" t="inlineStr"/>
+      <c r="M1203" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1203" t="inlineStr"/>
     </row>
     <row r="1204">
@@ -73315,7 +73887,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1204" t="inlineStr"/>
+      <c r="M1204" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1204" t="inlineStr"/>
     </row>
     <row r="1205">
@@ -73379,7 +73955,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1205" t="inlineStr"/>
+      <c r="M1205" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1205" t="inlineStr"/>
     </row>
     <row r="1206">
@@ -73443,7 +74023,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1206" t="inlineStr"/>
+      <c r="M1206" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1206" t="inlineStr"/>
     </row>
     <row r="1207">
@@ -73507,7 +74091,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1207" t="inlineStr"/>
+      <c r="M1207" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1207" t="inlineStr"/>
     </row>
     <row r="1208">
@@ -73571,7 +74159,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1208" t="inlineStr"/>
+      <c r="M1208" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1208" t="inlineStr"/>
     </row>
     <row r="1209">
@@ -73635,7 +74227,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1209" t="inlineStr"/>
+      <c r="M1209" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1209" t="inlineStr"/>
     </row>
     <row r="1210">
@@ -73699,7 +74295,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1210" t="inlineStr"/>
+      <c r="M1210" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1210" t="inlineStr"/>
     </row>
     <row r="1211">
@@ -73763,7 +74363,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1211" t="inlineStr"/>
+      <c r="M1211" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1211" t="inlineStr"/>
     </row>
     <row r="1212">
@@ -73827,7 +74431,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1212" t="inlineStr"/>
+      <c r="M1212" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1212" t="inlineStr"/>
     </row>
     <row r="1213">
@@ -73891,7 +74499,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1213" t="inlineStr"/>
+      <c r="M1213" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1213" t="inlineStr"/>
     </row>
     <row r="1214">
@@ -73955,7 +74567,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1214" t="inlineStr"/>
+      <c r="M1214" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1214" t="inlineStr"/>
     </row>
     <row r="1215">
@@ -74019,7 +74635,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1215" t="inlineStr"/>
+      <c r="M1215" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1215" t="inlineStr"/>
     </row>
     <row r="1216">
@@ -74083,7 +74703,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1216" t="inlineStr"/>
+      <c r="M1216" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1216" t="inlineStr"/>
     </row>
     <row r="1217">
@@ -74147,7 +74771,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1217" t="inlineStr"/>
+      <c r="M1217" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1217" t="inlineStr"/>
     </row>
     <row r="1218">
@@ -74211,7 +74839,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1218" t="inlineStr"/>
+      <c r="M1218" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1218" t="inlineStr"/>
     </row>
     <row r="1219">
@@ -74275,7 +74907,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1219" t="inlineStr"/>
+      <c r="M1219" t="inlineStr">
+        <is>
+          <t>기초교양</t>
+        </is>
+      </c>
       <c r="N1219" t="inlineStr"/>
     </row>
     <row r="1220">
@@ -74339,7 +74975,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1220" t="inlineStr"/>
+      <c r="M1220" t="inlineStr">
+        <is>
+          <t>사회과학영역</t>
+        </is>
+      </c>
       <c r="N1220" t="inlineStr"/>
     </row>
     <row r="1221">
@@ -74403,7 +75043,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1221" t="inlineStr"/>
+      <c r="M1221" t="inlineStr">
+        <is>
+          <t>사회과학영역</t>
+        </is>
+      </c>
       <c r="N1221" t="inlineStr"/>
     </row>
     <row r="1222">
@@ -74467,7 +75111,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1222" t="inlineStr"/>
+      <c r="M1222" t="inlineStr">
+        <is>
+          <t>사회과학영역</t>
+        </is>
+      </c>
       <c r="N1222" t="inlineStr"/>
     </row>
     <row r="1223">
@@ -74533,7 +75181,7 @@
       </c>
       <c r="M1223" t="inlineStr">
         <is>
-          <t>화학생명과학과, 바이오융합공학과 신청불가</t>
+          <t>자연과학영역, 화학생명과학과, 바이오융합공학과 신청불가</t>
         </is>
       </c>
       <c r="N1223" t="inlineStr"/>
@@ -74599,7 +75247,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1224" t="inlineStr"/>
+      <c r="M1224" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1224" t="inlineStr"/>
     </row>
     <row r="1225">
@@ -74665,7 +75317,7 @@
       </c>
       <c r="M1225" t="inlineStr">
         <is>
-          <t>물치, 약학, 화학생명 신청 불가</t>
+          <t>자연과학영역, 물치, 약학, 화학생명 신청 불가</t>
         </is>
       </c>
       <c r="N1225" t="inlineStr"/>
@@ -74733,7 +75385,7 @@
       </c>
       <c r="M1226" t="inlineStr">
         <is>
-          <t>화학생명과학과, 바이오융합공학과 신청불가</t>
+          <t>자연과학영역, 화학생명과학과, 바이오융합공학과 신청불가</t>
         </is>
       </c>
       <c r="N1226" t="inlineStr"/>
@@ -74799,7 +75451,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1227" t="inlineStr"/>
+      <c r="M1227" t="inlineStr">
+        <is>
+          <t>일반선택영역</t>
+        </is>
+      </c>
       <c r="N1227" t="inlineStr"/>
     </row>
     <row r="1228">
@@ -74863,7 +75519,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1228" t="inlineStr"/>
+      <c r="M1228" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N1228" t="inlineStr"/>
     </row>
     <row r="1229">
@@ -74927,7 +75587,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1229" t="inlineStr"/>
+      <c r="M1229" t="inlineStr">
+        <is>
+          <t>사회과학영역</t>
+        </is>
+      </c>
       <c r="N1229" t="inlineStr"/>
     </row>
     <row r="1230">
@@ -74991,7 +75655,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1230" t="inlineStr"/>
+      <c r="M1230" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1230" t="inlineStr"/>
     </row>
     <row r="1231">
@@ -75055,7 +75723,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1231" t="inlineStr"/>
+      <c r="M1231" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N1231" t="inlineStr"/>
     </row>
     <row r="1232">
@@ -75121,7 +75793,7 @@
       </c>
       <c r="M1232" t="inlineStr">
         <is>
-          <t>경영학과 수강불가</t>
+          <t>사회과학영역, 경영학과 수강불가</t>
         </is>
       </c>
       <c r="N1232" t="inlineStr"/>
@@ -75187,7 +75859,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1233" t="inlineStr"/>
+      <c r="M1233" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1233" t="inlineStr"/>
     </row>
     <row r="1234">
@@ -75253,7 +75929,7 @@
       </c>
       <c r="M1234" t="inlineStr">
         <is>
-          <t>지정학생 교과목</t>
+          <t>인성교양, 지정학생 교과목</t>
         </is>
       </c>
       <c r="N1234" t="inlineStr"/>
@@ -75321,7 +75997,7 @@
       </c>
       <c r="M1235" t="inlineStr">
         <is>
-          <t>지정학생 교과목</t>
+          <t>인성교양, 지정학생 교과목</t>
         </is>
       </c>
       <c r="N1235" t="inlineStr"/>
@@ -75389,7 +76065,7 @@
       </c>
       <c r="M1236" t="inlineStr">
         <is>
-          <t>지정학생 교과목</t>
+          <t>인성교양, 지정학생 교과목</t>
         </is>
       </c>
       <c r="N1236" t="inlineStr"/>
@@ -75455,7 +76131,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1237" t="inlineStr"/>
+      <c r="M1237" t="inlineStr">
+        <is>
+          <t>사회과학영역</t>
+        </is>
+      </c>
       <c r="N1237" t="inlineStr"/>
     </row>
     <row r="1238">
@@ -75519,7 +76199,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1238" t="inlineStr"/>
+      <c r="M1238" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N1238" t="inlineStr"/>
     </row>
     <row r="1239">
@@ -75583,7 +76267,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1239" t="inlineStr"/>
+      <c r="M1239" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1239" t="inlineStr"/>
     </row>
     <row r="1240">
@@ -75647,7 +76335,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1240" t="inlineStr"/>
+      <c r="M1240" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N1240" t="inlineStr"/>
     </row>
     <row r="1241">
@@ -75713,7 +76405,7 @@
       </c>
       <c r="M1241" t="inlineStr">
         <is>
-          <t>컴퓨터-메카 및 카메카트로닉스학과 신청불가</t>
+          <t>자연과학영역, 컴퓨터-메카 및 카메카트로닉스학과 신청불가</t>
         </is>
       </c>
       <c r="N1241" t="inlineStr"/>
@@ -75779,7 +76471,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1242" t="inlineStr"/>
+      <c r="M1242" t="inlineStr">
+        <is>
+          <t>사회과학영역</t>
+        </is>
+      </c>
       <c r="N1242" t="inlineStr"/>
     </row>
     <row r="1243">
@@ -75843,7 +76539,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1243" t="inlineStr"/>
+      <c r="M1243" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1243" t="inlineStr"/>
     </row>
     <row r="1244">
@@ -75907,7 +76607,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1244" t="inlineStr"/>
+      <c r="M1244" t="inlineStr">
+        <is>
+          <t>사회과학영역</t>
+        </is>
+      </c>
       <c r="N1244" t="inlineStr"/>
     </row>
     <row r="1245">
@@ -75971,7 +76675,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1245" t="inlineStr"/>
+      <c r="M1245" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1245" t="inlineStr"/>
     </row>
     <row r="1246">
@@ -76037,7 +76745,7 @@
       </c>
       <c r="M1246" t="inlineStr">
         <is>
-          <t>영문학전공 신청불가</t>
+          <t>인문예술영역, 영문학전공 신청불가</t>
         </is>
       </c>
       <c r="N1246" t="inlineStr"/>
@@ -76103,7 +76811,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1247" t="inlineStr"/>
+      <c r="M1247" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N1247" t="inlineStr"/>
     </row>
     <row r="1248">
@@ -76167,7 +76879,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1248" t="inlineStr"/>
+      <c r="M1248" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1248" t="inlineStr"/>
     </row>
     <row r="1249">
@@ -76231,7 +76947,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1249" t="inlineStr"/>
+      <c r="M1249" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1249" t="inlineStr"/>
     </row>
     <row r="1250">
@@ -76295,7 +77015,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1250" t="inlineStr"/>
+      <c r="M1250" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1250" t="inlineStr"/>
     </row>
     <row r="1251">
@@ -76359,7 +77083,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1251" t="inlineStr"/>
+      <c r="M1251" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1251" t="inlineStr"/>
     </row>
     <row r="1252">
@@ -76423,7 +77151,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1252" t="inlineStr"/>
+      <c r="M1252" t="inlineStr">
+        <is>
+          <t>사회과학영역</t>
+        </is>
+      </c>
       <c r="N1252" t="inlineStr"/>
     </row>
     <row r="1253">
@@ -76487,7 +77219,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1253" t="inlineStr"/>
+      <c r="M1253" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N1253" t="inlineStr"/>
     </row>
     <row r="1254">
@@ -76553,7 +77289,7 @@
       </c>
       <c r="M1254" t="inlineStr">
         <is>
-          <t>상담심리학과 신청불가</t>
+          <t>인성교양, 상담심리학과 신청불가</t>
         </is>
       </c>
       <c r="N1254" t="inlineStr"/>
@@ -76619,7 +77355,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1255" t="inlineStr"/>
+      <c r="M1255" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1255" t="inlineStr"/>
     </row>
     <row r="1256">
@@ -76683,7 +77423,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1256" t="inlineStr"/>
+      <c r="M1256" t="inlineStr">
+        <is>
+          <t>일반선택영역</t>
+        </is>
+      </c>
       <c r="N1256" t="inlineStr"/>
     </row>
     <row r="1257">
@@ -76747,7 +77491,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1257" t="inlineStr"/>
+      <c r="M1257" t="inlineStr">
+        <is>
+          <t>일반선택영역</t>
+        </is>
+      </c>
       <c r="N1257" t="inlineStr"/>
     </row>
     <row r="1258">
@@ -76811,7 +77559,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1258" t="inlineStr"/>
+      <c r="M1258" t="inlineStr">
+        <is>
+          <t>사회과학영역</t>
+        </is>
+      </c>
       <c r="N1258" t="inlineStr"/>
     </row>
     <row r="1259">
@@ -76877,7 +77629,7 @@
       </c>
       <c r="M1259" t="inlineStr">
         <is>
-          <t>음악학과 수강불가</t>
+          <t>인성교양, 음악학과 수강불가</t>
         </is>
       </c>
       <c r="N1259" t="inlineStr"/>
@@ -76943,7 +77695,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1260" t="inlineStr"/>
+      <c r="M1260" t="inlineStr">
+        <is>
+          <t>자연과학영역</t>
+        </is>
+      </c>
       <c r="N1260" t="inlineStr"/>
     </row>
     <row r="1261">
@@ -77007,7 +77763,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1261" t="inlineStr"/>
+      <c r="M1261" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N1261" t="inlineStr"/>
     </row>
     <row r="1262">
@@ -77071,7 +77831,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1262" t="inlineStr"/>
+      <c r="M1262" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N1262" t="inlineStr"/>
     </row>
     <row r="1263">
@@ -77135,7 +77899,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1263" t="inlineStr"/>
+      <c r="M1263" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1263" t="inlineStr"/>
     </row>
     <row r="1264">
@@ -77201,7 +77969,7 @@
       </c>
       <c r="M1264" t="inlineStr">
         <is>
-          <t>아트앤디자인, 환경디자인원예, 건축 신청불가</t>
+          <t>인문예술영역, 아트앤디자인, 환경디자인원예, 건축 신청불가</t>
         </is>
       </c>
       <c r="N1264" t="inlineStr"/>
@@ -77269,7 +78037,7 @@
       </c>
       <c r="M1265" t="inlineStr">
         <is>
-          <t>일본어학과 신청불가</t>
+          <t>인문예술영역, 일본어학과 신청불가</t>
         </is>
       </c>
       <c r="N1265" t="inlineStr"/>
@@ -77335,7 +78103,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1266" t="inlineStr"/>
+      <c r="M1266" t="inlineStr">
+        <is>
+          <t>자연과학영역</t>
+        </is>
+      </c>
       <c r="N1266" t="inlineStr"/>
     </row>
     <row r="1267">
@@ -77399,7 +78171,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1267" t="inlineStr"/>
+      <c r="M1267" t="inlineStr">
+        <is>
+          <t>자연과학영역</t>
+        </is>
+      </c>
       <c r="N1267" t="inlineStr"/>
     </row>
     <row r="1268">
@@ -77463,7 +78239,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1268" t="inlineStr"/>
+      <c r="M1268" t="inlineStr">
+        <is>
+          <t>사회과학영역</t>
+        </is>
+      </c>
       <c r="N1268" t="inlineStr"/>
     </row>
     <row r="1269">
@@ -77529,7 +78309,7 @@
       </c>
       <c r="M1269" t="inlineStr">
         <is>
-          <t>음악학과 수강불가</t>
+          <t>인문예술영역, 음악학과 수강불가</t>
         </is>
       </c>
       <c r="N1269" t="inlineStr"/>
@@ -77597,7 +78377,7 @@
       </c>
       <c r="M1270" t="inlineStr">
         <is>
-          <t>중국어학과 수강불가</t>
+          <t>인문예술영역, 중국어학과 수강불가</t>
         </is>
       </c>
       <c r="N1270" t="inlineStr"/>
@@ -77665,7 +78445,7 @@
       </c>
       <c r="M1271" t="inlineStr">
         <is>
-          <t>중국어학과 수강불가</t>
+          <t>인문예술영역, 중국어학과 수강불가</t>
         </is>
       </c>
       <c r="N1271" t="inlineStr"/>
@@ -77731,7 +78511,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1272" t="inlineStr"/>
+      <c r="M1272" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N1272" t="inlineStr"/>
     </row>
     <row r="1273">
@@ -77795,7 +78579,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1273" t="inlineStr"/>
+      <c r="M1273" t="inlineStr">
+        <is>
+          <t>사회과학영역</t>
+        </is>
+      </c>
       <c r="N1273" t="inlineStr"/>
     </row>
     <row r="1274">
@@ -77859,7 +78647,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1274" t="inlineStr"/>
+      <c r="M1274" t="inlineStr">
+        <is>
+          <t>자연과학영역</t>
+        </is>
+      </c>
       <c r="N1274" t="inlineStr"/>
     </row>
     <row r="1275">
@@ -77923,7 +78715,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1275" t="inlineStr"/>
+      <c r="M1275" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N1275" t="inlineStr"/>
     </row>
     <row r="1276">
@@ -77987,7 +78783,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1276" t="inlineStr"/>
+      <c r="M1276" t="inlineStr">
+        <is>
+          <t>일반선택영역</t>
+        </is>
+      </c>
       <c r="N1276" t="inlineStr"/>
     </row>
     <row r="1277">
@@ -78051,7 +78851,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1277" t="inlineStr"/>
+      <c r="M1277" t="inlineStr">
+        <is>
+          <t>디지털 리터러시영역</t>
+        </is>
+      </c>
       <c r="N1277" t="inlineStr"/>
     </row>
     <row r="1278">
@@ -78115,7 +78919,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1278" t="inlineStr"/>
+      <c r="M1278" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N1278" t="inlineStr"/>
     </row>
     <row r="1279">
@@ -78179,7 +78987,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1279" t="inlineStr"/>
+      <c r="M1279" t="inlineStr">
+        <is>
+          <t>디지털 리터러시영역</t>
+        </is>
+      </c>
       <c r="N1279" t="inlineStr"/>
     </row>
     <row r="1280">
@@ -78245,7 +79057,7 @@
       </c>
       <c r="M1280" t="inlineStr">
         <is>
-          <t>자연과학,공학계열 학과 신청/ SW중심대학 개설과목</t>
+          <t>기초교양, 자연과학,공학계열 학과 신청/ SW중심대학 개설과목</t>
         </is>
       </c>
       <c r="N1280" t="inlineStr"/>
@@ -78313,7 +79125,7 @@
       </c>
       <c r="M1281" t="inlineStr">
         <is>
-          <t>인문,사회,예체능계열 학과 신청/ SW중심대학 개설과목</t>
+          <t>기초교양, 인문,사회,예체능계열 학과 신청/ SW중심대학 개설과목</t>
         </is>
       </c>
       <c r="N1281" t="inlineStr"/>
@@ -78379,7 +79191,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1282" t="inlineStr"/>
+      <c r="M1282" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1282" t="inlineStr"/>
     </row>
     <row r="1283">
@@ -78443,7 +79259,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1283" t="inlineStr"/>
+      <c r="M1283" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N1283" t="inlineStr"/>
     </row>
     <row r="1284">
@@ -78507,7 +79327,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1284" t="inlineStr"/>
+      <c r="M1284" t="inlineStr">
+        <is>
+          <t>사회과학영역</t>
+        </is>
+      </c>
       <c r="N1284" t="inlineStr"/>
     </row>
     <row r="1285">
@@ -78573,7 +79397,7 @@
       </c>
       <c r="M1285" t="inlineStr">
         <is>
-          <t>아트앤디자인, 환경디자인원예 신청불가</t>
+          <t>인문예술영역, 아트앤디자인, 환경디자인원예 신청불가</t>
         </is>
       </c>
       <c r="N1285" t="inlineStr"/>
@@ -78639,7 +79463,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1286" t="inlineStr"/>
+      <c r="M1286" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1286" t="inlineStr"/>
     </row>
     <row r="1287">
@@ -78703,7 +79531,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1287" t="inlineStr"/>
+      <c r="M1287" t="inlineStr">
+        <is>
+          <t>일반선택영역</t>
+        </is>
+      </c>
       <c r="N1287" t="inlineStr"/>
     </row>
     <row r="1288">
@@ -78769,7 +79601,7 @@
       </c>
       <c r="M1288" t="inlineStr">
         <is>
-          <t>외국인학생만 신청가능</t>
+          <t>일반선택영역, 외국인학생만 신청가능</t>
         </is>
       </c>
       <c r="N1288" t="inlineStr"/>
@@ -78833,7 +79665,7 @@
       </c>
       <c r="M1289" t="inlineStr">
         <is>
-          <t>경영학과 이중언어과정 전용 과목</t>
+          <t>일반선택영역, 경영학과 이중언어과정 전용 과목</t>
         </is>
       </c>
       <c r="N1289" t="inlineStr"/>
@@ -78899,7 +79731,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1290" t="inlineStr"/>
+      <c r="M1290" t="inlineStr">
+        <is>
+          <t>인문예술영역</t>
+        </is>
+      </c>
       <c r="N1290" t="inlineStr"/>
     </row>
     <row r="1291">
@@ -78965,7 +79801,7 @@
       </c>
       <c r="M1291" t="inlineStr">
         <is>
-          <t>여학생만 신청가능</t>
+          <t>인성교양, 여학생만 신청가능</t>
         </is>
       </c>
       <c r="N1291" t="inlineStr"/>
@@ -79033,7 +79869,7 @@
       </c>
       <c r="M1292" t="inlineStr">
         <is>
-          <t>남학생만 신청가능</t>
+          <t>인성교양, 남학생만 신청가능</t>
         </is>
       </c>
       <c r="N1292" t="inlineStr"/>
@@ -79099,7 +79935,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1293" t="inlineStr"/>
+      <c r="M1293" t="inlineStr">
+        <is>
+          <t>인성교양</t>
+        </is>
+      </c>
       <c r="N1293" t="inlineStr"/>
     </row>
     <row r="1294">
@@ -79165,7 +80005,7 @@
       </c>
       <c r="M1294" t="inlineStr">
         <is>
-          <t>중국어학과 수강불가</t>
+          <t>인문예술영역, 중국어학과 수강불가</t>
         </is>
       </c>
       <c r="N1294" t="inlineStr"/>
@@ -79231,7 +80071,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1295" t="inlineStr"/>
+      <c r="M1295" t="inlineStr">
+        <is>
+          <t>사회과학영역</t>
+        </is>
+      </c>
       <c r="N1295" t="inlineStr"/>
     </row>
     <row r="1296">
@@ -83523,7 +84367,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1367" t="inlineStr"/>
+      <c r="M1367" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N1367" t="inlineStr"/>
     </row>
     <row r="1368">
@@ -83763,7 +84611,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1371" t="inlineStr"/>
+      <c r="M1371" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N1371" t="inlineStr"/>
     </row>
     <row r="1372">
@@ -85671,7 +86523,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1403" t="inlineStr"/>
+      <c r="M1403" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N1403" t="inlineStr"/>
     </row>
     <row r="1404">
@@ -85731,7 +86587,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1404" t="inlineStr"/>
+      <c r="M1404" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N1404" t="inlineStr"/>
     </row>
     <row r="1405">
@@ -86153,7 +87013,7 @@
       </c>
       <c r="M1411" t="inlineStr">
         <is>
-          <t>방학중 보육실습 이수한 학생들만 신청</t>
+          <t>교직필수, 방학중 보육실습 이수한 학생들만 신청</t>
         </is>
       </c>
       <c r="N1411" t="inlineStr"/>
@@ -86215,7 +87075,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1412" t="inlineStr"/>
+      <c r="M1412" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N1412" t="inlineStr"/>
     </row>
     <row r="1413">
@@ -86275,7 +87139,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1413" t="inlineStr"/>
+      <c r="M1413" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N1413" t="inlineStr"/>
     </row>
     <row r="1414">
@@ -86335,7 +87203,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1414" t="inlineStr"/>
+      <c r="M1414" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N1414" t="inlineStr"/>
     </row>
     <row r="1415">
@@ -86395,7 +87267,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1415" t="inlineStr"/>
+      <c r="M1415" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N1415" t="inlineStr"/>
     </row>
     <row r="1416">
@@ -86817,7 +87693,7 @@
       </c>
       <c r="M1422" t="inlineStr">
         <is>
-          <t>교육봉사지 사전협의 완료된 학생들만 수강신청하시기바랍니다.</t>
+          <t>교직필수, 교육봉사지 사전협의 완료된 학생들만 수강신청하시기바랍니다.</t>
         </is>
       </c>
       <c r="N1422" t="inlineStr"/>
@@ -86879,7 +87755,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1423" t="inlineStr"/>
+      <c r="M1423" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N1423" t="inlineStr"/>
     </row>
     <row r="1424">
@@ -86939,7 +87819,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1424" t="inlineStr"/>
+      <c r="M1424" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N1424" t="inlineStr"/>
     </row>
     <row r="1425">
@@ -86999,7 +87883,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1425" t="inlineStr"/>
+      <c r="M1425" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N1425" t="inlineStr"/>
     </row>
     <row r="1426">
@@ -87059,7 +87947,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1426" t="inlineStr"/>
+      <c r="M1426" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N1426" t="inlineStr"/>
     </row>
     <row r="1427">
@@ -87119,7 +88011,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1427" t="inlineStr"/>
+      <c r="M1427" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N1427" t="inlineStr"/>
     </row>
     <row r="1428">
@@ -87535,7 +88431,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1434" t="inlineStr"/>
+      <c r="M1434" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N1434" t="inlineStr"/>
     </row>
     <row r="1435">
@@ -87595,7 +88495,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1435" t="inlineStr"/>
+      <c r="M1435" t="inlineStr">
+        <is>
+          <t>교직필수</t>
+        </is>
+      </c>
       <c r="N1435" t="inlineStr"/>
     </row>
     <row r="1436">
@@ -89087,7 +89991,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1460" t="inlineStr"/>
+      <c r="M1460" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N1460" t="inlineStr"/>
     </row>
     <row r="1461">
@@ -89675,7 +90583,11 @@
           <t>인문사회대학</t>
         </is>
       </c>
-      <c r="M1470" t="inlineStr"/>
+      <c r="M1470" t="inlineStr">
+        <is>
+          <t>핵심교양</t>
+        </is>
+      </c>
       <c r="N1470" t="inlineStr"/>
     </row>
     <row r="1471">

--- a/data/2023년 2학기 정규 시간표.xlsx
+++ b/data/2023년 2학기 정규 시간표.xlsx
@@ -18063,7 +18063,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>에스라관209호강의실(교직과목)(첨단강의실)</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -18899,7 +18899,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>에스라관209호강의실(교직과목)(첨단강의실)</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -19471,7 +19471,7 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관110호(건축재료시험실)</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -19531,7 +19531,7 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관110호(건축재료시험실)</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -19711,7 +19711,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>사무엘관309호(大)강의실</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -20343,7 +20343,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관110호(건축재료시험실)</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -20403,7 +20403,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>에스라관210호강의실</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -20463,7 +20463,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관110호(건축재료시험실)</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">

--- a/data/2023년 2학기 정규 시간표.xlsx
+++ b/data/2023년 2학기 정규 시간표.xlsx
@@ -5423,7 +5423,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>다니엘관404호(大)강의실</t>
+          <t>다니엘관301호(中)강의실,다니엘관404호(大)강의실</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>다니엘관404호(大)강의실</t>
+          <t>다니엘관301호(中)강의실,다니엘관404호(大)강의실</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -6071,7 +6071,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>제3과학관209호(문제중심학습)</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -10099,7 +10099,7 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>다니엘관B102호(大)취업특강강의실</t>
+          <t>다니엘관301호(中)강의실,다니엘관B102호(大)취업특강강의실</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -10835,7 +10835,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>제3과학관207호강의실</t>
+          <t>다니엘관301호(中)강의실,제3과학관207호강의실</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -11439,7 +11439,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>다니엘관302호(中)강의실,다니엘관305호(大)강의실(간호학과우선)</t>
+          <t>요한관222호(中)(교필토익전용)강의실</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>제1실습관409호(컴과실습실)</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -11739,7 +11739,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>제2과학관106호강의실</t>
+          <t>요한관321호(中)강의실(첨단강의실)</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
@@ -11799,7 +11799,7 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>제2과학관106호강의실</t>
+          <t>요한관221호(中)(교필토익전용)강의실,제1과학관210호(유기.무기화학)</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
@@ -11979,7 +11979,7 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>요한관224호(中)강의실</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
@@ -12039,7 +12039,7 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>다니엘관301호(中)강의실</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
@@ -12971,7 +12971,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>제2과학관501-1호강의실</t>
+          <t>제2과학관307호강의실(원예과전용)</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -13197,7 +13197,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>유재형</t>
+          <t>남상용</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -13207,7 +13207,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>온실204호(식물생리실험실)</t>
+          <t>온실302호강의실</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -14231,7 +14231,7 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>온실302호강의실</t>
+          <t>아트앤디자인202호강의실</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
@@ -14590,7 +14590,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>월5~6</t>
+          <t>월7~8</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -14779,7 +14779,7 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>제2과학관501호강의실</t>
+          <t>제2과학관501-1호강의실</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -15306,7 +15306,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>월1</t>
+          <t>화12</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -15366,7 +15366,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>월7~8</t>
+          <t>화10~11</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -15543,7 +15543,7 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>제2과학관307호강의실(원예과전용)</t>
+          <t>온실201</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
@@ -16551,7 +16551,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>다니엘관404호(大)강의실</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -17410,7 +17410,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>월5~7</t>
+          <t>월6~8</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -17943,7 +17943,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>목조실</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -18003,7 +18003,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>목조실</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -18123,7 +18123,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관218-1호(건축의장실)</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -18183,7 +18183,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관216호(건축자율학습실)</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -18243,7 +18243,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관218호(건축의장실)</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -18303,7 +18303,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관217호(건축학과강의실)</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -18363,7 +18363,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관B102호(건축학과 캐드실)</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -18423,7 +18423,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관B102호(건축학과 캐드실)</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -18483,7 +18483,7 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>다니엘관404호(大)강의실</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -18959,7 +18959,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관111-2호(건축학과Studio8)</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -19023,7 +19023,7 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관111-1호(건축학과Studio8)</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -19087,7 +19087,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관111호(건축학과Studio8)</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -19151,7 +19151,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관212호(건축학과Studio)</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -19215,7 +19215,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관212호(건축학과Studio)</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -19279,7 +19279,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관111-2호(건축학과Studio8)</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -19343,7 +19343,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관111호(건축학과Studio8)</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -19407,7 +19407,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관111-1호(건축학과Studio8)</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -19651,7 +19651,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관B102호(건축학과 캐드실)</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -19771,7 +19771,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관215호(건축학과모형실)</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -19835,7 +19835,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관213호(건축학과Studio)</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -19899,7 +19899,7 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관214호(건축학과Studio)</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -20091,7 +20091,7 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관215호(건축학과모형실)</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -20155,7 +20155,7 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관213호(건축학과Studio)</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
@@ -20219,7 +20219,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관214호(건축학과Studio)</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
@@ -20283,7 +20283,7 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>사무엘관110호강의실</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
@@ -20523,7 +20523,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관B102호(건축학과 캐드실)</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -20583,7 +20583,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관B102호(건축학과 캐드실)</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -20703,7 +20703,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관211호(건축학과Studio)</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -20767,7 +20767,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관209호(건축학과Studio)</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -20831,7 +20831,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관210호(건축학과Studio)</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -20959,7 +20959,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관209호(건축학과Studio)</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -21087,7 +21087,7 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관211호(건축학과Studio)</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
@@ -21151,7 +21151,7 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관210호(건축학과Studio)</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
@@ -21275,7 +21275,7 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>목조실</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
@@ -21335,7 +21335,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관110호(건축재료시험실)</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -21395,7 +21395,7 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>목구조실</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
@@ -21455,7 +21455,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>목구조실</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -21515,7 +21515,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>목구조실</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -21575,7 +21575,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>디자인관216호(건축자율학습실)</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -26523,7 +26523,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>바울관207호강의실</t>
+          <t>바울관214호강의실</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -33175,7 +33175,7 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>바울관303호(AIC프로젝트 LAB실)</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
@@ -33355,7 +33355,7 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>바울관312호강의실</t>
+          <t>바울관303호(AIC프로젝트 LAB실)</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
@@ -33415,7 +33415,7 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>바울관312호강의실</t>
+          <t>바울관303호(AIC프로젝트 LAB실)</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
@@ -33827,7 +33827,7 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>바울관303호(AIC프로젝트 LAB실)</t>
+          <t>바울관313호강의실</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
@@ -33999,7 +33999,7 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>제1실습관203호강의실</t>
+          <t>제1실습관202호강의실</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
@@ -34415,7 +34415,7 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>바울관402호강의실</t>
+          <t>바울관312호강의실</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
@@ -36983,7 +36983,7 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>에스라관213호SW전용실습실,제1실습관403호(컴과실습실)</t>
+          <t>미지정,제1실습관403호(컴과실습실)</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
@@ -37047,7 +37047,7 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>에스라관213호SW전용실습실,제1실습관403호(컴과실습실)</t>
+          <t>미지정,제1실습관403호(컴과실습실)</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
@@ -51663,7 +51663,7 @@
       </c>
       <c r="K854" t="inlineStr">
         <is>
-          <t>다니엘관302호(中)강의실</t>
+          <t>신학관103호강의실</t>
         </is>
       </c>
       <c r="L854" t="inlineStr">
@@ -51963,7 +51963,7 @@
       </c>
       <c r="K859" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>사무엘관201호강의실</t>
         </is>
       </c>
       <c r="L859" t="inlineStr">
@@ -52323,7 +52323,7 @@
       </c>
       <c r="K865" t="inlineStr">
         <is>
-          <t>신학관103호강의실</t>
+          <t>신학관109호</t>
         </is>
       </c>
       <c r="L865" t="inlineStr">
@@ -54987,7 +54987,7 @@
       </c>
       <c r="K909" t="inlineStr">
         <is>
-          <t>신학관103호강의실</t>
+          <t>미지정</t>
         </is>
       </c>
       <c r="L909" t="inlineStr">
@@ -55287,7 +55287,7 @@
       </c>
       <c r="K914" t="inlineStr">
         <is>
-          <t>사무엘관109호강의실</t>
+          <t>신학관103호강의실</t>
         </is>
       </c>
       <c r="L914" t="inlineStr">
@@ -60227,7 +60227,7 @@
       </c>
       <c r="K996" t="inlineStr">
         <is>
-          <t>바울관214호강의실</t>
+          <t>바울관207호강의실</t>
         </is>
       </c>
       <c r="L996" t="inlineStr">
@@ -60287,7 +60287,7 @@
       </c>
       <c r="K997" t="inlineStr">
         <is>
-          <t>바울관207호강의실,바울관402호강의실</t>
+          <t>바울관214호강의실,바울관402호강의실</t>
         </is>
       </c>
       <c r="L997" t="inlineStr">
@@ -60903,7 +60903,7 @@
       </c>
       <c r="K1007" t="inlineStr">
         <is>
-          <t>바울관313호강의실</t>
+          <t>바울관306호강의실</t>
         </is>
       </c>
       <c r="L1007" t="inlineStr">
@@ -61023,7 +61023,7 @@
       </c>
       <c r="K1009" t="inlineStr">
         <is>
-          <t>사무엘관110호강의실</t>
+          <t>바울관402호강의실</t>
         </is>
       </c>
       <c r="L1009" t="inlineStr">
@@ -61207,7 +61207,7 @@
       </c>
       <c r="K1012" t="inlineStr">
         <is>
-          <t>바울관202호(PBL)강의실</t>
+          <t>바울관312호강의실,바울관313호강의실</t>
         </is>
       </c>
       <c r="L1012" t="inlineStr">
@@ -61387,7 +61387,7 @@
       </c>
       <c r="K1015" t="inlineStr">
         <is>
-          <t>바울관214호강의실,바울관306호강의실</t>
+          <t>바울관207호강의실,바울관306호강의실</t>
         </is>
       </c>
       <c r="L1015" t="inlineStr">
@@ -61507,7 +61507,7 @@
       </c>
       <c r="K1017" t="inlineStr">
         <is>
-          <t>바울관203호(PBL)강의실</t>
+          <t>바울관312호강의실</t>
         </is>
       </c>
       <c r="L1017" t="inlineStr">
@@ -61747,7 +61747,7 @@
       </c>
       <c r="K1021" t="inlineStr">
         <is>
-          <t>바울관306호강의실</t>
+          <t>바울관214호강의실</t>
         </is>
       </c>
       <c r="L1021" t="inlineStr">
@@ -62227,7 +62227,7 @@
       </c>
       <c r="K1029" t="inlineStr">
         <is>
-          <t>다니엘관B102호(大)취업특강강의실,요한관422호(中)강의실</t>
+          <t>다니엘관B102호(大)취업특강강의실,바울관214호강의실</t>
         </is>
       </c>
       <c r="L1029" t="inlineStr">
@@ -62963,7 +62963,7 @@
       </c>
       <c r="K1041" t="inlineStr">
         <is>
-          <t>바울관207호강의실</t>
+          <t>바울관214호강의실</t>
         </is>
       </c>
       <c r="L1041" t="inlineStr">
@@ -63263,7 +63263,7 @@
       </c>
       <c r="K1046" t="inlineStr">
         <is>
-          <t>사무엘관309호(大)강의실</t>
+          <t>에스라관406호강의실(첨단강의실)</t>
         </is>
       </c>
       <c r="L1046" t="inlineStr">
@@ -72115,7 +72115,7 @@
       </c>
       <c r="K1178" t="inlineStr">
         <is>
-          <t>신학관210호강의실</t>
+          <t>다니엘관406호(사용불가)(PBL 전용 Lab. 中)강의실</t>
         </is>
       </c>
       <c r="L1178" t="inlineStr">
@@ -74155,7 +74155,7 @@
       </c>
       <c r="K1208" t="inlineStr">
         <is>
-          <t>다니엘관403호(PBL)강의실</t>
+          <t>다니엘관B102호(大)취업특강강의실</t>
         </is>
       </c>
       <c r="L1208" t="inlineStr">
@@ -74223,7 +74223,7 @@
       </c>
       <c r="K1209" t="inlineStr">
         <is>
-          <t>다니엘관403호(PBL)강의실</t>
+          <t>다니엘관406호(사용불가)(PBL 전용 Lab. 中)강의실</t>
         </is>
       </c>
       <c r="L1209" t="inlineStr">
@@ -75311,7 +75311,7 @@
       </c>
       <c r="K1225" t="inlineStr">
         <is>
-          <t>다니엘관301호(中)강의실</t>
+          <t>요한관321호(中)강의실(첨단강의실)</t>
         </is>
       </c>
       <c r="L1225" t="inlineStr">
@@ -76463,7 +76463,7 @@
       </c>
       <c r="K1242" t="inlineStr">
         <is>
-          <t>신학관210호강의실</t>
+          <t>다니엘관406호(사용불가)(PBL 전용 Lab. 中)강의실</t>
         </is>
       </c>
       <c r="L1242" t="inlineStr">
@@ -77075,7 +77075,7 @@
       </c>
       <c r="K1251" t="inlineStr">
         <is>
-          <t>바울관313호강의실</t>
+          <t>신학관210호강의실</t>
         </is>
       </c>
       <c r="L1251" t="inlineStr">
@@ -77959,7 +77959,7 @@
       </c>
       <c r="K1264" t="inlineStr">
         <is>
-          <t>다니엘관207호(大)강의실</t>
+          <t>바울관313호강의실</t>
         </is>
       </c>
       <c r="L1264" t="inlineStr">
@@ -82463,7 +82463,7 @@
       </c>
       <c r="K1335" t="inlineStr">
         <is>
-          <t>신학관203호강의실</t>
+          <t>사무엘관110호강의실</t>
         </is>
       </c>
       <c r="L1335" t="inlineStr">
@@ -82523,7 +82523,7 @@
       </c>
       <c r="K1336" t="inlineStr">
         <is>
-          <t>신학관203호강의실</t>
+          <t>사무엘관110호강의실</t>
         </is>
       </c>
       <c r="L1336" t="inlineStr">
@@ -82759,7 +82759,7 @@
       </c>
       <c r="K1340" t="inlineStr">
         <is>
-          <t>사무엘관209호강의실</t>
+          <t>사무엘관309호(大)강의실</t>
         </is>
       </c>
       <c r="L1340" t="inlineStr">
@@ -82939,7 +82939,7 @@
       </c>
       <c r="K1343" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>사무엘관209호강의실</t>
         </is>
       </c>
       <c r="L1343" t="inlineStr">
@@ -83119,7 +83119,7 @@
       </c>
       <c r="K1346" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>사무엘관210호(PBL소형)강의실</t>
         </is>
       </c>
       <c r="L1346" t="inlineStr">
@@ -83179,7 +83179,7 @@
       </c>
       <c r="K1347" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>사무엘관308호(특수)강의실</t>
         </is>
       </c>
       <c r="L1347" t="inlineStr">
@@ -83295,7 +83295,7 @@
       </c>
       <c r="K1349" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>사무엘관110호강의실</t>
         </is>
       </c>
       <c r="L1349" t="inlineStr">
@@ -83355,7 +83355,7 @@
       </c>
       <c r="K1350" t="inlineStr">
         <is>
-          <t>신학관203호강의실</t>
+          <t>사무엘관110호강의실</t>
         </is>
       </c>
       <c r="L1350" t="inlineStr">
@@ -83775,7 +83775,7 @@
       </c>
       <c r="K1357" t="inlineStr">
         <is>
-          <t>사무엘관208호강의실</t>
+          <t>사무엘관201호강의실,사무엘관209호강의실</t>
         </is>
       </c>
       <c r="L1357" t="inlineStr">
@@ -83835,7 +83835,7 @@
       </c>
       <c r="K1358" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>사무엘관208호강의실,사무엘관210호(PBL소형)강의실</t>
         </is>
       </c>
       <c r="L1358" t="inlineStr">
@@ -84075,7 +84075,7 @@
       </c>
       <c r="K1362" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>사무엘관110호강의실,사무엘관209호강의실</t>
         </is>
       </c>
       <c r="L1362" t="inlineStr">
@@ -85155,7 +85155,7 @@
       </c>
       <c r="K1380" t="inlineStr">
         <is>
-          <t>사무엘관201호강의실</t>
+          <t>사무엘관202호강의실</t>
         </is>
       </c>
       <c r="L1380" t="inlineStr">
@@ -85335,7 +85335,7 @@
       </c>
       <c r="K1383" t="inlineStr">
         <is>
-          <t>사무엘관208호강의실</t>
+          <t>사무엘관210호(PBL소형)강의실</t>
         </is>
       </c>
       <c r="L1383" t="inlineStr">

--- a/data/2023년 2학기 정규 시간표.xlsx
+++ b/data/2023년 2학기 정규 시간표.xlsx
@@ -8443,7 +8443,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>에스라관213호SW전용실습실</t>
+          <t>신학과B106호강의실(시험용)</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>1과학308(교수연구실)</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>제3과학관403호(교수연구실)</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>다니엘관203호(小)(교필토익전용)강의실</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>다니엘관102호(한국어과정전용)</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -8849,11 +8849,7 @@
           <t>화9</t>
         </is>
       </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>미지정</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>과학기술대학</t>
@@ -9091,7 +9087,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>에스라관210호강의실</t>
+          <t>신학관208호(PBL소형)강의실</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -9259,7 +9255,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>에스라관211호SW전용실습실</t>
+          <t>신학관109호</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -10835,7 +10831,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>다니엘관301호(中)강의실,제3과학관207호강의실</t>
+          <t>요한관221호(中)(교필토익전용)강의실,제1과학관215호(일반화학실험실)</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -11319,7 +11315,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>제2과학관401호(생과제1실험실)</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -11859,7 +11855,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>다니엘관404호(大)강의실</t>
+          <t>에스라관210호강의실</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -33045,7 +33041,7 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>양민규</t>
+          <t>정재승</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
@@ -33105,7 +33101,7 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>양민규</t>
+          <t>정재승</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
@@ -34229,7 +34225,7 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>양민규</t>
+          <t>정재승</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
@@ -42379,7 +42375,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="I698" t="inlineStr"/>
+      <c r="I698" t="inlineStr">
+        <is>
+          <t>이용우</t>
+        </is>
+      </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
       <c r="L698" t="inlineStr">
@@ -64283,7 +64283,7 @@
       </c>
       <c r="K1062" t="inlineStr">
         <is>
-          <t>체육관 110호(무도관)</t>
+          <t>체육관 109호(탁구장)</t>
         </is>
       </c>
       <c r="L1062" t="inlineStr">
@@ -83287,7 +83287,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="I1349" t="inlineStr"/>
+      <c r="I1349" t="inlineStr">
+        <is>
+          <t>김진협</t>
+        </is>
+      </c>
       <c r="J1349" t="inlineStr">
         <is>
           <t>수7~8</t>
